--- a/database/industries/siman/semazen/product/monthly_seprated.xlsx
+++ b/database/industries/siman/semazen/product/monthly_seprated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\siman\semazen\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D71DA9EF-40C0-4287-904D-A835D6BF8E42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04E54FCF-E524-40DF-B9CF-1EA1C82D0E0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1691" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1647" uniqueCount="91">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -35,12 +35,6 @@
   </si>
   <si>
     <t>مقدار تولید</t>
-  </si>
-  <si>
-    <t>ماه 9 منتهی به 1397/06</t>
-  </si>
-  <si>
-    <t>ماه 10 منتهی به 1397/07</t>
   </si>
   <si>
     <t>ماه 11 منتهی به 1397/08</t>
@@ -185,6 +179,12 @@
   </si>
   <si>
     <t>ماه 10 منتهی به 1401/07</t>
+  </si>
+  <si>
+    <t>ماه 11 منتهی به 1401/08</t>
+  </si>
+  <si>
+    <t>ماه 12 منتهی به 1401/09</t>
   </si>
   <si>
     <t>مقدار تولید داخلی</t>
@@ -1528,59 +1528,59 @@
       <c r="AD11" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AE11" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF11" s="11" t="s">
-        <v>58</v>
+      <c r="AE11" s="11">
+        <v>90300</v>
+      </c>
+      <c r="AF11" s="11">
+        <v>109292</v>
       </c>
       <c r="AG11" s="11">
-        <v>90300</v>
+        <v>114851</v>
       </c>
       <c r="AH11" s="11">
-        <v>109292</v>
+        <v>103044</v>
       </c>
       <c r="AI11" s="11">
-        <v>114851</v>
+        <v>112753</v>
       </c>
       <c r="AJ11" s="11">
-        <v>103044</v>
+        <v>101486</v>
       </c>
       <c r="AK11" s="11">
-        <v>112753</v>
+        <v>74042</v>
       </c>
       <c r="AL11" s="11">
-        <v>101486</v>
+        <v>50045</v>
       </c>
       <c r="AM11" s="11">
-        <v>74042</v>
+        <v>103027</v>
       </c>
       <c r="AN11" s="11">
-        <v>50045</v>
+        <v>74815</v>
       </c>
       <c r="AO11" s="11">
-        <v>103027</v>
+        <v>75623</v>
       </c>
       <c r="AP11" s="11">
-        <v>74815</v>
+        <v>80101</v>
       </c>
       <c r="AQ11" s="11">
-        <v>75623</v>
+        <v>72874</v>
       </c>
       <c r="AR11" s="11">
-        <v>80101</v>
+        <v>75685</v>
       </c>
       <c r="AS11" s="11">
-        <v>72874</v>
-      </c>
-      <c r="AT11" s="11">
-        <v>75685</v>
-      </c>
-      <c r="AU11" s="11">
         <v>79060</v>
       </c>
-      <c r="AV11" s="11">
-        <v>58313</v>
+      <c r="AT11" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU11" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV11" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AW11" s="11" t="s">
         <v>58</v>
@@ -1687,59 +1687,59 @@
       <c r="AD12" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AE12" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF12" s="13" t="s">
-        <v>58</v>
+      <c r="AE12" s="13">
+        <v>83686</v>
+      </c>
+      <c r="AF12" s="13">
+        <v>95299</v>
       </c>
       <c r="AG12" s="13">
-        <v>83686</v>
+        <v>103899</v>
       </c>
       <c r="AH12" s="13">
-        <v>95299</v>
+        <v>73138</v>
       </c>
       <c r="AI12" s="13">
-        <v>103899</v>
+        <v>85540</v>
       </c>
       <c r="AJ12" s="13">
-        <v>73138</v>
+        <v>88404</v>
       </c>
       <c r="AK12" s="13">
-        <v>85540</v>
+        <v>57942</v>
       </c>
       <c r="AL12" s="13">
-        <v>88404</v>
+        <v>50935</v>
       </c>
       <c r="AM12" s="13">
-        <v>57942</v>
+        <v>73980</v>
       </c>
       <c r="AN12" s="13">
-        <v>50935</v>
+        <v>71950</v>
       </c>
       <c r="AO12" s="13">
-        <v>73980</v>
+        <v>77849</v>
       </c>
       <c r="AP12" s="13">
-        <v>71950</v>
+        <v>88574</v>
       </c>
       <c r="AQ12" s="13">
-        <v>77849</v>
+        <v>73342</v>
       </c>
       <c r="AR12" s="13">
-        <v>88574</v>
+        <v>76170</v>
       </c>
       <c r="AS12" s="13">
-        <v>73342</v>
-      </c>
-      <c r="AT12" s="13">
-        <v>76170</v>
-      </c>
-      <c r="AU12" s="13">
         <v>84686</v>
       </c>
-      <c r="AV12" s="13">
-        <v>73346</v>
+      <c r="AT12" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU12" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV12" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AW12" s="13" t="s">
         <v>58</v>
@@ -1891,32 +1891,32 @@
       <c r="AS13" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AT13" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU13" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV13" s="11" t="s">
-        <v>58</v>
+      <c r="AT13" s="11">
+        <v>58313</v>
+      </c>
+      <c r="AU13" s="11">
+        <v>87370</v>
+      </c>
+      <c r="AV13" s="11">
+        <v>67637</v>
       </c>
       <c r="AW13" s="11">
-        <v>87370</v>
+        <v>83560</v>
       </c>
       <c r="AX13" s="11">
-        <v>67637</v>
+        <v>84944</v>
       </c>
       <c r="AY13" s="11">
-        <v>83560</v>
+        <v>83014</v>
       </c>
       <c r="AZ13" s="11">
-        <v>84944</v>
+        <v>70044</v>
       </c>
       <c r="BA13" s="11">
-        <v>83014</v>
+        <v>80984</v>
       </c>
       <c r="BB13" s="11">
-        <v>70044</v>
+        <v>72890</v>
       </c>
     </row>
     <row r="14" spans="2:54" x14ac:dyDescent="0.3">
@@ -2050,32 +2050,32 @@
       <c r="AS14" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AT14" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU14" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV14" s="13" t="s">
-        <v>58</v>
+      <c r="AT14" s="13">
+        <v>73346</v>
+      </c>
+      <c r="AU14" s="13">
+        <v>93815</v>
+      </c>
+      <c r="AV14" s="13">
+        <v>66563</v>
       </c>
       <c r="AW14" s="13">
-        <v>93815</v>
+        <v>75086</v>
       </c>
       <c r="AX14" s="13">
-        <v>66563</v>
+        <v>86238</v>
       </c>
       <c r="AY14" s="13">
-        <v>75086</v>
+        <v>94969</v>
       </c>
       <c r="AZ14" s="13">
-        <v>86238</v>
+        <v>102885</v>
       </c>
       <c r="BA14" s="13">
-        <v>94969</v>
+        <v>91383</v>
       </c>
       <c r="BB14" s="13">
-        <v>102885</v>
+        <v>97245</v>
       </c>
     </row>
     <row r="15" spans="2:54" x14ac:dyDescent="0.3">
@@ -2322,76 +2322,76 @@
         <v>0</v>
       </c>
       <c r="AE16" s="15">
-        <v>0</v>
+        <v>173986</v>
       </c>
       <c r="AF16" s="15">
-        <v>0</v>
+        <v>204591</v>
       </c>
       <c r="AG16" s="15">
-        <v>173986</v>
+        <v>218750</v>
       </c>
       <c r="AH16" s="15">
-        <v>204591</v>
+        <v>176182</v>
       </c>
       <c r="AI16" s="15">
-        <v>218750</v>
+        <v>198293</v>
       </c>
       <c r="AJ16" s="15">
-        <v>176182</v>
+        <v>189890</v>
       </c>
       <c r="AK16" s="15">
-        <v>198293</v>
+        <v>131984</v>
       </c>
       <c r="AL16" s="15">
-        <v>189890</v>
+        <v>100980</v>
       </c>
       <c r="AM16" s="15">
-        <v>131984</v>
+        <v>177007</v>
       </c>
       <c r="AN16" s="15">
-        <v>100980</v>
+        <v>146765</v>
       </c>
       <c r="AO16" s="15">
-        <v>177007</v>
+        <v>153472</v>
       </c>
       <c r="AP16" s="15">
-        <v>146765</v>
+        <v>168675</v>
       </c>
       <c r="AQ16" s="15">
-        <v>153472</v>
+        <v>146216</v>
       </c>
       <c r="AR16" s="15">
-        <v>168675</v>
+        <v>151855</v>
       </c>
       <c r="AS16" s="15">
-        <v>146216</v>
+        <v>163746</v>
       </c>
       <c r="AT16" s="15">
-        <v>151855</v>
+        <v>131659</v>
       </c>
       <c r="AU16" s="15">
-        <v>163746</v>
+        <v>181185</v>
       </c>
       <c r="AV16" s="15">
-        <v>131659</v>
+        <v>134200</v>
       </c>
       <c r="AW16" s="15">
-        <v>181185</v>
+        <v>158646</v>
       </c>
       <c r="AX16" s="15">
-        <v>134200</v>
+        <v>171182</v>
       </c>
       <c r="AY16" s="15">
-        <v>158646</v>
+        <v>177983</v>
       </c>
       <c r="AZ16" s="15">
-        <v>171182</v>
+        <v>172928</v>
       </c>
       <c r="BA16" s="15">
-        <v>177983</v>
+        <v>172366</v>
       </c>
       <c r="BB16" s="15">
-        <v>172928</v>
+        <v>170135</v>
       </c>
     </row>
     <row r="17" spans="2:54" x14ac:dyDescent="0.3">
@@ -2537,77 +2537,77 @@
       <c r="AD18" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AE18" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF18" s="11" t="s">
-        <v>58</v>
+      <c r="AE18" s="11">
+        <v>78840</v>
+      </c>
+      <c r="AF18" s="11">
+        <v>109700</v>
       </c>
       <c r="AG18" s="11">
-        <v>78840</v>
+        <v>220450</v>
       </c>
       <c r="AH18" s="11">
-        <v>109700</v>
+        <v>227560</v>
       </c>
       <c r="AI18" s="11">
-        <v>220450</v>
+        <v>211440</v>
       </c>
       <c r="AJ18" s="11">
-        <v>227560</v>
+        <v>149740</v>
       </c>
       <c r="AK18" s="11">
-        <v>211440</v>
+        <v>84760</v>
       </c>
       <c r="AL18" s="11">
-        <v>149740</v>
+        <v>96900</v>
       </c>
       <c r="AM18" s="11">
-        <v>84760</v>
+        <v>132730</v>
       </c>
       <c r="AN18" s="11">
-        <v>96900</v>
+        <v>214160</v>
       </c>
       <c r="AO18" s="11">
-        <v>132730</v>
+        <v>218350</v>
       </c>
       <c r="AP18" s="11">
-        <v>214160</v>
+        <v>166550</v>
       </c>
       <c r="AQ18" s="11">
-        <v>218350</v>
+        <v>168620</v>
       </c>
       <c r="AR18" s="11">
-        <v>166550</v>
+        <v>114940</v>
       </c>
       <c r="AS18" s="11">
-        <v>168620</v>
+        <v>213490</v>
       </c>
       <c r="AT18" s="11">
-        <v>114940</v>
+        <v>191470</v>
       </c>
       <c r="AU18" s="11">
-        <v>213490</v>
+        <v>226080</v>
       </c>
       <c r="AV18" s="11">
-        <v>191470</v>
+        <v>219950</v>
       </c>
       <c r="AW18" s="11">
-        <v>226080</v>
+        <v>122390</v>
       </c>
       <c r="AX18" s="11">
-        <v>219950</v>
+        <v>103130</v>
       </c>
       <c r="AY18" s="11">
-        <v>122390</v>
+        <v>117210</v>
       </c>
       <c r="AZ18" s="11">
-        <v>103130</v>
+        <v>218140</v>
       </c>
       <c r="BA18" s="11">
-        <v>117210</v>
+        <v>210040</v>
       </c>
       <c r="BB18" s="11">
-        <v>218140</v>
+        <v>208060</v>
       </c>
     </row>
     <row r="19" spans="2:54" x14ac:dyDescent="0.3">
@@ -2741,32 +2741,32 @@
       <c r="AS19" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AT19" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU19" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV19" s="13" t="s">
-        <v>58</v>
+      <c r="AT19" s="13">
+        <v>5741</v>
+      </c>
+      <c r="AU19" s="13">
+        <v>13395</v>
+      </c>
+      <c r="AV19" s="13">
+        <v>11670</v>
       </c>
       <c r="AW19" s="13">
-        <v>13395</v>
+        <v>20194</v>
       </c>
       <c r="AX19" s="13">
-        <v>11670</v>
+        <v>22598</v>
       </c>
       <c r="AY19" s="13">
-        <v>20194</v>
+        <v>11807</v>
       </c>
       <c r="AZ19" s="13">
-        <v>22598</v>
+        <v>21898</v>
       </c>
       <c r="BA19" s="13">
-        <v>11807</v>
+        <v>20862</v>
       </c>
       <c r="BB19" s="13">
-        <v>21898</v>
+        <v>15675</v>
       </c>
     </row>
     <row r="20" spans="2:54" x14ac:dyDescent="0.3">
@@ -2855,59 +2855,59 @@
       <c r="AD20" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AE20" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF20" s="11" t="s">
-        <v>58</v>
+      <c r="AE20" s="11">
+        <v>3164</v>
+      </c>
+      <c r="AF20" s="11">
+        <v>4639</v>
       </c>
       <c r="AG20" s="11">
-        <v>3164</v>
+        <v>14170</v>
       </c>
       <c r="AH20" s="11">
-        <v>4639</v>
+        <v>52358</v>
       </c>
       <c r="AI20" s="11">
-        <v>14170</v>
+        <v>26167</v>
       </c>
       <c r="AJ20" s="11">
-        <v>52358</v>
+        <v>2190</v>
       </c>
       <c r="AK20" s="11">
-        <v>26167</v>
+        <v>2786</v>
       </c>
       <c r="AL20" s="11">
-        <v>2190</v>
+        <v>4870</v>
       </c>
       <c r="AM20" s="11">
-        <v>2786</v>
+        <v>4283</v>
       </c>
       <c r="AN20" s="11">
-        <v>4870</v>
+        <v>8354</v>
       </c>
       <c r="AO20" s="11">
-        <v>4283</v>
+        <v>10568</v>
       </c>
       <c r="AP20" s="11">
-        <v>8354</v>
+        <v>11526</v>
       </c>
       <c r="AQ20" s="11">
-        <v>10568</v>
+        <v>3154</v>
       </c>
       <c r="AR20" s="11">
-        <v>11526</v>
+        <v>3275</v>
       </c>
       <c r="AS20" s="11">
-        <v>3154</v>
-      </c>
-      <c r="AT20" s="11">
-        <v>3275</v>
-      </c>
-      <c r="AU20" s="11">
         <v>6874</v>
       </c>
-      <c r="AV20" s="11">
-        <v>5741</v>
+      <c r="AT20" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU20" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV20" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AW20" s="11" t="s">
         <v>58</v>
@@ -3013,76 +3013,76 @@
         <v>0</v>
       </c>
       <c r="AE21" s="15">
-        <v>0</v>
+        <v>82004</v>
       </c>
       <c r="AF21" s="15">
-        <v>0</v>
+        <v>114339</v>
       </c>
       <c r="AG21" s="15">
-        <v>82004</v>
+        <v>234620</v>
       </c>
       <c r="AH21" s="15">
-        <v>114339</v>
+        <v>279918</v>
       </c>
       <c r="AI21" s="15">
-        <v>234620</v>
+        <v>237607</v>
       </c>
       <c r="AJ21" s="15">
-        <v>279918</v>
+        <v>151930</v>
       </c>
       <c r="AK21" s="15">
-        <v>237607</v>
+        <v>87546</v>
       </c>
       <c r="AL21" s="15">
-        <v>151930</v>
+        <v>101770</v>
       </c>
       <c r="AM21" s="15">
-        <v>87546</v>
+        <v>137013</v>
       </c>
       <c r="AN21" s="15">
-        <v>101770</v>
+        <v>222514</v>
       </c>
       <c r="AO21" s="15">
-        <v>137013</v>
+        <v>228918</v>
       </c>
       <c r="AP21" s="15">
-        <v>222514</v>
+        <v>178076</v>
       </c>
       <c r="AQ21" s="15">
-        <v>228918</v>
+        <v>171774</v>
       </c>
       <c r="AR21" s="15">
-        <v>178076</v>
+        <v>118215</v>
       </c>
       <c r="AS21" s="15">
-        <v>171774</v>
+        <v>220364</v>
       </c>
       <c r="AT21" s="15">
-        <v>118215</v>
+        <v>197211</v>
       </c>
       <c r="AU21" s="15">
-        <v>220364</v>
+        <v>239475</v>
       </c>
       <c r="AV21" s="15">
-        <v>197211</v>
+        <v>231620</v>
       </c>
       <c r="AW21" s="15">
-        <v>239475</v>
+        <v>142584</v>
       </c>
       <c r="AX21" s="15">
-        <v>231620</v>
+        <v>125728</v>
       </c>
       <c r="AY21" s="15">
-        <v>142584</v>
+        <v>129017</v>
       </c>
       <c r="AZ21" s="15">
-        <v>125728</v>
+        <v>240038</v>
       </c>
       <c r="BA21" s="15">
-        <v>129017</v>
+        <v>230902</v>
       </c>
       <c r="BB21" s="15">
-        <v>240038</v>
+        <v>223735</v>
       </c>
     </row>
     <row r="22" spans="2:54" x14ac:dyDescent="0.3">
@@ -3226,11 +3226,11 @@
       <c r="AD23" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="AE23" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF23" s="19" t="s">
-        <v>58</v>
+      <c r="AE23" s="19">
+        <v>0</v>
+      </c>
+      <c r="AF23" s="19">
+        <v>0</v>
       </c>
       <c r="AG23" s="19">
         <v>0</v>
@@ -3384,76 +3384,76 @@
         <v>0</v>
       </c>
       <c r="AE24" s="15">
-        <v>0</v>
+        <v>255990</v>
       </c>
       <c r="AF24" s="15">
-        <v>0</v>
+        <v>318930</v>
       </c>
       <c r="AG24" s="15">
-        <v>255990</v>
+        <v>453370</v>
       </c>
       <c r="AH24" s="15">
-        <v>318930</v>
+        <v>456100</v>
       </c>
       <c r="AI24" s="15">
-        <v>453370</v>
+        <v>435900</v>
       </c>
       <c r="AJ24" s="15">
-        <v>456100</v>
+        <v>341820</v>
       </c>
       <c r="AK24" s="15">
-        <v>435900</v>
+        <v>219530</v>
       </c>
       <c r="AL24" s="15">
-        <v>341820</v>
+        <v>202750</v>
       </c>
       <c r="AM24" s="15">
-        <v>219530</v>
+        <v>314020</v>
       </c>
       <c r="AN24" s="15">
-        <v>202750</v>
+        <v>369279</v>
       </c>
       <c r="AO24" s="15">
-        <v>314020</v>
+        <v>382390</v>
       </c>
       <c r="AP24" s="15">
-        <v>369279</v>
+        <v>346751</v>
       </c>
       <c r="AQ24" s="15">
-        <v>382390</v>
+        <v>317990</v>
       </c>
       <c r="AR24" s="15">
-        <v>346751</v>
+        <v>270070</v>
       </c>
       <c r="AS24" s="15">
-        <v>317990</v>
+        <v>384110</v>
       </c>
       <c r="AT24" s="15">
-        <v>270070</v>
+        <v>328870</v>
       </c>
       <c r="AU24" s="15">
-        <v>384110</v>
+        <v>420660</v>
       </c>
       <c r="AV24" s="15">
-        <v>328870</v>
+        <v>365820</v>
       </c>
       <c r="AW24" s="15">
-        <v>420660</v>
+        <v>301230</v>
       </c>
       <c r="AX24" s="15">
-        <v>365820</v>
+        <v>296910</v>
       </c>
       <c r="AY24" s="15">
-        <v>301230</v>
+        <v>307000</v>
       </c>
       <c r="AZ24" s="15">
-        <v>296910</v>
+        <v>412966</v>
       </c>
       <c r="BA24" s="15">
-        <v>307000</v>
+        <v>403268</v>
       </c>
       <c r="BB24" s="15">
-        <v>412966</v>
+        <v>393870</v>
       </c>
     </row>
     <row r="25" spans="2:54" x14ac:dyDescent="0.3">
@@ -3976,59 +3976,59 @@
       <c r="AD31" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AE31" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF31" s="11" t="s">
-        <v>58</v>
+      <c r="AE31" s="11">
+        <v>89161</v>
+      </c>
+      <c r="AF31" s="11">
+        <v>113357</v>
       </c>
       <c r="AG31" s="11">
-        <v>89161</v>
+        <v>117578</v>
       </c>
       <c r="AH31" s="11">
-        <v>113357</v>
+        <v>94458</v>
       </c>
       <c r="AI31" s="11">
-        <v>117578</v>
+        <v>108306</v>
       </c>
       <c r="AJ31" s="11">
-        <v>94458</v>
+        <v>112681</v>
       </c>
       <c r="AK31" s="11">
-        <v>108306</v>
+        <v>66704</v>
       </c>
       <c r="AL31" s="11">
-        <v>112681</v>
+        <v>58378</v>
       </c>
       <c r="AM31" s="11">
-        <v>66704</v>
+        <v>98093</v>
       </c>
       <c r="AN31" s="11">
-        <v>58378</v>
+        <v>72987</v>
       </c>
       <c r="AO31" s="11">
-        <v>98093</v>
+        <v>78388</v>
       </c>
       <c r="AP31" s="11">
-        <v>72987</v>
+        <v>76964</v>
       </c>
       <c r="AQ31" s="11">
-        <v>78388</v>
+        <v>70245</v>
       </c>
       <c r="AR31" s="11">
-        <v>76964</v>
+        <v>70332</v>
       </c>
       <c r="AS31" s="11">
-        <v>70245</v>
-      </c>
-      <c r="AT31" s="11">
-        <v>70332</v>
-      </c>
-      <c r="AU31" s="11">
         <v>77798</v>
       </c>
-      <c r="AV31" s="11">
-        <v>58557</v>
+      <c r="AT31" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU31" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV31" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AW31" s="11" t="s">
         <v>58</v>
@@ -4135,59 +4135,59 @@
       <c r="AD32" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AE32" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF32" s="13" t="s">
-        <v>58</v>
+      <c r="AE32" s="13">
+        <v>82630</v>
+      </c>
+      <c r="AF32" s="13">
+        <v>98843</v>
       </c>
       <c r="AG32" s="13">
-        <v>82630</v>
+        <v>106366</v>
       </c>
       <c r="AH32" s="13">
-        <v>98843</v>
+        <v>67044</v>
       </c>
       <c r="AI32" s="13">
-        <v>106366</v>
+        <v>82167</v>
       </c>
       <c r="AJ32" s="13">
-        <v>67044</v>
+        <v>98156</v>
       </c>
       <c r="AK32" s="13">
-        <v>82167</v>
+        <v>52200</v>
       </c>
       <c r="AL32" s="13">
-        <v>98156</v>
+        <v>59416</v>
       </c>
       <c r="AM32" s="13">
-        <v>52200</v>
+        <v>70437</v>
       </c>
       <c r="AN32" s="13">
-        <v>59416</v>
+        <v>70191</v>
       </c>
       <c r="AO32" s="13">
-        <v>70437</v>
+        <v>80694</v>
       </c>
       <c r="AP32" s="13">
-        <v>70191</v>
+        <v>85104</v>
       </c>
       <c r="AQ32" s="13">
-        <v>80694</v>
+        <v>70696</v>
       </c>
       <c r="AR32" s="13">
-        <v>85104</v>
+        <v>78327</v>
       </c>
       <c r="AS32" s="13">
-        <v>70696</v>
-      </c>
-      <c r="AT32" s="13">
-        <v>78327</v>
-      </c>
-      <c r="AU32" s="13">
         <v>83333</v>
       </c>
-      <c r="AV32" s="13">
-        <v>73653</v>
+      <c r="AT32" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU32" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV32" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AW32" s="13" t="s">
         <v>58</v>
@@ -4339,32 +4339,32 @@
       <c r="AS33" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AT33" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU33" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV33" s="11" t="s">
-        <v>58</v>
+      <c r="AT33" s="11">
+        <v>58557</v>
+      </c>
+      <c r="AU33" s="11">
+        <v>84374</v>
+      </c>
+      <c r="AV33" s="11">
+        <v>81661</v>
       </c>
       <c r="AW33" s="11">
-        <v>84374</v>
+        <v>80952</v>
       </c>
       <c r="AX33" s="11">
-        <v>81661</v>
+        <v>76696</v>
       </c>
       <c r="AY33" s="11">
-        <v>80952</v>
+        <v>86267</v>
       </c>
       <c r="AZ33" s="11">
-        <v>76696</v>
+        <v>75618</v>
       </c>
       <c r="BA33" s="11">
-        <v>86267</v>
+        <v>73210</v>
       </c>
       <c r="BB33" s="11">
-        <v>75618</v>
+        <v>76249</v>
       </c>
     </row>
     <row r="34" spans="2:54" x14ac:dyDescent="0.3">
@@ -4498,32 +4498,32 @@
       <c r="AS34" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AT34" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU34" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV34" s="13" t="s">
-        <v>58</v>
+      <c r="AT34" s="13">
+        <v>73653</v>
+      </c>
+      <c r="AU34" s="13">
+        <v>90595</v>
+      </c>
+      <c r="AV34" s="13">
+        <v>80455</v>
       </c>
       <c r="AW34" s="13">
-        <v>90595</v>
+        <v>72620</v>
       </c>
       <c r="AX34" s="13">
-        <v>80455</v>
+        <v>77866</v>
       </c>
       <c r="AY34" s="13">
-        <v>72620</v>
+        <v>98690</v>
       </c>
       <c r="AZ34" s="13">
-        <v>77866</v>
+        <v>100865</v>
       </c>
       <c r="BA34" s="13">
-        <v>98690</v>
+        <v>90838</v>
       </c>
       <c r="BB34" s="13">
-        <v>100865</v>
+        <v>101727</v>
       </c>
     </row>
     <row r="35" spans="2:54" x14ac:dyDescent="0.3">
@@ -4770,76 +4770,76 @@
         <v>0</v>
       </c>
       <c r="AE36" s="15">
-        <v>0</v>
+        <v>171791</v>
       </c>
       <c r="AF36" s="15">
-        <v>0</v>
+        <v>212200</v>
       </c>
       <c r="AG36" s="15">
-        <v>171791</v>
+        <v>223944</v>
       </c>
       <c r="AH36" s="15">
-        <v>212200</v>
+        <v>161502</v>
       </c>
       <c r="AI36" s="15">
-        <v>223944</v>
+        <v>190473</v>
       </c>
       <c r="AJ36" s="15">
-        <v>161502</v>
+        <v>210837</v>
       </c>
       <c r="AK36" s="15">
-        <v>190473</v>
+        <v>118904</v>
       </c>
       <c r="AL36" s="15">
-        <v>210837</v>
+        <v>117794</v>
       </c>
       <c r="AM36" s="15">
-        <v>118904</v>
+        <v>168530</v>
       </c>
       <c r="AN36" s="15">
-        <v>117794</v>
+        <v>143178</v>
       </c>
       <c r="AO36" s="15">
-        <v>168530</v>
+        <v>159082</v>
       </c>
       <c r="AP36" s="15">
-        <v>143178</v>
+        <v>162068</v>
       </c>
       <c r="AQ36" s="15">
-        <v>159082</v>
+        <v>140941</v>
       </c>
       <c r="AR36" s="15">
-        <v>162068</v>
+        <v>148659</v>
       </c>
       <c r="AS36" s="15">
-        <v>140941</v>
+        <v>161131</v>
       </c>
       <c r="AT36" s="15">
-        <v>148659</v>
+        <v>132210</v>
       </c>
       <c r="AU36" s="15">
-        <v>161131</v>
+        <v>174969</v>
       </c>
       <c r="AV36" s="15">
-        <v>132210</v>
+        <v>162116</v>
       </c>
       <c r="AW36" s="15">
-        <v>174969</v>
+        <v>153572</v>
       </c>
       <c r="AX36" s="15">
-        <v>162116</v>
+        <v>154562</v>
       </c>
       <c r="AY36" s="15">
-        <v>153572</v>
+        <v>184957</v>
       </c>
       <c r="AZ36" s="15">
-        <v>154562</v>
+        <v>176483</v>
       </c>
       <c r="BA36" s="15">
-        <v>184957</v>
+        <v>164048</v>
       </c>
       <c r="BB36" s="15">
-        <v>176483</v>
+        <v>177976</v>
       </c>
     </row>
     <row r="37" spans="2:54" x14ac:dyDescent="0.3">
@@ -4985,11 +4985,11 @@
       <c r="AD38" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AE38" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF38" s="11" t="s">
-        <v>58</v>
+      <c r="AE38" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF38" s="11">
+        <v>0</v>
       </c>
       <c r="AG38" s="11">
         <v>0</v>
@@ -4998,22 +4998,22 @@
         <v>0</v>
       </c>
       <c r="AI38" s="11">
-        <v>0</v>
+        <v>4887</v>
       </c>
       <c r="AJ38" s="11">
-        <v>0</v>
-      </c>
-      <c r="AK38" s="11">
-        <v>4887</v>
+        <v>1912</v>
+      </c>
+      <c r="AK38" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AL38" s="11">
-        <v>1912</v>
+        <v>2192</v>
       </c>
       <c r="AM38" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AN38" s="11">
-        <v>2192</v>
+      <c r="AN38" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AO38" s="11" t="s">
         <v>58</v>
@@ -5024,11 +5024,11 @@
       <c r="AQ38" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR38" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS38" s="11" t="s">
-        <v>58</v>
+      <c r="AR38" s="11">
+        <v>0</v>
+      </c>
+      <c r="AS38" s="11">
+        <v>0</v>
       </c>
       <c r="AT38" s="11">
         <v>0</v>
@@ -5036,26 +5036,26 @@
       <c r="AU38" s="11">
         <v>0</v>
       </c>
-      <c r="AV38" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW38" s="11" t="s">
-        <v>58</v>
+      <c r="AV38" s="11">
+        <v>4000</v>
+      </c>
+      <c r="AW38" s="11">
+        <v>0</v>
       </c>
       <c r="AX38" s="11">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="AY38" s="11">
-        <v>0</v>
+        <v>5500</v>
       </c>
       <c r="AZ38" s="11">
-        <v>0</v>
+        <v>3900</v>
       </c>
       <c r="BA38" s="11">
-        <v>5500</v>
+        <v>0</v>
       </c>
       <c r="BB38" s="11">
-        <v>3900</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="2:54" x14ac:dyDescent="0.3">
@@ -5189,32 +5189,32 @@
       <c r="AS39" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AT39" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU39" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV39" s="13" t="s">
-        <v>58</v>
+      <c r="AT39" s="13">
+        <v>5765</v>
+      </c>
+      <c r="AU39" s="13">
+        <v>12935</v>
+      </c>
+      <c r="AV39" s="13">
+        <v>12530</v>
       </c>
       <c r="AW39" s="13">
-        <v>12935</v>
+        <v>20873</v>
       </c>
       <c r="AX39" s="13">
-        <v>12530</v>
+        <v>20405</v>
       </c>
       <c r="AY39" s="13">
-        <v>20873</v>
+        <v>12269</v>
       </c>
       <c r="AZ39" s="13">
-        <v>20405</v>
+        <v>16839</v>
       </c>
       <c r="BA39" s="13">
-        <v>12269</v>
+        <v>19786</v>
       </c>
       <c r="BB39" s="13">
-        <v>16839</v>
+        <v>16397</v>
       </c>
     </row>
     <row r="40" spans="2:54" x14ac:dyDescent="0.3">
@@ -5303,59 +5303,59 @@
       <c r="AD40" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AE40" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF40" s="11" t="s">
-        <v>58</v>
+      <c r="AE40" s="11">
+        <v>3124</v>
+      </c>
+      <c r="AF40" s="11">
+        <v>4812</v>
       </c>
       <c r="AG40" s="11">
-        <v>3124</v>
+        <v>14506</v>
       </c>
       <c r="AH40" s="11">
-        <v>4812</v>
+        <v>47996</v>
       </c>
       <c r="AI40" s="11">
-        <v>14506</v>
+        <v>25135</v>
       </c>
       <c r="AJ40" s="11">
-        <v>47996</v>
+        <v>2432</v>
       </c>
       <c r="AK40" s="11">
-        <v>25135</v>
+        <v>2510</v>
       </c>
       <c r="AL40" s="11">
-        <v>2432</v>
+        <v>5681</v>
       </c>
       <c r="AM40" s="11">
-        <v>2510</v>
+        <v>4078</v>
       </c>
       <c r="AN40" s="11">
-        <v>5681</v>
+        <v>8150</v>
       </c>
       <c r="AO40" s="11">
-        <v>4078</v>
+        <v>10954</v>
       </c>
       <c r="AP40" s="11">
-        <v>8150</v>
+        <v>11075</v>
       </c>
       <c r="AQ40" s="11">
-        <v>10954</v>
+        <v>3040</v>
       </c>
       <c r="AR40" s="11">
-        <v>11075</v>
+        <v>9186</v>
       </c>
       <c r="AS40" s="11">
-        <v>3040</v>
-      </c>
-      <c r="AT40" s="11">
-        <v>9186</v>
-      </c>
-      <c r="AU40" s="11">
         <v>6764</v>
       </c>
-      <c r="AV40" s="11">
-        <v>5765</v>
+      <c r="AT40" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU40" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV40" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AW40" s="11" t="s">
         <v>58</v>
@@ -5461,76 +5461,76 @@
         <v>0</v>
       </c>
       <c r="AE41" s="15">
-        <v>0</v>
+        <v>3124</v>
       </c>
       <c r="AF41" s="15">
-        <v>0</v>
+        <v>4812</v>
       </c>
       <c r="AG41" s="15">
-        <v>3124</v>
+        <v>14506</v>
       </c>
       <c r="AH41" s="15">
-        <v>4812</v>
+        <v>47996</v>
       </c>
       <c r="AI41" s="15">
-        <v>14506</v>
+        <v>30022</v>
       </c>
       <c r="AJ41" s="15">
-        <v>47996</v>
+        <v>4344</v>
       </c>
       <c r="AK41" s="15">
-        <v>30022</v>
+        <v>2510</v>
       </c>
       <c r="AL41" s="15">
-        <v>4344</v>
+        <v>7873</v>
       </c>
       <c r="AM41" s="15">
-        <v>2510</v>
+        <v>4078</v>
       </c>
       <c r="AN41" s="15">
-        <v>7873</v>
+        <v>8150</v>
       </c>
       <c r="AO41" s="15">
-        <v>4078</v>
+        <v>10954</v>
       </c>
       <c r="AP41" s="15">
-        <v>8150</v>
+        <v>11075</v>
       </c>
       <c r="AQ41" s="15">
-        <v>10954</v>
+        <v>3040</v>
       </c>
       <c r="AR41" s="15">
-        <v>11075</v>
+        <v>9186</v>
       </c>
       <c r="AS41" s="15">
-        <v>3040</v>
+        <v>6764</v>
       </c>
       <c r="AT41" s="15">
-        <v>9186</v>
+        <v>5765</v>
       </c>
       <c r="AU41" s="15">
-        <v>6764</v>
+        <v>12935</v>
       </c>
       <c r="AV41" s="15">
-        <v>5765</v>
+        <v>16530</v>
       </c>
       <c r="AW41" s="15">
-        <v>12935</v>
+        <v>20873</v>
       </c>
       <c r="AX41" s="15">
-        <v>16530</v>
+        <v>20405</v>
       </c>
       <c r="AY41" s="15">
-        <v>20873</v>
+        <v>17769</v>
       </c>
       <c r="AZ41" s="15">
-        <v>20405</v>
+        <v>20739</v>
       </c>
       <c r="BA41" s="15">
-        <v>17769</v>
+        <v>19786</v>
       </c>
       <c r="BB41" s="15">
-        <v>20739</v>
+        <v>16397</v>
       </c>
     </row>
     <row r="42" spans="2:54" x14ac:dyDescent="0.3">
@@ -5674,11 +5674,11 @@
       <c r="AD43" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="AE43" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF43" s="19" t="s">
-        <v>58</v>
+      <c r="AE43" s="19">
+        <v>0</v>
+      </c>
+      <c r="AF43" s="19">
+        <v>0</v>
       </c>
       <c r="AG43" s="19">
         <v>0</v>
@@ -5888,11 +5888,11 @@
       <c r="AD45" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="AE45" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF45" s="19" t="s">
-        <v>58</v>
+      <c r="AE45" s="19">
+        <v>0</v>
+      </c>
+      <c r="AF45" s="19">
+        <v>0</v>
       </c>
       <c r="AG45" s="19">
         <v>0</v>
@@ -6046,76 +6046,76 @@
         <v>0</v>
       </c>
       <c r="AE46" s="15">
-        <v>0</v>
+        <v>174915</v>
       </c>
       <c r="AF46" s="15">
-        <v>0</v>
+        <v>217012</v>
       </c>
       <c r="AG46" s="15">
-        <v>174915</v>
+        <v>238450</v>
       </c>
       <c r="AH46" s="15">
-        <v>217012</v>
+        <v>209498</v>
       </c>
       <c r="AI46" s="15">
-        <v>238450</v>
+        <v>220495</v>
       </c>
       <c r="AJ46" s="15">
-        <v>209498</v>
+        <v>215181</v>
       </c>
       <c r="AK46" s="15">
-        <v>220495</v>
+        <v>121414</v>
       </c>
       <c r="AL46" s="15">
-        <v>215181</v>
+        <v>125667</v>
       </c>
       <c r="AM46" s="15">
-        <v>121414</v>
+        <v>172608</v>
       </c>
       <c r="AN46" s="15">
-        <v>125667</v>
+        <v>151328</v>
       </c>
       <c r="AO46" s="15">
-        <v>172608</v>
+        <v>170036</v>
       </c>
       <c r="AP46" s="15">
-        <v>151328</v>
+        <v>173143</v>
       </c>
       <c r="AQ46" s="15">
-        <v>170036</v>
+        <v>143981</v>
       </c>
       <c r="AR46" s="15">
-        <v>173143</v>
+        <v>157845</v>
       </c>
       <c r="AS46" s="15">
-        <v>143981</v>
+        <v>167895</v>
       </c>
       <c r="AT46" s="15">
-        <v>157845</v>
+        <v>137975</v>
       </c>
       <c r="AU46" s="15">
-        <v>167895</v>
+        <v>187904</v>
       </c>
       <c r="AV46" s="15">
-        <v>137975</v>
+        <v>178646</v>
       </c>
       <c r="AW46" s="15">
-        <v>187904</v>
+        <v>174445</v>
       </c>
       <c r="AX46" s="15">
-        <v>178646</v>
+        <v>174967</v>
       </c>
       <c r="AY46" s="15">
-        <v>174445</v>
+        <v>202726</v>
       </c>
       <c r="AZ46" s="15">
-        <v>174967</v>
+        <v>197222</v>
       </c>
       <c r="BA46" s="15">
-        <v>202726</v>
+        <v>183835</v>
       </c>
       <c r="BB46" s="15">
-        <v>197222</v>
+        <v>194374</v>
       </c>
     </row>
     <row r="47" spans="2:54" x14ac:dyDescent="0.3">
@@ -6638,59 +6638,59 @@
       <c r="AD53" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AE53" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF53" s="11" t="s">
-        <v>58</v>
+      <c r="AE53" s="11">
+        <v>198101</v>
+      </c>
+      <c r="AF53" s="11">
+        <v>250404</v>
       </c>
       <c r="AG53" s="11">
-        <v>198101</v>
+        <v>259592</v>
       </c>
       <c r="AH53" s="11">
-        <v>250404</v>
+        <v>208235</v>
       </c>
       <c r="AI53" s="11">
-        <v>259592</v>
+        <v>333124</v>
       </c>
       <c r="AJ53" s="11">
-        <v>208235</v>
+        <v>346687</v>
       </c>
       <c r="AK53" s="11">
-        <v>333124</v>
+        <v>218627</v>
       </c>
       <c r="AL53" s="11">
-        <v>346687</v>
+        <v>324515</v>
       </c>
       <c r="AM53" s="11">
-        <v>218627</v>
+        <v>561291</v>
       </c>
       <c r="AN53" s="11">
-        <v>324515</v>
+        <v>306894</v>
       </c>
       <c r="AO53" s="11">
-        <v>561291</v>
+        <v>304178</v>
       </c>
       <c r="AP53" s="11">
-        <v>306894</v>
+        <v>387264</v>
       </c>
       <c r="AQ53" s="11">
-        <v>304178</v>
+        <v>330725</v>
       </c>
       <c r="AR53" s="11">
-        <v>387264</v>
+        <v>365140</v>
       </c>
       <c r="AS53" s="11">
-        <v>330725</v>
-      </c>
-      <c r="AT53" s="11">
-        <v>365140</v>
-      </c>
-      <c r="AU53" s="11">
         <v>409980</v>
       </c>
-      <c r="AV53" s="11">
-        <v>277405</v>
+      <c r="AT53" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU53" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV53" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AW53" s="11" t="s">
         <v>58</v>
@@ -6797,59 +6797,59 @@
       <c r="AD54" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AE54" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF54" s="13" t="s">
-        <v>58</v>
+      <c r="AE54" s="13">
+        <v>256539</v>
+      </c>
+      <c r="AF54" s="13">
+        <v>306680</v>
       </c>
       <c r="AG54" s="13">
-        <v>256539</v>
+        <v>330316</v>
       </c>
       <c r="AH54" s="13">
-        <v>306680</v>
+        <v>207645</v>
       </c>
       <c r="AI54" s="13">
-        <v>330316</v>
+        <v>351858</v>
       </c>
       <c r="AJ54" s="13">
-        <v>207645</v>
+        <v>423311</v>
       </c>
       <c r="AK54" s="13">
-        <v>351858</v>
+        <v>231710</v>
       </c>
       <c r="AL54" s="13">
-        <v>423311</v>
+        <v>325137</v>
       </c>
       <c r="AM54" s="13">
-        <v>231710</v>
+        <v>489315</v>
       </c>
       <c r="AN54" s="13">
-        <v>325137</v>
+        <v>392489</v>
       </c>
       <c r="AO54" s="13">
-        <v>489315</v>
+        <v>425572</v>
       </c>
       <c r="AP54" s="13">
-        <v>392489</v>
+        <v>523601</v>
       </c>
       <c r="AQ54" s="13">
-        <v>425572</v>
+        <v>413552</v>
       </c>
       <c r="AR54" s="13">
-        <v>523601</v>
+        <v>460329</v>
       </c>
       <c r="AS54" s="13">
-        <v>413552</v>
-      </c>
-      <c r="AT54" s="13">
-        <v>460329</v>
-      </c>
-      <c r="AU54" s="13">
         <v>504371</v>
       </c>
-      <c r="AV54" s="13">
-        <v>433325</v>
+      <c r="AT54" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU54" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV54" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AW54" s="13" t="s">
         <v>58</v>
@@ -7001,32 +7001,32 @@
       <c r="AS55" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AT55" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU55" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV55" s="11" t="s">
-        <v>58</v>
+      <c r="AT55" s="11">
+        <v>277405</v>
+      </c>
+      <c r="AU55" s="11">
+        <v>396597</v>
+      </c>
+      <c r="AV55" s="11">
+        <v>492554</v>
       </c>
       <c r="AW55" s="11">
-        <v>396597</v>
+        <v>638025</v>
       </c>
       <c r="AX55" s="11">
-        <v>492554</v>
+        <v>547976</v>
       </c>
       <c r="AY55" s="11">
-        <v>638025</v>
+        <v>608837</v>
       </c>
       <c r="AZ55" s="11">
-        <v>547976</v>
+        <v>521927</v>
       </c>
       <c r="BA55" s="11">
-        <v>608837</v>
+        <v>503058</v>
       </c>
       <c r="BB55" s="11">
-        <v>521927</v>
+        <v>518703</v>
       </c>
     </row>
     <row r="56" spans="2:54" x14ac:dyDescent="0.3">
@@ -7160,32 +7160,32 @@
       <c r="AS56" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AT56" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU56" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV56" s="13" t="s">
-        <v>58</v>
+      <c r="AT56" s="13">
+        <v>433325</v>
+      </c>
+      <c r="AU56" s="13">
+        <v>543797</v>
+      </c>
+      <c r="AV56" s="13">
+        <v>573285</v>
       </c>
       <c r="AW56" s="13">
-        <v>543797</v>
+        <v>599537</v>
       </c>
       <c r="AX56" s="13">
-        <v>573285</v>
+        <v>591711</v>
       </c>
       <c r="AY56" s="13">
-        <v>599537</v>
+        <v>714559</v>
       </c>
       <c r="AZ56" s="13">
-        <v>591711</v>
+        <v>737841</v>
       </c>
       <c r="BA56" s="13">
-        <v>714559</v>
+        <v>652799</v>
       </c>
       <c r="BB56" s="13">
-        <v>737841</v>
+        <v>714298</v>
       </c>
     </row>
     <row r="57" spans="2:54" x14ac:dyDescent="0.3">
@@ -7310,14 +7310,14 @@
       <c r="AP57" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AQ57" s="11" t="s">
-        <v>58</v>
+      <c r="AQ57" s="11">
+        <v>0</v>
       </c>
       <c r="AR57" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AS57" s="11">
-        <v>0</v>
+      <c r="AS57" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AT57" s="11" t="s">
         <v>58</v>
@@ -7432,76 +7432,76 @@
         <v>0</v>
       </c>
       <c r="AE58" s="15">
-        <v>0</v>
+        <v>454640</v>
       </c>
       <c r="AF58" s="15">
-        <v>0</v>
+        <v>557084</v>
       </c>
       <c r="AG58" s="15">
-        <v>454640</v>
+        <v>589908</v>
       </c>
       <c r="AH58" s="15">
-        <v>557084</v>
+        <v>415880</v>
       </c>
       <c r="AI58" s="15">
-        <v>589908</v>
+        <v>684982</v>
       </c>
       <c r="AJ58" s="15">
-        <v>415880</v>
+        <v>769998</v>
       </c>
       <c r="AK58" s="15">
-        <v>684982</v>
+        <v>450337</v>
       </c>
       <c r="AL58" s="15">
-        <v>769998</v>
+        <v>649652</v>
       </c>
       <c r="AM58" s="15">
-        <v>450337</v>
+        <v>1050606</v>
       </c>
       <c r="AN58" s="15">
-        <v>649652</v>
+        <v>699383</v>
       </c>
       <c r="AO58" s="15">
-        <v>1050606</v>
+        <v>729750</v>
       </c>
       <c r="AP58" s="15">
-        <v>699383</v>
+        <v>910865</v>
       </c>
       <c r="AQ58" s="15">
-        <v>729750</v>
+        <v>744277</v>
       </c>
       <c r="AR58" s="15">
-        <v>910865</v>
+        <v>825469</v>
       </c>
       <c r="AS58" s="15">
-        <v>744277</v>
+        <v>914351</v>
       </c>
       <c r="AT58" s="15">
-        <v>825469</v>
+        <v>710730</v>
       </c>
       <c r="AU58" s="15">
-        <v>914351</v>
+        <v>940394</v>
       </c>
       <c r="AV58" s="15">
-        <v>710730</v>
+        <v>1065839</v>
       </c>
       <c r="AW58" s="15">
-        <v>940394</v>
+        <v>1237562</v>
       </c>
       <c r="AX58" s="15">
-        <v>1065839</v>
+        <v>1139687</v>
       </c>
       <c r="AY58" s="15">
-        <v>1237562</v>
+        <v>1323396</v>
       </c>
       <c r="AZ58" s="15">
-        <v>1139687</v>
+        <v>1259768</v>
       </c>
       <c r="BA58" s="15">
-        <v>1323396</v>
+        <v>1155857</v>
       </c>
       <c r="BB58" s="15">
-        <v>1259768</v>
+        <v>1233001</v>
       </c>
     </row>
     <row r="59" spans="2:54" x14ac:dyDescent="0.3">
@@ -7647,11 +7647,11 @@
       <c r="AD60" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AE60" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF60" s="11" t="s">
-        <v>58</v>
+      <c r="AE60" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF60" s="11">
+        <v>0</v>
       </c>
       <c r="AG60" s="11">
         <v>0</v>
@@ -7660,22 +7660,22 @@
         <v>0</v>
       </c>
       <c r="AI60" s="11">
-        <v>0</v>
+        <v>20292</v>
       </c>
       <c r="AJ60" s="11">
-        <v>0</v>
+        <v>7945</v>
       </c>
       <c r="AK60" s="11">
-        <v>20292</v>
+        <v>0</v>
       </c>
       <c r="AL60" s="11">
-        <v>7945</v>
+        <v>11155</v>
       </c>
       <c r="AM60" s="11">
         <v>0</v>
       </c>
       <c r="AN60" s="11">
-        <v>11155</v>
+        <v>0</v>
       </c>
       <c r="AO60" s="11">
         <v>0</v>
@@ -7699,25 +7699,25 @@
         <v>0</v>
       </c>
       <c r="AV60" s="11">
-        <v>0</v>
+        <v>32576</v>
       </c>
       <c r="AW60" s="11">
         <v>0</v>
       </c>
       <c r="AX60" s="11">
-        <v>32576</v>
+        <v>0</v>
       </c>
       <c r="AY60" s="11">
-        <v>0</v>
+        <v>42722</v>
       </c>
       <c r="AZ60" s="11">
-        <v>0</v>
+        <v>29978</v>
       </c>
       <c r="BA60" s="11">
-        <v>42722</v>
+        <v>0</v>
       </c>
       <c r="BB60" s="11">
-        <v>29978</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="2:54" x14ac:dyDescent="0.3">
@@ -7851,32 +7851,32 @@
       <c r="AS61" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AT61" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU61" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV61" s="13" t="s">
-        <v>58</v>
+      <c r="AT61" s="13">
+        <v>45914</v>
+      </c>
+      <c r="AU61" s="13">
+        <v>108484</v>
+      </c>
+      <c r="AV61" s="13">
+        <v>109898</v>
       </c>
       <c r="AW61" s="13">
-        <v>108484</v>
+        <v>198552</v>
       </c>
       <c r="AX61" s="13">
-        <v>109898</v>
+        <v>190889</v>
       </c>
       <c r="AY61" s="13">
-        <v>198552</v>
+        <v>117699</v>
       </c>
       <c r="AZ61" s="13">
-        <v>190889</v>
+        <v>162783</v>
       </c>
       <c r="BA61" s="13">
-        <v>117699</v>
+        <v>190653</v>
       </c>
       <c r="BB61" s="13">
-        <v>162783</v>
+        <v>156535</v>
       </c>
     </row>
     <row r="62" spans="2:54" x14ac:dyDescent="0.3">
@@ -7965,59 +7965,59 @@
       <c r="AD62" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AE62" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF62" s="11" t="s">
-        <v>58</v>
+      <c r="AE62" s="11">
+        <v>17821</v>
+      </c>
+      <c r="AF62" s="11">
+        <v>26771</v>
       </c>
       <c r="AG62" s="11">
-        <v>17821</v>
+        <v>80811</v>
       </c>
       <c r="AH62" s="11">
-        <v>26771</v>
+        <v>264001</v>
       </c>
       <c r="AI62" s="11">
-        <v>80811</v>
+        <v>159120</v>
       </c>
       <c r="AJ62" s="11">
-        <v>264001</v>
+        <v>15004</v>
       </c>
       <c r="AK62" s="11">
-        <v>159120</v>
+        <v>15583</v>
       </c>
       <c r="AL62" s="11">
-        <v>15004</v>
+        <v>49149</v>
       </c>
       <c r="AM62" s="11">
-        <v>15583</v>
+        <v>34879</v>
       </c>
       <c r="AN62" s="11">
-        <v>49149</v>
+        <v>68148</v>
       </c>
       <c r="AO62" s="11">
-        <v>34879</v>
+        <v>89735</v>
       </c>
       <c r="AP62" s="11">
-        <v>68148</v>
+        <v>88788</v>
       </c>
       <c r="AQ62" s="11">
-        <v>89735</v>
+        <v>24660</v>
       </c>
       <c r="AR62" s="11">
-        <v>88788</v>
+        <v>71298</v>
       </c>
       <c r="AS62" s="11">
-        <v>24660</v>
-      </c>
-      <c r="AT62" s="11">
-        <v>71298</v>
-      </c>
-      <c r="AU62" s="11">
         <v>52640</v>
       </c>
-      <c r="AV62" s="11">
-        <v>45914</v>
+      <c r="AT62" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU62" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV62" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AW62" s="11" t="s">
         <v>58</v>
@@ -8123,76 +8123,76 @@
         <v>0</v>
       </c>
       <c r="AE63" s="15">
-        <v>0</v>
+        <v>17821</v>
       </c>
       <c r="AF63" s="15">
-        <v>0</v>
+        <v>26771</v>
       </c>
       <c r="AG63" s="15">
-        <v>17821</v>
+        <v>80811</v>
       </c>
       <c r="AH63" s="15">
-        <v>26771</v>
+        <v>264001</v>
       </c>
       <c r="AI63" s="15">
-        <v>80811</v>
+        <v>179412</v>
       </c>
       <c r="AJ63" s="15">
-        <v>264001</v>
+        <v>22949</v>
       </c>
       <c r="AK63" s="15">
-        <v>179412</v>
+        <v>15583</v>
       </c>
       <c r="AL63" s="15">
-        <v>22949</v>
+        <v>60304</v>
       </c>
       <c r="AM63" s="15">
-        <v>15583</v>
+        <v>34879</v>
       </c>
       <c r="AN63" s="15">
-        <v>60304</v>
+        <v>68148</v>
       </c>
       <c r="AO63" s="15">
-        <v>34879</v>
+        <v>89735</v>
       </c>
       <c r="AP63" s="15">
-        <v>68148</v>
+        <v>88788</v>
       </c>
       <c r="AQ63" s="15">
-        <v>89735</v>
+        <v>24660</v>
       </c>
       <c r="AR63" s="15">
-        <v>88788</v>
+        <v>71298</v>
       </c>
       <c r="AS63" s="15">
-        <v>24660</v>
+        <v>52640</v>
       </c>
       <c r="AT63" s="15">
-        <v>71298</v>
+        <v>45914</v>
       </c>
       <c r="AU63" s="15">
-        <v>52640</v>
+        <v>108484</v>
       </c>
       <c r="AV63" s="15">
-        <v>45914</v>
+        <v>142474</v>
       </c>
       <c r="AW63" s="15">
-        <v>108484</v>
+        <v>198552</v>
       </c>
       <c r="AX63" s="15">
-        <v>142474</v>
+        <v>190889</v>
       </c>
       <c r="AY63" s="15">
-        <v>198552</v>
+        <v>160421</v>
       </c>
       <c r="AZ63" s="15">
-        <v>190889</v>
+        <v>192761</v>
       </c>
       <c r="BA63" s="15">
-        <v>160421</v>
+        <v>190653</v>
       </c>
       <c r="BB63" s="15">
-        <v>192761</v>
+        <v>156535</v>
       </c>
     </row>
     <row r="64" spans="2:54" x14ac:dyDescent="0.3">
@@ -8338,11 +8338,11 @@
       <c r="AD65" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="AE65" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF65" s="19" t="s">
-        <v>58</v>
+      <c r="AE65" s="19">
+        <v>0</v>
+      </c>
+      <c r="AF65" s="19">
+        <v>0</v>
       </c>
       <c r="AG65" s="19">
         <v>0</v>
@@ -8554,11 +8554,11 @@
       <c r="AD67" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="AE67" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF67" s="19" t="s">
-        <v>58</v>
+      <c r="AE67" s="19">
+        <v>0</v>
+      </c>
+      <c r="AF67" s="19">
+        <v>0</v>
       </c>
       <c r="AG67" s="19">
         <v>0</v>
@@ -8770,11 +8770,11 @@
       <c r="AD69" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AE69" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF69" s="11" t="s">
-        <v>58</v>
+      <c r="AE69" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF69" s="11">
+        <v>0</v>
       </c>
       <c r="AG69" s="11">
         <v>0</v>
@@ -8928,76 +8928,76 @@
         <v>0</v>
       </c>
       <c r="AE70" s="15">
-        <v>0</v>
+        <v>472461</v>
       </c>
       <c r="AF70" s="15">
-        <v>0</v>
+        <v>583855</v>
       </c>
       <c r="AG70" s="15">
-        <v>472461</v>
+        <v>670719</v>
       </c>
       <c r="AH70" s="15">
-        <v>583855</v>
+        <v>679881</v>
       </c>
       <c r="AI70" s="15">
-        <v>670719</v>
+        <v>864394</v>
       </c>
       <c r="AJ70" s="15">
-        <v>679881</v>
+        <v>792947</v>
       </c>
       <c r="AK70" s="15">
-        <v>864394</v>
+        <v>465920</v>
       </c>
       <c r="AL70" s="15">
-        <v>792947</v>
+        <v>709956</v>
       </c>
       <c r="AM70" s="15">
-        <v>465920</v>
+        <v>1085485</v>
       </c>
       <c r="AN70" s="15">
-        <v>709956</v>
+        <v>767531</v>
       </c>
       <c r="AO70" s="15">
-        <v>1085485</v>
+        <v>819485</v>
       </c>
       <c r="AP70" s="15">
-        <v>767531</v>
+        <v>999653</v>
       </c>
       <c r="AQ70" s="15">
-        <v>819485</v>
+        <v>768937</v>
       </c>
       <c r="AR70" s="15">
-        <v>999653</v>
+        <v>896767</v>
       </c>
       <c r="AS70" s="15">
-        <v>768937</v>
+        <v>966991</v>
       </c>
       <c r="AT70" s="15">
-        <v>896767</v>
+        <v>756644</v>
       </c>
       <c r="AU70" s="15">
-        <v>966991</v>
+        <v>1048878</v>
       </c>
       <c r="AV70" s="15">
-        <v>756644</v>
+        <v>1208313</v>
       </c>
       <c r="AW70" s="15">
-        <v>1048878</v>
+        <v>1436114</v>
       </c>
       <c r="AX70" s="15">
-        <v>1208313</v>
+        <v>1330576</v>
       </c>
       <c r="AY70" s="15">
-        <v>1436114</v>
+        <v>1483817</v>
       </c>
       <c r="AZ70" s="15">
-        <v>1330576</v>
+        <v>1452529</v>
       </c>
       <c r="BA70" s="15">
-        <v>1483817</v>
+        <v>1346510</v>
       </c>
       <c r="BB70" s="15">
-        <v>1452529</v>
+        <v>1389536</v>
       </c>
     </row>
     <row r="71" spans="2:54" x14ac:dyDescent="0.3">
@@ -9520,59 +9520,59 @@
       <c r="AD77" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AE77" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF77" s="11" t="s">
-        <v>58</v>
+      <c r="AE77" s="11">
+        <v>2221835</v>
+      </c>
+      <c r="AF77" s="11">
+        <v>2208986</v>
       </c>
       <c r="AG77" s="11">
-        <v>2221835</v>
+        <v>2207828</v>
       </c>
       <c r="AH77" s="11">
-        <v>2208986</v>
+        <v>2204525</v>
       </c>
       <c r="AI77" s="11">
-        <v>2207828</v>
+        <v>3075767</v>
       </c>
       <c r="AJ77" s="11">
-        <v>2204525</v>
+        <v>3076712</v>
       </c>
       <c r="AK77" s="11">
-        <v>3075767</v>
+        <v>3277570</v>
       </c>
       <c r="AL77" s="11">
-        <v>3076712</v>
+        <v>5558858</v>
       </c>
       <c r="AM77" s="11">
-        <v>3277570</v>
+        <v>5722029</v>
       </c>
       <c r="AN77" s="11">
-        <v>5558858</v>
+        <v>4204776</v>
       </c>
       <c r="AO77" s="11">
-        <v>5722029</v>
+        <v>3880415</v>
       </c>
       <c r="AP77" s="11">
-        <v>4204776</v>
+        <v>5031755</v>
       </c>
       <c r="AQ77" s="11">
-        <v>3880415</v>
+        <v>4708164</v>
       </c>
       <c r="AR77" s="11">
-        <v>5031755</v>
+        <v>5191662</v>
       </c>
       <c r="AS77" s="11">
-        <v>4708164</v>
-      </c>
-      <c r="AT77" s="11">
-        <v>5191662</v>
-      </c>
-      <c r="AU77" s="11">
         <v>5269801</v>
       </c>
-      <c r="AV77" s="11">
-        <v>4737350</v>
+      <c r="AT77" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU77" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV77" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AW77" s="11" t="s">
         <v>58</v>
@@ -9679,59 +9679,59 @@
       <c r="AD78" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AE78" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF78" s="13" t="s">
-        <v>58</v>
+      <c r="AE78" s="13">
+        <v>3104671</v>
+      </c>
+      <c r="AF78" s="13">
+        <v>3102698</v>
       </c>
       <c r="AG78" s="13">
-        <v>3104671</v>
+        <v>3105466</v>
       </c>
       <c r="AH78" s="13">
-        <v>3102698</v>
+        <v>3097145</v>
       </c>
       <c r="AI78" s="13">
-        <v>3105466</v>
+        <v>4282230</v>
       </c>
       <c r="AJ78" s="13">
-        <v>3097145</v>
+        <v>4312635</v>
       </c>
       <c r="AK78" s="13">
-        <v>4282230</v>
+        <v>4438889</v>
       </c>
       <c r="AL78" s="13">
-        <v>4312635</v>
+        <v>5472213</v>
       </c>
       <c r="AM78" s="13">
-        <v>4438889</v>
+        <v>6946846</v>
       </c>
       <c r="AN78" s="13">
-        <v>5472213</v>
+        <v>5591728</v>
       </c>
       <c r="AO78" s="13">
-        <v>6946846</v>
+        <v>5273899</v>
       </c>
       <c r="AP78" s="13">
-        <v>5591728</v>
+        <v>6152484</v>
       </c>
       <c r="AQ78" s="13">
-        <v>5273899</v>
+        <v>5849723</v>
       </c>
       <c r="AR78" s="13">
-        <v>6152484</v>
+        <v>5877016</v>
       </c>
       <c r="AS78" s="13">
-        <v>5849723</v>
-      </c>
-      <c r="AT78" s="13">
-        <v>5877016</v>
-      </c>
-      <c r="AU78" s="13">
         <v>6052476</v>
       </c>
-      <c r="AV78" s="13">
-        <v>5883331</v>
+      <c r="AT78" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU78" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV78" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AW78" s="13" t="s">
         <v>58</v>
@@ -9883,32 +9883,32 @@
       <c r="AS79" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AT79" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU79" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV79" s="11" t="s">
-        <v>58</v>
+      <c r="AT79" s="11">
+        <v>4737350</v>
+      </c>
+      <c r="AU79" s="11">
+        <v>4700465</v>
+      </c>
+      <c r="AV79" s="11">
+        <v>6031692</v>
       </c>
       <c r="AW79" s="11">
-        <v>4700465</v>
+        <v>7881522</v>
       </c>
       <c r="AX79" s="11">
-        <v>6031692</v>
+        <v>7144779</v>
       </c>
       <c r="AY79" s="11">
-        <v>7881522</v>
+        <v>7057589</v>
       </c>
       <c r="AZ79" s="11">
-        <v>7144779</v>
+        <v>6902147</v>
       </c>
       <c r="BA79" s="11">
-        <v>7057589</v>
+        <v>6871438</v>
       </c>
       <c r="BB79" s="11">
-        <v>6902147</v>
+        <v>6802727</v>
       </c>
     </row>
     <row r="80" spans="2:54" x14ac:dyDescent="0.3">
@@ -10042,32 +10042,32 @@
       <c r="AS80" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AT80" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU80" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV80" s="13" t="s">
-        <v>58</v>
+      <c r="AT80" s="13">
+        <v>5883331</v>
+      </c>
+      <c r="AU80" s="13">
+        <v>6002506</v>
+      </c>
+      <c r="AV80" s="13">
+        <v>7125536</v>
       </c>
       <c r="AW80" s="13">
-        <v>6002506</v>
+        <v>8255811</v>
       </c>
       <c r="AX80" s="13">
-        <v>7125536</v>
+        <v>7599093</v>
       </c>
       <c r="AY80" s="13">
-        <v>8255811</v>
+        <v>7240440</v>
       </c>
       <c r="AZ80" s="13">
-        <v>7599093</v>
+        <v>7315112</v>
       </c>
       <c r="BA80" s="13">
-        <v>7240440</v>
+        <v>7186385</v>
       </c>
       <c r="BB80" s="13">
-        <v>7315112</v>
+        <v>7021715</v>
       </c>
     </row>
     <row r="81" spans="2:54" x14ac:dyDescent="0.3">
@@ -10225,23 +10225,23 @@
       <c r="AH82" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AI82" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ82" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AK82" s="11">
+      <c r="AI82" s="11">
         <v>4152241</v>
       </c>
+      <c r="AJ82" s="11">
+        <v>4155335</v>
+      </c>
+      <c r="AK82" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AL82" s="11">
-        <v>4155335</v>
+        <v>5088960</v>
       </c>
       <c r="AM82" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AN82" s="11">
-        <v>5088960</v>
+      <c r="AN82" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AO82" s="11" t="s">
         <v>58</v>
@@ -10264,26 +10264,26 @@
       <c r="AU82" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AV82" s="11" t="s">
-        <v>58</v>
+      <c r="AV82" s="11">
+        <v>8144000</v>
       </c>
       <c r="AW82" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AX82" s="11">
-        <v>8144000</v>
-      </c>
-      <c r="AY82" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ82" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="BA82" s="11">
+      <c r="AX82" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AY82" s="11">
         <v>7767636</v>
       </c>
-      <c r="BB82" s="11">
+      <c r="AZ82" s="11">
         <v>7686667</v>
+      </c>
+      <c r="BA82" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="BB82" s="11" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="83" spans="2:54" x14ac:dyDescent="0.3">
@@ -10417,32 +10417,32 @@
       <c r="AS83" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AT83" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU83" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV83" s="13" t="s">
-        <v>58</v>
+      <c r="AT83" s="13">
+        <v>7964267</v>
+      </c>
+      <c r="AU83" s="13">
+        <v>8386857</v>
+      </c>
+      <c r="AV83" s="13">
+        <v>8770790</v>
       </c>
       <c r="AW83" s="13">
-        <v>8386857</v>
+        <v>9512384</v>
       </c>
       <c r="AX83" s="13">
-        <v>8770790</v>
+        <v>9355011</v>
       </c>
       <c r="AY83" s="13">
-        <v>9512384</v>
+        <v>9593202</v>
       </c>
       <c r="AZ83" s="13">
-        <v>9355011</v>
+        <v>9667023</v>
       </c>
       <c r="BA83" s="13">
-        <v>9593202</v>
+        <v>9635606</v>
       </c>
       <c r="BB83" s="13">
-        <v>9667023</v>
+        <v>9546331</v>
       </c>
     </row>
     <row r="84" spans="2:54" x14ac:dyDescent="0.3">
@@ -10531,59 +10531,59 @@
       <c r="AD84" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AE84" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF84" s="11" t="s">
-        <v>58</v>
+      <c r="AE84" s="11">
+        <v>5704545</v>
+      </c>
+      <c r="AF84" s="11">
+        <v>5563383</v>
       </c>
       <c r="AG84" s="11">
-        <v>5704545</v>
+        <v>5570867</v>
       </c>
       <c r="AH84" s="11">
-        <v>5563383</v>
+        <v>5500479</v>
       </c>
       <c r="AI84" s="11">
-        <v>5570867</v>
+        <v>6330615</v>
       </c>
       <c r="AJ84" s="11">
-        <v>5500479</v>
+        <v>6169408</v>
       </c>
       <c r="AK84" s="11">
-        <v>6330615</v>
+        <v>6208367</v>
       </c>
       <c r="AL84" s="11">
-        <v>6169408</v>
+        <v>8651470</v>
       </c>
       <c r="AM84" s="11">
-        <v>6208367</v>
+        <v>8552967</v>
       </c>
       <c r="AN84" s="11">
-        <v>8651470</v>
+        <v>8361718</v>
       </c>
       <c r="AO84" s="11">
-        <v>8552967</v>
+        <v>8191985</v>
       </c>
       <c r="AP84" s="11">
-        <v>8361718</v>
+        <v>8016975</v>
       </c>
       <c r="AQ84" s="11">
-        <v>8191985</v>
+        <v>8111842</v>
       </c>
       <c r="AR84" s="11">
-        <v>8016975</v>
+        <v>7761594</v>
       </c>
       <c r="AS84" s="11">
-        <v>8111842</v>
-      </c>
-      <c r="AT84" s="11">
-        <v>7761594</v>
-      </c>
-      <c r="AU84" s="11">
         <v>7782377</v>
       </c>
-      <c r="AV84" s="11">
-        <v>7964267</v>
+      <c r="AT84" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU84" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV84" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AW84" s="11" t="s">
         <v>58</v>

--- a/database/industries/siman/semazen/product/monthly_seprated.xlsx
+++ b/database/industries/siman/semazen/product/monthly_seprated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\siman\semazen\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\siman\semazen\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04E54FCF-E524-40DF-B9CF-1EA1C82D0E0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B77B4CE-C643-4075-A246-2236E95A1C75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1647" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1605" uniqueCount="91">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>سمازن-سیمان‌مازندران‌</t>
@@ -35,12 +35,6 @@
   </si>
   <si>
     <t>مقدار تولید</t>
-  </si>
-  <si>
-    <t>ماه 11 منتهی به 1397/08</t>
-  </si>
-  <si>
-    <t>ماه 12 منتهی به 1397/09</t>
   </si>
   <si>
     <t>ماه 1 منتهی به 1397/10</t>
@@ -185,6 +179,12 @@
   </si>
   <si>
     <t>ماه 12 منتهی به 1401/09</t>
+  </si>
+  <si>
+    <t>ماه 1 منتهی به 1401/10</t>
+  </si>
+  <si>
+    <t>ماه 2 منتهی به 1401/11</t>
   </si>
   <si>
     <t>مقدار تولید داخلی</t>
@@ -775,12 +775,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="54" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -835,7 +835,7 @@
       <c r="BA1" s="1"/>
       <c r="BB1" s="1"/>
     </row>
-    <row r="2" spans="2:54" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:54" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -892,7 +892,7 @@
       <c r="BA2" s="1"/>
       <c r="BB2" s="1"/>
     </row>
-    <row r="3" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -949,7 +949,7 @@
       <c r="BA3" s="1"/>
       <c r="BB3" s="1"/>
     </row>
-    <row r="4" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -1004,7 +1004,7 @@
       <c r="BA4" s="1"/>
       <c r="BB4" s="1"/>
     </row>
-    <row r="5" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="5" spans="2:54" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -1061,7 +1061,7 @@
       <c r="BA5" s="4"/>
       <c r="BB5" s="4"/>
     </row>
-    <row r="6" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="6" spans="2:54" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -1118,7 +1118,7 @@
       <c r="BA6" s="4"/>
       <c r="BB6" s="4"/>
     </row>
-    <row r="7" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -1173,7 +1173,7 @@
       <c r="BA7" s="1"/>
       <c r="BB7" s="1"/>
     </row>
-    <row r="8" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -1330,7 +1330,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1385,7 +1385,7 @@
       <c r="BA9" s="1"/>
       <c r="BB9" s="1"/>
     </row>
-    <row r="10" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
         <v>55</v>
       </c>
@@ -1442,7 +1442,7 @@
       <c r="BA10" s="9"/>
       <c r="BB10" s="9"/>
     </row>
-    <row r="11" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
         <v>56</v>
       </c>
@@ -1522,57 +1522,57 @@
       <c r="AB11" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AC11" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD11" s="11" t="s">
-        <v>58</v>
+      <c r="AC11" s="11">
+        <v>90300</v>
+      </c>
+      <c r="AD11" s="11">
+        <v>109292</v>
       </c>
       <c r="AE11" s="11">
-        <v>90300</v>
+        <v>114851</v>
       </c>
       <c r="AF11" s="11">
-        <v>109292</v>
+        <v>103044</v>
       </c>
       <c r="AG11" s="11">
-        <v>114851</v>
+        <v>112753</v>
       </c>
       <c r="AH11" s="11">
-        <v>103044</v>
+        <v>101486</v>
       </c>
       <c r="AI11" s="11">
-        <v>112753</v>
+        <v>74042</v>
       </c>
       <c r="AJ11" s="11">
-        <v>101486</v>
+        <v>50045</v>
       </c>
       <c r="AK11" s="11">
-        <v>74042</v>
+        <v>103027</v>
       </c>
       <c r="AL11" s="11">
-        <v>50045</v>
+        <v>74815</v>
       </c>
       <c r="AM11" s="11">
-        <v>103027</v>
+        <v>75623</v>
       </c>
       <c r="AN11" s="11">
-        <v>74815</v>
+        <v>80101</v>
       </c>
       <c r="AO11" s="11">
-        <v>75623</v>
+        <v>72874</v>
       </c>
       <c r="AP11" s="11">
-        <v>80101</v>
+        <v>75685</v>
       </c>
       <c r="AQ11" s="11">
-        <v>72874</v>
-      </c>
-      <c r="AR11" s="11">
-        <v>75685</v>
-      </c>
-      <c r="AS11" s="11">
         <v>79060</v>
       </c>
+      <c r="AR11" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS11" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AT11" s="11" t="s">
         <v>58</v>
       </c>
@@ -1601,7 +1601,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B12" s="12" t="s">
         <v>59</v>
       </c>
@@ -1681,57 +1681,57 @@
       <c r="AB12" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AC12" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD12" s="13" t="s">
-        <v>58</v>
+      <c r="AC12" s="13">
+        <v>83686</v>
+      </c>
+      <c r="AD12" s="13">
+        <v>95299</v>
       </c>
       <c r="AE12" s="13">
-        <v>83686</v>
+        <v>103899</v>
       </c>
       <c r="AF12" s="13">
-        <v>95299</v>
+        <v>73138</v>
       </c>
       <c r="AG12" s="13">
-        <v>103899</v>
+        <v>85540</v>
       </c>
       <c r="AH12" s="13">
-        <v>73138</v>
+        <v>88404</v>
       </c>
       <c r="AI12" s="13">
-        <v>85540</v>
+        <v>57942</v>
       </c>
       <c r="AJ12" s="13">
-        <v>88404</v>
+        <v>50935</v>
       </c>
       <c r="AK12" s="13">
-        <v>57942</v>
+        <v>73980</v>
       </c>
       <c r="AL12" s="13">
-        <v>50935</v>
+        <v>71950</v>
       </c>
       <c r="AM12" s="13">
-        <v>73980</v>
+        <v>77849</v>
       </c>
       <c r="AN12" s="13">
-        <v>71950</v>
+        <v>88574</v>
       </c>
       <c r="AO12" s="13">
-        <v>77849</v>
+        <v>73342</v>
       </c>
       <c r="AP12" s="13">
-        <v>88574</v>
+        <v>76170</v>
       </c>
       <c r="AQ12" s="13">
-        <v>73342</v>
-      </c>
-      <c r="AR12" s="13">
-        <v>76170</v>
-      </c>
-      <c r="AS12" s="13">
         <v>84686</v>
       </c>
+      <c r="AR12" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS12" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AT12" s="13" t="s">
         <v>58</v>
       </c>
@@ -1760,7 +1760,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
         <v>60</v>
       </c>
@@ -1885,41 +1885,41 @@
       <c r="AQ13" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR13" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS13" s="11" t="s">
-        <v>58</v>
+      <c r="AR13" s="11">
+        <v>58313</v>
+      </c>
+      <c r="AS13" s="11">
+        <v>87370</v>
       </c>
       <c r="AT13" s="11">
-        <v>58313</v>
+        <v>67637</v>
       </c>
       <c r="AU13" s="11">
-        <v>87370</v>
+        <v>83560</v>
       </c>
       <c r="AV13" s="11">
-        <v>67637</v>
+        <v>84944</v>
       </c>
       <c r="AW13" s="11">
-        <v>83560</v>
+        <v>83014</v>
       </c>
       <c r="AX13" s="11">
-        <v>84944</v>
+        <v>70044</v>
       </c>
       <c r="AY13" s="11">
-        <v>83014</v>
+        <v>80984</v>
       </c>
       <c r="AZ13" s="11">
-        <v>70044</v>
+        <v>72890</v>
       </c>
       <c r="BA13" s="11">
-        <v>80984</v>
+        <v>67144</v>
       </c>
       <c r="BB13" s="11">
-        <v>72890</v>
+        <v>77170</v>
       </c>
     </row>
-    <row r="14" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="s">
         <v>61</v>
       </c>
@@ -2044,41 +2044,41 @@
       <c r="AQ14" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR14" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS14" s="13" t="s">
-        <v>58</v>
+      <c r="AR14" s="13">
+        <v>73346</v>
+      </c>
+      <c r="AS14" s="13">
+        <v>93815</v>
       </c>
       <c r="AT14" s="13">
-        <v>73346</v>
+        <v>66563</v>
       </c>
       <c r="AU14" s="13">
-        <v>93815</v>
+        <v>75086</v>
       </c>
       <c r="AV14" s="13">
-        <v>66563</v>
+        <v>86238</v>
       </c>
       <c r="AW14" s="13">
-        <v>75086</v>
+        <v>94969</v>
       </c>
       <c r="AX14" s="13">
-        <v>86238</v>
+        <v>102885</v>
       </c>
       <c r="AY14" s="13">
-        <v>94969</v>
+        <v>91383</v>
       </c>
       <c r="AZ14" s="13">
-        <v>102885</v>
+        <v>97245</v>
       </c>
       <c r="BA14" s="13">
-        <v>91383</v>
+        <v>74061</v>
       </c>
       <c r="BB14" s="13">
-        <v>97245</v>
+        <v>68983</v>
       </c>
     </row>
-    <row r="15" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
         <v>62</v>
       </c>
@@ -2237,7 +2237,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B16" s="14" t="s">
         <v>63</v>
       </c>
@@ -2316,85 +2316,85 @@
         <v>0</v>
       </c>
       <c r="AC16" s="15">
-        <v>0</v>
+        <v>173986</v>
       </c>
       <c r="AD16" s="15">
-        <v>0</v>
+        <v>204591</v>
       </c>
       <c r="AE16" s="15">
-        <v>173986</v>
+        <v>218750</v>
       </c>
       <c r="AF16" s="15">
-        <v>204591</v>
+        <v>176182</v>
       </c>
       <c r="AG16" s="15">
-        <v>218750</v>
+        <v>198293</v>
       </c>
       <c r="AH16" s="15">
-        <v>176182</v>
+        <v>189890</v>
       </c>
       <c r="AI16" s="15">
-        <v>198293</v>
+        <v>131984</v>
       </c>
       <c r="AJ16" s="15">
-        <v>189890</v>
+        <v>100980</v>
       </c>
       <c r="AK16" s="15">
-        <v>131984</v>
+        <v>177007</v>
       </c>
       <c r="AL16" s="15">
-        <v>100980</v>
+        <v>146765</v>
       </c>
       <c r="AM16" s="15">
-        <v>177007</v>
+        <v>153472</v>
       </c>
       <c r="AN16" s="15">
-        <v>146765</v>
+        <v>168675</v>
       </c>
       <c r="AO16" s="15">
-        <v>153472</v>
+        <v>146216</v>
       </c>
       <c r="AP16" s="15">
-        <v>168675</v>
+        <v>151855</v>
       </c>
       <c r="AQ16" s="15">
-        <v>146216</v>
+        <v>163746</v>
       </c>
       <c r="AR16" s="15">
-        <v>151855</v>
+        <v>131659</v>
       </c>
       <c r="AS16" s="15">
-        <v>163746</v>
+        <v>181185</v>
       </c>
       <c r="AT16" s="15">
-        <v>131659</v>
+        <v>134200</v>
       </c>
       <c r="AU16" s="15">
-        <v>181185</v>
+        <v>158646</v>
       </c>
       <c r="AV16" s="15">
-        <v>134200</v>
+        <v>171182</v>
       </c>
       <c r="AW16" s="15">
-        <v>158646</v>
+        <v>177983</v>
       </c>
       <c r="AX16" s="15">
-        <v>171182</v>
+        <v>172928</v>
       </c>
       <c r="AY16" s="15">
-        <v>177983</v>
+        <v>172366</v>
       </c>
       <c r="AZ16" s="15">
-        <v>172928</v>
+        <v>170135</v>
       </c>
       <c r="BA16" s="15">
-        <v>172366</v>
+        <v>141205</v>
       </c>
       <c r="BB16" s="15">
-        <v>170135</v>
+        <v>146153</v>
       </c>
     </row>
-    <row r="17" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B17" s="8" t="s">
         <v>64</v>
       </c>
@@ -2451,7 +2451,7 @@
       <c r="BA17" s="9"/>
       <c r="BB17" s="9"/>
     </row>
-    <row r="18" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B18" s="10" t="s">
         <v>65</v>
       </c>
@@ -2531,86 +2531,86 @@
       <c r="AB18" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AC18" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD18" s="11" t="s">
-        <v>58</v>
+      <c r="AC18" s="11">
+        <v>78840</v>
+      </c>
+      <c r="AD18" s="11">
+        <v>109700</v>
       </c>
       <c r="AE18" s="11">
-        <v>78840</v>
+        <v>220450</v>
       </c>
       <c r="AF18" s="11">
-        <v>109700</v>
+        <v>227560</v>
       </c>
       <c r="AG18" s="11">
-        <v>220450</v>
+        <v>211440</v>
       </c>
       <c r="AH18" s="11">
-        <v>227560</v>
+        <v>149740</v>
       </c>
       <c r="AI18" s="11">
-        <v>211440</v>
+        <v>84760</v>
       </c>
       <c r="AJ18" s="11">
-        <v>149740</v>
+        <v>96900</v>
       </c>
       <c r="AK18" s="11">
-        <v>84760</v>
+        <v>132730</v>
       </c>
       <c r="AL18" s="11">
-        <v>96900</v>
+        <v>214160</v>
       </c>
       <c r="AM18" s="11">
-        <v>132730</v>
+        <v>218350</v>
       </c>
       <c r="AN18" s="11">
-        <v>214160</v>
+        <v>166550</v>
       </c>
       <c r="AO18" s="11">
-        <v>218350</v>
+        <v>168620</v>
       </c>
       <c r="AP18" s="11">
-        <v>166550</v>
+        <v>114940</v>
       </c>
       <c r="AQ18" s="11">
-        <v>168620</v>
+        <v>213490</v>
       </c>
       <c r="AR18" s="11">
-        <v>114940</v>
+        <v>191470</v>
       </c>
       <c r="AS18" s="11">
-        <v>213490</v>
+        <v>226080</v>
       </c>
       <c r="AT18" s="11">
-        <v>191470</v>
+        <v>219950</v>
       </c>
       <c r="AU18" s="11">
-        <v>226080</v>
+        <v>122390</v>
       </c>
       <c r="AV18" s="11">
-        <v>219950</v>
+        <v>103130</v>
       </c>
       <c r="AW18" s="11">
-        <v>122390</v>
+        <v>117210</v>
       </c>
       <c r="AX18" s="11">
-        <v>103130</v>
+        <v>218140</v>
       </c>
       <c r="AY18" s="11">
-        <v>117210</v>
+        <v>210040</v>
       </c>
       <c r="AZ18" s="11">
-        <v>218140</v>
+        <v>208060</v>
       </c>
       <c r="BA18" s="11">
-        <v>210040</v>
+        <v>121180</v>
       </c>
       <c r="BB18" s="11">
-        <v>208060</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B19" s="12" t="s">
         <v>66</v>
       </c>
@@ -2735,41 +2735,41 @@
       <c r="AQ19" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR19" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS19" s="13" t="s">
-        <v>58</v>
+      <c r="AR19" s="13">
+        <v>5741</v>
+      </c>
+      <c r="AS19" s="13">
+        <v>13395</v>
       </c>
       <c r="AT19" s="13">
-        <v>5741</v>
+        <v>11670</v>
       </c>
       <c r="AU19" s="13">
-        <v>13395</v>
+        <v>20194</v>
       </c>
       <c r="AV19" s="13">
-        <v>11670</v>
+        <v>22598</v>
       </c>
       <c r="AW19" s="13">
-        <v>20194</v>
+        <v>11807</v>
       </c>
       <c r="AX19" s="13">
-        <v>22598</v>
+        <v>21898</v>
       </c>
       <c r="AY19" s="13">
-        <v>11807</v>
+        <v>20862</v>
       </c>
       <c r="AZ19" s="13">
-        <v>21898</v>
+        <v>15675</v>
       </c>
       <c r="BA19" s="13">
-        <v>20862</v>
+        <v>455</v>
       </c>
       <c r="BB19" s="13">
-        <v>15675</v>
+        <v>2982</v>
       </c>
     </row>
-    <row r="20" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B20" s="10" t="s">
         <v>67</v>
       </c>
@@ -2849,57 +2849,57 @@
       <c r="AB20" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AC20" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD20" s="11" t="s">
-        <v>58</v>
+      <c r="AC20" s="11">
+        <v>3164</v>
+      </c>
+      <c r="AD20" s="11">
+        <v>4639</v>
       </c>
       <c r="AE20" s="11">
-        <v>3164</v>
+        <v>14170</v>
       </c>
       <c r="AF20" s="11">
-        <v>4639</v>
+        <v>52358</v>
       </c>
       <c r="AG20" s="11">
-        <v>14170</v>
+        <v>26167</v>
       </c>
       <c r="AH20" s="11">
-        <v>52358</v>
+        <v>2190</v>
       </c>
       <c r="AI20" s="11">
-        <v>26167</v>
+        <v>2786</v>
       </c>
       <c r="AJ20" s="11">
-        <v>2190</v>
+        <v>4870</v>
       </c>
       <c r="AK20" s="11">
-        <v>2786</v>
+        <v>4283</v>
       </c>
       <c r="AL20" s="11">
-        <v>4870</v>
+        <v>8354</v>
       </c>
       <c r="AM20" s="11">
-        <v>4283</v>
+        <v>10568</v>
       </c>
       <c r="AN20" s="11">
-        <v>8354</v>
+        <v>11526</v>
       </c>
       <c r="AO20" s="11">
-        <v>10568</v>
+        <v>3154</v>
       </c>
       <c r="AP20" s="11">
-        <v>11526</v>
+        <v>3275</v>
       </c>
       <c r="AQ20" s="11">
-        <v>3154</v>
-      </c>
-      <c r="AR20" s="11">
-        <v>3275</v>
-      </c>
-      <c r="AS20" s="11">
         <v>6874</v>
       </c>
+      <c r="AR20" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS20" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AT20" s="11" t="s">
         <v>58</v>
       </c>
@@ -2928,7 +2928,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B21" s="14" t="s">
         <v>68</v>
       </c>
@@ -3007,85 +3007,85 @@
         <v>0</v>
       </c>
       <c r="AC21" s="15">
-        <v>0</v>
+        <v>82004</v>
       </c>
       <c r="AD21" s="15">
-        <v>0</v>
+        <v>114339</v>
       </c>
       <c r="AE21" s="15">
-        <v>82004</v>
+        <v>234620</v>
       </c>
       <c r="AF21" s="15">
-        <v>114339</v>
+        <v>279918</v>
       </c>
       <c r="AG21" s="15">
-        <v>234620</v>
+        <v>237607</v>
       </c>
       <c r="AH21" s="15">
-        <v>279918</v>
+        <v>151930</v>
       </c>
       <c r="AI21" s="15">
-        <v>237607</v>
+        <v>87546</v>
       </c>
       <c r="AJ21" s="15">
-        <v>151930</v>
+        <v>101770</v>
       </c>
       <c r="AK21" s="15">
-        <v>87546</v>
+        <v>137013</v>
       </c>
       <c r="AL21" s="15">
-        <v>101770</v>
+        <v>222514</v>
       </c>
       <c r="AM21" s="15">
-        <v>137013</v>
+        <v>228918</v>
       </c>
       <c r="AN21" s="15">
-        <v>222514</v>
+        <v>178076</v>
       </c>
       <c r="AO21" s="15">
-        <v>228918</v>
+        <v>171774</v>
       </c>
       <c r="AP21" s="15">
-        <v>178076</v>
+        <v>118215</v>
       </c>
       <c r="AQ21" s="15">
-        <v>171774</v>
+        <v>220364</v>
       </c>
       <c r="AR21" s="15">
-        <v>118215</v>
+        <v>197211</v>
       </c>
       <c r="AS21" s="15">
-        <v>220364</v>
+        <v>239475</v>
       </c>
       <c r="AT21" s="15">
-        <v>197211</v>
+        <v>231620</v>
       </c>
       <c r="AU21" s="15">
-        <v>239475</v>
+        <v>142584</v>
       </c>
       <c r="AV21" s="15">
-        <v>231620</v>
+        <v>125728</v>
       </c>
       <c r="AW21" s="15">
-        <v>142584</v>
+        <v>129017</v>
       </c>
       <c r="AX21" s="15">
-        <v>125728</v>
+        <v>240038</v>
       </c>
       <c r="AY21" s="15">
-        <v>129017</v>
+        <v>230902</v>
       </c>
       <c r="AZ21" s="15">
-        <v>240038</v>
+        <v>223735</v>
       </c>
       <c r="BA21" s="15">
-        <v>230902</v>
+        <v>121635</v>
       </c>
       <c r="BB21" s="15">
-        <v>223735</v>
+        <v>2982</v>
       </c>
     </row>
-    <row r="22" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B22" s="16" t="s">
         <v>69</v>
       </c>
@@ -3142,7 +3142,7 @@
       <c r="BA22" s="17"/>
       <c r="BB22" s="17"/>
     </row>
-    <row r="23" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B23" s="18" t="s">
         <v>70</v>
       </c>
@@ -3220,11 +3220,11 @@
       <c r="AB23" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="AC23" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD23" s="19" t="s">
-        <v>58</v>
+      <c r="AC23" s="19">
+        <v>0</v>
+      </c>
+      <c r="AD23" s="19">
+        <v>0</v>
       </c>
       <c r="AE23" s="19">
         <v>0</v>
@@ -3299,7 +3299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B24" s="14" t="s">
         <v>71</v>
       </c>
@@ -3378,85 +3378,85 @@
         <v>0</v>
       </c>
       <c r="AC24" s="15">
-        <v>0</v>
+        <v>255990</v>
       </c>
       <c r="AD24" s="15">
-        <v>0</v>
+        <v>318930</v>
       </c>
       <c r="AE24" s="15">
-        <v>255990</v>
+        <v>453370</v>
       </c>
       <c r="AF24" s="15">
-        <v>318930</v>
+        <v>456100</v>
       </c>
       <c r="AG24" s="15">
-        <v>453370</v>
+        <v>435900</v>
       </c>
       <c r="AH24" s="15">
-        <v>456100</v>
+        <v>341820</v>
       </c>
       <c r="AI24" s="15">
-        <v>435900</v>
+        <v>219530</v>
       </c>
       <c r="AJ24" s="15">
-        <v>341820</v>
+        <v>202750</v>
       </c>
       <c r="AK24" s="15">
-        <v>219530</v>
+        <v>314020</v>
       </c>
       <c r="AL24" s="15">
-        <v>202750</v>
+        <v>369279</v>
       </c>
       <c r="AM24" s="15">
-        <v>314020</v>
+        <v>382390</v>
       </c>
       <c r="AN24" s="15">
-        <v>369279</v>
+        <v>346751</v>
       </c>
       <c r="AO24" s="15">
-        <v>382390</v>
+        <v>317990</v>
       </c>
       <c r="AP24" s="15">
-        <v>346751</v>
+        <v>270070</v>
       </c>
       <c r="AQ24" s="15">
-        <v>317990</v>
+        <v>384110</v>
       </c>
       <c r="AR24" s="15">
-        <v>270070</v>
+        <v>328870</v>
       </c>
       <c r="AS24" s="15">
-        <v>384110</v>
+        <v>420660</v>
       </c>
       <c r="AT24" s="15">
-        <v>328870</v>
+        <v>365820</v>
       </c>
       <c r="AU24" s="15">
-        <v>420660</v>
+        <v>301230</v>
       </c>
       <c r="AV24" s="15">
-        <v>365820</v>
+        <v>296910</v>
       </c>
       <c r="AW24" s="15">
-        <v>301230</v>
+        <v>307000</v>
       </c>
       <c r="AX24" s="15">
-        <v>296910</v>
+        <v>412966</v>
       </c>
       <c r="AY24" s="15">
-        <v>307000</v>
+        <v>403268</v>
       </c>
       <c r="AZ24" s="15">
-        <v>412966</v>
+        <v>393870</v>
       </c>
       <c r="BA24" s="15">
-        <v>403268</v>
+        <v>262840</v>
       </c>
       <c r="BB24" s="15">
-        <v>393870</v>
+        <v>149135</v>
       </c>
     </row>
-    <row r="25" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -3511,7 +3511,7 @@
       <c r="BA25" s="1"/>
       <c r="BB25" s="1"/>
     </row>
-    <row r="26" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -3566,7 +3566,7 @@
       <c r="BA26" s="1"/>
       <c r="BB26" s="1"/>
     </row>
-    <row r="27" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -3621,7 +3621,7 @@
       <c r="BA27" s="1"/>
       <c r="BB27" s="1"/>
     </row>
-    <row r="28" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B28" s="7" t="s">
         <v>72</v>
       </c>
@@ -3778,7 +3778,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -3833,7 +3833,7 @@
       <c r="BA29" s="1"/>
       <c r="BB29" s="1"/>
     </row>
-    <row r="30" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B30" s="8" t="s">
         <v>73</v>
       </c>
@@ -3890,7 +3890,7 @@
       <c r="BA30" s="9"/>
       <c r="BB30" s="9"/>
     </row>
-    <row r="31" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B31" s="10" t="s">
         <v>56</v>
       </c>
@@ -3970,57 +3970,57 @@
       <c r="AB31" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AC31" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD31" s="11" t="s">
-        <v>58</v>
+      <c r="AC31" s="11">
+        <v>89161</v>
+      </c>
+      <c r="AD31" s="11">
+        <v>113357</v>
       </c>
       <c r="AE31" s="11">
-        <v>89161</v>
+        <v>117578</v>
       </c>
       <c r="AF31" s="11">
-        <v>113357</v>
+        <v>94458</v>
       </c>
       <c r="AG31" s="11">
-        <v>117578</v>
+        <v>108306</v>
       </c>
       <c r="AH31" s="11">
-        <v>94458</v>
+        <v>112681</v>
       </c>
       <c r="AI31" s="11">
-        <v>108306</v>
+        <v>66704</v>
       </c>
       <c r="AJ31" s="11">
-        <v>112681</v>
+        <v>58378</v>
       </c>
       <c r="AK31" s="11">
-        <v>66704</v>
+        <v>98093</v>
       </c>
       <c r="AL31" s="11">
-        <v>58378</v>
+        <v>72987</v>
       </c>
       <c r="AM31" s="11">
-        <v>98093</v>
+        <v>78388</v>
       </c>
       <c r="AN31" s="11">
-        <v>72987</v>
+        <v>76964</v>
       </c>
       <c r="AO31" s="11">
-        <v>78388</v>
+        <v>70245</v>
       </c>
       <c r="AP31" s="11">
-        <v>76964</v>
+        <v>70332</v>
       </c>
       <c r="AQ31" s="11">
-        <v>70245</v>
-      </c>
-      <c r="AR31" s="11">
-        <v>70332</v>
-      </c>
-      <c r="AS31" s="11">
         <v>77798</v>
       </c>
+      <c r="AR31" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS31" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AT31" s="11" t="s">
         <v>58</v>
       </c>
@@ -4049,7 +4049,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="32" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B32" s="12" t="s">
         <v>59</v>
       </c>
@@ -4129,57 +4129,57 @@
       <c r="AB32" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AC32" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD32" s="13" t="s">
-        <v>58</v>
+      <c r="AC32" s="13">
+        <v>82630</v>
+      </c>
+      <c r="AD32" s="13">
+        <v>98843</v>
       </c>
       <c r="AE32" s="13">
-        <v>82630</v>
+        <v>106366</v>
       </c>
       <c r="AF32" s="13">
-        <v>98843</v>
+        <v>67044</v>
       </c>
       <c r="AG32" s="13">
-        <v>106366</v>
+        <v>82167</v>
       </c>
       <c r="AH32" s="13">
-        <v>67044</v>
+        <v>98156</v>
       </c>
       <c r="AI32" s="13">
-        <v>82167</v>
+        <v>52200</v>
       </c>
       <c r="AJ32" s="13">
-        <v>98156</v>
+        <v>59416</v>
       </c>
       <c r="AK32" s="13">
-        <v>52200</v>
+        <v>70437</v>
       </c>
       <c r="AL32" s="13">
-        <v>59416</v>
+        <v>70191</v>
       </c>
       <c r="AM32" s="13">
-        <v>70437</v>
+        <v>80694</v>
       </c>
       <c r="AN32" s="13">
-        <v>70191</v>
+        <v>85104</v>
       </c>
       <c r="AO32" s="13">
-        <v>80694</v>
+        <v>70696</v>
       </c>
       <c r="AP32" s="13">
-        <v>85104</v>
+        <v>78327</v>
       </c>
       <c r="AQ32" s="13">
-        <v>70696</v>
-      </c>
-      <c r="AR32" s="13">
-        <v>78327</v>
-      </c>
-      <c r="AS32" s="13">
         <v>83333</v>
       </c>
+      <c r="AR32" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS32" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AT32" s="13" t="s">
         <v>58</v>
       </c>
@@ -4208,7 +4208,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="33" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B33" s="10" t="s">
         <v>60</v>
       </c>
@@ -4333,41 +4333,41 @@
       <c r="AQ33" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR33" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS33" s="11" t="s">
-        <v>58</v>
+      <c r="AR33" s="11">
+        <v>58557</v>
+      </c>
+      <c r="AS33" s="11">
+        <v>84374</v>
       </c>
       <c r="AT33" s="11">
-        <v>58557</v>
+        <v>81661</v>
       </c>
       <c r="AU33" s="11">
-        <v>84374</v>
+        <v>80952</v>
       </c>
       <c r="AV33" s="11">
-        <v>81661</v>
+        <v>76696</v>
       </c>
       <c r="AW33" s="11">
-        <v>80952</v>
+        <v>86267</v>
       </c>
       <c r="AX33" s="11">
-        <v>76696</v>
+        <v>75618</v>
       </c>
       <c r="AY33" s="11">
-        <v>86267</v>
+        <v>73210</v>
       </c>
       <c r="AZ33" s="11">
-        <v>75618</v>
+        <v>76249</v>
       </c>
       <c r="BA33" s="11">
-        <v>73210</v>
+        <v>73961</v>
       </c>
       <c r="BB33" s="11">
-        <v>76249</v>
+        <v>77641</v>
       </c>
     </row>
-    <row r="34" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B34" s="12" t="s">
         <v>61</v>
       </c>
@@ -4492,41 +4492,41 @@
       <c r="AQ34" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR34" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS34" s="13" t="s">
-        <v>58</v>
+      <c r="AR34" s="13">
+        <v>73653</v>
+      </c>
+      <c r="AS34" s="13">
+        <v>90595</v>
       </c>
       <c r="AT34" s="13">
-        <v>73653</v>
+        <v>80455</v>
       </c>
       <c r="AU34" s="13">
-        <v>90595</v>
+        <v>72620</v>
       </c>
       <c r="AV34" s="13">
-        <v>80455</v>
+        <v>77866</v>
       </c>
       <c r="AW34" s="13">
-        <v>72620</v>
+        <v>98690</v>
       </c>
       <c r="AX34" s="13">
-        <v>77866</v>
+        <v>100865</v>
       </c>
       <c r="AY34" s="13">
-        <v>98690</v>
+        <v>90838</v>
       </c>
       <c r="AZ34" s="13">
-        <v>100865</v>
+        <v>101727</v>
       </c>
       <c r="BA34" s="13">
-        <v>90838</v>
+        <v>81580</v>
       </c>
       <c r="BB34" s="13">
-        <v>101727</v>
+        <v>69405</v>
       </c>
     </row>
-    <row r="35" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B35" s="10" t="s">
         <v>62</v>
       </c>
@@ -4685,7 +4685,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="36" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B36" s="14" t="s">
         <v>74</v>
       </c>
@@ -4764,85 +4764,85 @@
         <v>0</v>
       </c>
       <c r="AC36" s="15">
-        <v>0</v>
+        <v>171791</v>
       </c>
       <c r="AD36" s="15">
-        <v>0</v>
+        <v>212200</v>
       </c>
       <c r="AE36" s="15">
-        <v>171791</v>
+        <v>223944</v>
       </c>
       <c r="AF36" s="15">
-        <v>212200</v>
+        <v>161502</v>
       </c>
       <c r="AG36" s="15">
-        <v>223944</v>
+        <v>190473</v>
       </c>
       <c r="AH36" s="15">
-        <v>161502</v>
+        <v>210837</v>
       </c>
       <c r="AI36" s="15">
-        <v>190473</v>
+        <v>118904</v>
       </c>
       <c r="AJ36" s="15">
-        <v>210837</v>
+        <v>117794</v>
       </c>
       <c r="AK36" s="15">
-        <v>118904</v>
+        <v>168530</v>
       </c>
       <c r="AL36" s="15">
-        <v>117794</v>
+        <v>143178</v>
       </c>
       <c r="AM36" s="15">
-        <v>168530</v>
+        <v>159082</v>
       </c>
       <c r="AN36" s="15">
-        <v>143178</v>
+        <v>162068</v>
       </c>
       <c r="AO36" s="15">
-        <v>159082</v>
+        <v>140941</v>
       </c>
       <c r="AP36" s="15">
-        <v>162068</v>
+        <v>148659</v>
       </c>
       <c r="AQ36" s="15">
-        <v>140941</v>
+        <v>161131</v>
       </c>
       <c r="AR36" s="15">
-        <v>148659</v>
+        <v>132210</v>
       </c>
       <c r="AS36" s="15">
-        <v>161131</v>
+        <v>174969</v>
       </c>
       <c r="AT36" s="15">
-        <v>132210</v>
+        <v>162116</v>
       </c>
       <c r="AU36" s="15">
-        <v>174969</v>
+        <v>153572</v>
       </c>
       <c r="AV36" s="15">
-        <v>162116</v>
+        <v>154562</v>
       </c>
       <c r="AW36" s="15">
-        <v>153572</v>
+        <v>184957</v>
       </c>
       <c r="AX36" s="15">
-        <v>154562</v>
+        <v>176483</v>
       </c>
       <c r="AY36" s="15">
-        <v>184957</v>
+        <v>164048</v>
       </c>
       <c r="AZ36" s="15">
-        <v>176483</v>
+        <v>177976</v>
       </c>
       <c r="BA36" s="15">
-        <v>164048</v>
+        <v>155540</v>
       </c>
       <c r="BB36" s="15">
-        <v>177976</v>
+        <v>147046</v>
       </c>
     </row>
-    <row r="37" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B37" s="8" t="s">
         <v>75</v>
       </c>
@@ -4899,7 +4899,7 @@
       <c r="BA37" s="9"/>
       <c r="BB37" s="9"/>
     </row>
-    <row r="38" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B38" s="10" t="s">
         <v>65</v>
       </c>
@@ -4979,11 +4979,11 @@
       <c r="AB38" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AC38" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD38" s="11" t="s">
-        <v>58</v>
+      <c r="AC38" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD38" s="11">
+        <v>0</v>
       </c>
       <c r="AE38" s="11">
         <v>0</v>
@@ -4992,22 +4992,22 @@
         <v>0</v>
       </c>
       <c r="AG38" s="11">
-        <v>0</v>
+        <v>4887</v>
       </c>
       <c r="AH38" s="11">
-        <v>0</v>
-      </c>
-      <c r="AI38" s="11">
-        <v>4887</v>
+        <v>1912</v>
+      </c>
+      <c r="AI38" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AJ38" s="11">
-        <v>1912</v>
+        <v>2192</v>
       </c>
       <c r="AK38" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AL38" s="11">
-        <v>2192</v>
+      <c r="AL38" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AM38" s="11" t="s">
         <v>58</v>
@@ -5018,11 +5018,11 @@
       <c r="AO38" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AP38" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AQ38" s="11" t="s">
-        <v>58</v>
+      <c r="AP38" s="11">
+        <v>0</v>
+      </c>
+      <c r="AQ38" s="11">
+        <v>0</v>
       </c>
       <c r="AR38" s="11">
         <v>0</v>
@@ -5031,25 +5031,25 @@
         <v>0</v>
       </c>
       <c r="AT38" s="11">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="AU38" s="11">
         <v>0</v>
       </c>
       <c r="AV38" s="11">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="AW38" s="11">
-        <v>0</v>
+        <v>5500</v>
       </c>
       <c r="AX38" s="11">
-        <v>0</v>
+        <v>3900</v>
       </c>
       <c r="AY38" s="11">
-        <v>5500</v>
+        <v>0</v>
       </c>
       <c r="AZ38" s="11">
-        <v>3900</v>
+        <v>0</v>
       </c>
       <c r="BA38" s="11">
         <v>0</v>
@@ -5058,7 +5058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B39" s="12" t="s">
         <v>66</v>
       </c>
@@ -5183,41 +5183,41 @@
       <c r="AQ39" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR39" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS39" s="13" t="s">
-        <v>58</v>
+      <c r="AR39" s="13">
+        <v>5765</v>
+      </c>
+      <c r="AS39" s="13">
+        <v>12935</v>
       </c>
       <c r="AT39" s="13">
-        <v>5765</v>
+        <v>12530</v>
       </c>
       <c r="AU39" s="13">
-        <v>12935</v>
+        <v>20873</v>
       </c>
       <c r="AV39" s="13">
-        <v>12530</v>
+        <v>20405</v>
       </c>
       <c r="AW39" s="13">
-        <v>20873</v>
+        <v>12269</v>
       </c>
       <c r="AX39" s="13">
-        <v>20405</v>
+        <v>16839</v>
       </c>
       <c r="AY39" s="13">
-        <v>12269</v>
+        <v>19786</v>
       </c>
       <c r="AZ39" s="13">
-        <v>16839</v>
+        <v>16397</v>
       </c>
       <c r="BA39" s="13">
-        <v>19786</v>
+        <v>502</v>
       </c>
       <c r="BB39" s="13">
-        <v>16397</v>
+        <v>3000</v>
       </c>
     </row>
-    <row r="40" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B40" s="10" t="s">
         <v>67</v>
       </c>
@@ -5297,57 +5297,57 @@
       <c r="AB40" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AC40" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD40" s="11" t="s">
-        <v>58</v>
+      <c r="AC40" s="11">
+        <v>3124</v>
+      </c>
+      <c r="AD40" s="11">
+        <v>4812</v>
       </c>
       <c r="AE40" s="11">
-        <v>3124</v>
+        <v>14506</v>
       </c>
       <c r="AF40" s="11">
-        <v>4812</v>
+        <v>47996</v>
       </c>
       <c r="AG40" s="11">
-        <v>14506</v>
+        <v>25135</v>
       </c>
       <c r="AH40" s="11">
-        <v>47996</v>
+        <v>2432</v>
       </c>
       <c r="AI40" s="11">
-        <v>25135</v>
+        <v>2510</v>
       </c>
       <c r="AJ40" s="11">
-        <v>2432</v>
+        <v>5681</v>
       </c>
       <c r="AK40" s="11">
-        <v>2510</v>
+        <v>4078</v>
       </c>
       <c r="AL40" s="11">
-        <v>5681</v>
+        <v>8150</v>
       </c>
       <c r="AM40" s="11">
-        <v>4078</v>
+        <v>10954</v>
       </c>
       <c r="AN40" s="11">
-        <v>8150</v>
+        <v>11075</v>
       </c>
       <c r="AO40" s="11">
-        <v>10954</v>
+        <v>3040</v>
       </c>
       <c r="AP40" s="11">
-        <v>11075</v>
+        <v>9186</v>
       </c>
       <c r="AQ40" s="11">
-        <v>3040</v>
-      </c>
-      <c r="AR40" s="11">
-        <v>9186</v>
-      </c>
-      <c r="AS40" s="11">
         <v>6764</v>
       </c>
+      <c r="AR40" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS40" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AT40" s="11" t="s">
         <v>58</v>
       </c>
@@ -5376,7 +5376,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="41" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B41" s="14" t="s">
         <v>76</v>
       </c>
@@ -5455,85 +5455,85 @@
         <v>0</v>
       </c>
       <c r="AC41" s="15">
-        <v>0</v>
+        <v>3124</v>
       </c>
       <c r="AD41" s="15">
-        <v>0</v>
+        <v>4812</v>
       </c>
       <c r="AE41" s="15">
-        <v>3124</v>
+        <v>14506</v>
       </c>
       <c r="AF41" s="15">
-        <v>4812</v>
+        <v>47996</v>
       </c>
       <c r="AG41" s="15">
-        <v>14506</v>
+        <v>30022</v>
       </c>
       <c r="AH41" s="15">
-        <v>47996</v>
+        <v>4344</v>
       </c>
       <c r="AI41" s="15">
-        <v>30022</v>
+        <v>2510</v>
       </c>
       <c r="AJ41" s="15">
-        <v>4344</v>
+        <v>7873</v>
       </c>
       <c r="AK41" s="15">
-        <v>2510</v>
+        <v>4078</v>
       </c>
       <c r="AL41" s="15">
-        <v>7873</v>
+        <v>8150</v>
       </c>
       <c r="AM41" s="15">
-        <v>4078</v>
+        <v>10954</v>
       </c>
       <c r="AN41" s="15">
-        <v>8150</v>
+        <v>11075</v>
       </c>
       <c r="AO41" s="15">
-        <v>10954</v>
+        <v>3040</v>
       </c>
       <c r="AP41" s="15">
-        <v>11075</v>
+        <v>9186</v>
       </c>
       <c r="AQ41" s="15">
-        <v>3040</v>
+        <v>6764</v>
       </c>
       <c r="AR41" s="15">
-        <v>9186</v>
+        <v>5765</v>
       </c>
       <c r="AS41" s="15">
-        <v>6764</v>
+        <v>12935</v>
       </c>
       <c r="AT41" s="15">
-        <v>5765</v>
+        <v>16530</v>
       </c>
       <c r="AU41" s="15">
-        <v>12935</v>
+        <v>20873</v>
       </c>
       <c r="AV41" s="15">
-        <v>16530</v>
+        <v>20405</v>
       </c>
       <c r="AW41" s="15">
-        <v>20873</v>
+        <v>17769</v>
       </c>
       <c r="AX41" s="15">
-        <v>20405</v>
+        <v>20739</v>
       </c>
       <c r="AY41" s="15">
-        <v>17769</v>
+        <v>19786</v>
       </c>
       <c r="AZ41" s="15">
-        <v>20739</v>
+        <v>16397</v>
       </c>
       <c r="BA41" s="15">
-        <v>19786</v>
+        <v>502</v>
       </c>
       <c r="BB41" s="15">
-        <v>16397</v>
+        <v>3000</v>
       </c>
     </row>
-    <row r="42" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B42" s="16" t="s">
         <v>69</v>
       </c>
@@ -5590,7 +5590,7 @@
       <c r="BA42" s="17"/>
       <c r="BB42" s="17"/>
     </row>
-    <row r="43" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B43" s="18" t="s">
         <v>70</v>
       </c>
@@ -5668,11 +5668,11 @@
       <c r="AB43" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="AC43" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD43" s="19" t="s">
-        <v>58</v>
+      <c r="AC43" s="19">
+        <v>0</v>
+      </c>
+      <c r="AD43" s="19">
+        <v>0</v>
       </c>
       <c r="AE43" s="19">
         <v>0</v>
@@ -5747,7 +5747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B44" s="16" t="s">
         <v>77</v>
       </c>
@@ -5804,7 +5804,7 @@
       <c r="BA44" s="17"/>
       <c r="BB44" s="17"/>
     </row>
-    <row r="45" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B45" s="18" t="s">
         <v>78</v>
       </c>
@@ -5882,11 +5882,11 @@
       <c r="AB45" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="AC45" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD45" s="19" t="s">
-        <v>58</v>
+      <c r="AC45" s="19">
+        <v>0</v>
+      </c>
+      <c r="AD45" s="19">
+        <v>0</v>
       </c>
       <c r="AE45" s="19">
         <v>0</v>
@@ -5961,7 +5961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B46" s="14" t="s">
         <v>71</v>
       </c>
@@ -6040,85 +6040,85 @@
         <v>0</v>
       </c>
       <c r="AC46" s="15">
-        <v>0</v>
+        <v>174915</v>
       </c>
       <c r="AD46" s="15">
-        <v>0</v>
+        <v>217012</v>
       </c>
       <c r="AE46" s="15">
-        <v>174915</v>
+        <v>238450</v>
       </c>
       <c r="AF46" s="15">
-        <v>217012</v>
+        <v>209498</v>
       </c>
       <c r="AG46" s="15">
-        <v>238450</v>
+        <v>220495</v>
       </c>
       <c r="AH46" s="15">
-        <v>209498</v>
+        <v>215181</v>
       </c>
       <c r="AI46" s="15">
-        <v>220495</v>
+        <v>121414</v>
       </c>
       <c r="AJ46" s="15">
-        <v>215181</v>
+        <v>125667</v>
       </c>
       <c r="AK46" s="15">
-        <v>121414</v>
+        <v>172608</v>
       </c>
       <c r="AL46" s="15">
-        <v>125667</v>
+        <v>151328</v>
       </c>
       <c r="AM46" s="15">
-        <v>172608</v>
+        <v>170036</v>
       </c>
       <c r="AN46" s="15">
-        <v>151328</v>
+        <v>173143</v>
       </c>
       <c r="AO46" s="15">
-        <v>170036</v>
+        <v>143981</v>
       </c>
       <c r="AP46" s="15">
-        <v>173143</v>
+        <v>157845</v>
       </c>
       <c r="AQ46" s="15">
-        <v>143981</v>
+        <v>167895</v>
       </c>
       <c r="AR46" s="15">
-        <v>157845</v>
+        <v>137975</v>
       </c>
       <c r="AS46" s="15">
-        <v>167895</v>
+        <v>187904</v>
       </c>
       <c r="AT46" s="15">
-        <v>137975</v>
+        <v>178646</v>
       </c>
       <c r="AU46" s="15">
-        <v>187904</v>
+        <v>174445</v>
       </c>
       <c r="AV46" s="15">
-        <v>178646</v>
+        <v>174967</v>
       </c>
       <c r="AW46" s="15">
-        <v>174445</v>
+        <v>202726</v>
       </c>
       <c r="AX46" s="15">
-        <v>174967</v>
+        <v>197222</v>
       </c>
       <c r="AY46" s="15">
-        <v>202726</v>
+        <v>183835</v>
       </c>
       <c r="AZ46" s="15">
-        <v>197222</v>
+        <v>194374</v>
       </c>
       <c r="BA46" s="15">
-        <v>183835</v>
+        <v>156042</v>
       </c>
       <c r="BB46" s="15">
-        <v>194374</v>
+        <v>150046</v>
       </c>
     </row>
-    <row r="47" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -6173,7 +6173,7 @@
       <c r="BA47" s="1"/>
       <c r="BB47" s="1"/>
     </row>
-    <row r="48" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -6228,7 +6228,7 @@
       <c r="BA48" s="1"/>
       <c r="BB48" s="1"/>
     </row>
-    <row r="49" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -6283,7 +6283,7 @@
       <c r="BA49" s="1"/>
       <c r="BB49" s="1"/>
     </row>
-    <row r="50" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B50" s="7" t="s">
         <v>79</v>
       </c>
@@ -6440,7 +6440,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="51" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -6495,7 +6495,7 @@
       <c r="BA51" s="1"/>
       <c r="BB51" s="1"/>
     </row>
-    <row r="52" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B52" s="8" t="s">
         <v>80</v>
       </c>
@@ -6552,7 +6552,7 @@
       <c r="BA52" s="9"/>
       <c r="BB52" s="9"/>
     </row>
-    <row r="53" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B53" s="10" t="s">
         <v>56</v>
       </c>
@@ -6632,57 +6632,57 @@
       <c r="AB53" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AC53" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD53" s="11" t="s">
-        <v>58</v>
+      <c r="AC53" s="11">
+        <v>198101</v>
+      </c>
+      <c r="AD53" s="11">
+        <v>250404</v>
       </c>
       <c r="AE53" s="11">
-        <v>198101</v>
+        <v>259592</v>
       </c>
       <c r="AF53" s="11">
-        <v>250404</v>
+        <v>208235</v>
       </c>
       <c r="AG53" s="11">
-        <v>259592</v>
+        <v>333124</v>
       </c>
       <c r="AH53" s="11">
-        <v>208235</v>
+        <v>346687</v>
       </c>
       <c r="AI53" s="11">
-        <v>333124</v>
+        <v>218627</v>
       </c>
       <c r="AJ53" s="11">
-        <v>346687</v>
+        <v>324515</v>
       </c>
       <c r="AK53" s="11">
-        <v>218627</v>
+        <v>561291</v>
       </c>
       <c r="AL53" s="11">
-        <v>324515</v>
+        <v>306894</v>
       </c>
       <c r="AM53" s="11">
-        <v>561291</v>
+        <v>304178</v>
       </c>
       <c r="AN53" s="11">
-        <v>306894</v>
+        <v>387264</v>
       </c>
       <c r="AO53" s="11">
-        <v>304178</v>
+        <v>330725</v>
       </c>
       <c r="AP53" s="11">
-        <v>387264</v>
+        <v>365140</v>
       </c>
       <c r="AQ53" s="11">
-        <v>330725</v>
-      </c>
-      <c r="AR53" s="11">
-        <v>365140</v>
-      </c>
-      <c r="AS53" s="11">
         <v>409980</v>
       </c>
+      <c r="AR53" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS53" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AT53" s="11" t="s">
         <v>58</v>
       </c>
@@ -6711,7 +6711,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="54" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B54" s="12" t="s">
         <v>59</v>
       </c>
@@ -6791,57 +6791,57 @@
       <c r="AB54" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AC54" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD54" s="13" t="s">
-        <v>58</v>
+      <c r="AC54" s="13">
+        <v>256539</v>
+      </c>
+      <c r="AD54" s="13">
+        <v>306680</v>
       </c>
       <c r="AE54" s="13">
-        <v>256539</v>
+        <v>330316</v>
       </c>
       <c r="AF54" s="13">
-        <v>306680</v>
+        <v>207645</v>
       </c>
       <c r="AG54" s="13">
-        <v>330316</v>
+        <v>351858</v>
       </c>
       <c r="AH54" s="13">
-        <v>207645</v>
+        <v>423311</v>
       </c>
       <c r="AI54" s="13">
-        <v>351858</v>
+        <v>231710</v>
       </c>
       <c r="AJ54" s="13">
-        <v>423311</v>
+        <v>325137</v>
       </c>
       <c r="AK54" s="13">
-        <v>231710</v>
+        <v>489315</v>
       </c>
       <c r="AL54" s="13">
-        <v>325137</v>
+        <v>392489</v>
       </c>
       <c r="AM54" s="13">
-        <v>489315</v>
+        <v>425572</v>
       </c>
       <c r="AN54" s="13">
-        <v>392489</v>
+        <v>523601</v>
       </c>
       <c r="AO54" s="13">
-        <v>425572</v>
+        <v>413552</v>
       </c>
       <c r="AP54" s="13">
-        <v>523601</v>
+        <v>460329</v>
       </c>
       <c r="AQ54" s="13">
-        <v>413552</v>
-      </c>
-      <c r="AR54" s="13">
-        <v>460329</v>
-      </c>
-      <c r="AS54" s="13">
         <v>504371</v>
       </c>
+      <c r="AR54" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS54" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AT54" s="13" t="s">
         <v>58</v>
       </c>
@@ -6870,7 +6870,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="55" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B55" s="10" t="s">
         <v>60</v>
       </c>
@@ -6995,41 +6995,41 @@
       <c r="AQ55" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR55" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS55" s="11" t="s">
-        <v>58</v>
+      <c r="AR55" s="11">
+        <v>277405</v>
+      </c>
+      <c r="AS55" s="11">
+        <v>396597</v>
       </c>
       <c r="AT55" s="11">
-        <v>277405</v>
+        <v>492554</v>
       </c>
       <c r="AU55" s="11">
-        <v>396597</v>
+        <v>638025</v>
       </c>
       <c r="AV55" s="11">
-        <v>492554</v>
+        <v>547976</v>
       </c>
       <c r="AW55" s="11">
-        <v>638025</v>
+        <v>608837</v>
       </c>
       <c r="AX55" s="11">
-        <v>547976</v>
+        <v>521927</v>
       </c>
       <c r="AY55" s="11">
-        <v>608837</v>
+        <v>503058</v>
       </c>
       <c r="AZ55" s="11">
-        <v>521927</v>
+        <v>518705</v>
       </c>
       <c r="BA55" s="11">
-        <v>503058</v>
+        <v>471146</v>
       </c>
       <c r="BB55" s="11">
-        <v>518703</v>
+        <v>508335</v>
       </c>
     </row>
-    <row r="56" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B56" s="12" t="s">
         <v>61</v>
       </c>
@@ -7154,41 +7154,41 @@
       <c r="AQ56" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR56" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS56" s="13" t="s">
-        <v>58</v>
+      <c r="AR56" s="13">
+        <v>433325</v>
+      </c>
+      <c r="AS56" s="13">
+        <v>543797</v>
       </c>
       <c r="AT56" s="13">
-        <v>433325</v>
+        <v>573285</v>
       </c>
       <c r="AU56" s="13">
-        <v>543797</v>
+        <v>599537</v>
       </c>
       <c r="AV56" s="13">
-        <v>573285</v>
+        <v>591711</v>
       </c>
       <c r="AW56" s="13">
-        <v>599537</v>
+        <v>714559</v>
       </c>
       <c r="AX56" s="13">
-        <v>591711</v>
+        <v>737841</v>
       </c>
       <c r="AY56" s="13">
-        <v>714559</v>
+        <v>652799</v>
       </c>
       <c r="AZ56" s="13">
-        <v>737841</v>
+        <v>714297</v>
       </c>
       <c r="BA56" s="13">
-        <v>652799</v>
+        <v>579466</v>
       </c>
       <c r="BB56" s="13">
-        <v>714298</v>
+        <v>516710</v>
       </c>
     </row>
-    <row r="57" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B57" s="10" t="s">
         <v>62</v>
       </c>
@@ -7304,14 +7304,14 @@
       <c r="AN57" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AO57" s="11" t="s">
-        <v>58</v>
+      <c r="AO57" s="11">
+        <v>0</v>
       </c>
       <c r="AP57" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AQ57" s="11">
-        <v>0</v>
+      <c r="AQ57" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AR57" s="11" t="s">
         <v>58</v>
@@ -7347,7 +7347,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="58" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B58" s="14" t="s">
         <v>74</v>
       </c>
@@ -7426,85 +7426,85 @@
         <v>0</v>
       </c>
       <c r="AC58" s="15">
-        <v>0</v>
+        <v>454640</v>
       </c>
       <c r="AD58" s="15">
-        <v>0</v>
+        <v>557084</v>
       </c>
       <c r="AE58" s="15">
-        <v>454640</v>
+        <v>589908</v>
       </c>
       <c r="AF58" s="15">
-        <v>557084</v>
+        <v>415880</v>
       </c>
       <c r="AG58" s="15">
-        <v>589908</v>
+        <v>684982</v>
       </c>
       <c r="AH58" s="15">
-        <v>415880</v>
+        <v>769998</v>
       </c>
       <c r="AI58" s="15">
-        <v>684982</v>
+        <v>450337</v>
       </c>
       <c r="AJ58" s="15">
-        <v>769998</v>
+        <v>649652</v>
       </c>
       <c r="AK58" s="15">
-        <v>450337</v>
+        <v>1050606</v>
       </c>
       <c r="AL58" s="15">
-        <v>649652</v>
+        <v>699383</v>
       </c>
       <c r="AM58" s="15">
-        <v>1050606</v>
+        <v>729750</v>
       </c>
       <c r="AN58" s="15">
-        <v>699383</v>
+        <v>910865</v>
       </c>
       <c r="AO58" s="15">
-        <v>729750</v>
+        <v>744277</v>
       </c>
       <c r="AP58" s="15">
-        <v>910865</v>
+        <v>825469</v>
       </c>
       <c r="AQ58" s="15">
-        <v>744277</v>
+        <v>914351</v>
       </c>
       <c r="AR58" s="15">
-        <v>825469</v>
+        <v>710730</v>
       </c>
       <c r="AS58" s="15">
-        <v>914351</v>
+        <v>940394</v>
       </c>
       <c r="AT58" s="15">
-        <v>710730</v>
+        <v>1065839</v>
       </c>
       <c r="AU58" s="15">
-        <v>940394</v>
+        <v>1237562</v>
       </c>
       <c r="AV58" s="15">
-        <v>1065839</v>
+        <v>1139687</v>
       </c>
       <c r="AW58" s="15">
-        <v>1237562</v>
+        <v>1323396</v>
       </c>
       <c r="AX58" s="15">
-        <v>1139687</v>
+        <v>1259768</v>
       </c>
       <c r="AY58" s="15">
-        <v>1323396</v>
+        <v>1155857</v>
       </c>
       <c r="AZ58" s="15">
-        <v>1259768</v>
+        <v>1233002</v>
       </c>
       <c r="BA58" s="15">
-        <v>1155857</v>
+        <v>1050612</v>
       </c>
       <c r="BB58" s="15">
-        <v>1233001</v>
+        <v>1025045</v>
       </c>
     </row>
-    <row r="59" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B59" s="8" t="s">
         <v>82</v>
       </c>
@@ -7561,7 +7561,7 @@
       <c r="BA59" s="9"/>
       <c r="BB59" s="9"/>
     </row>
-    <row r="60" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B60" s="10" t="s">
         <v>65</v>
       </c>
@@ -7641,11 +7641,11 @@
       <c r="AB60" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AC60" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD60" s="11" t="s">
-        <v>58</v>
+      <c r="AC60" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD60" s="11">
+        <v>0</v>
       </c>
       <c r="AE60" s="11">
         <v>0</v>
@@ -7654,22 +7654,22 @@
         <v>0</v>
       </c>
       <c r="AG60" s="11">
-        <v>0</v>
+        <v>20292</v>
       </c>
       <c r="AH60" s="11">
-        <v>0</v>
+        <v>7945</v>
       </c>
       <c r="AI60" s="11">
-        <v>20292</v>
+        <v>0</v>
       </c>
       <c r="AJ60" s="11">
-        <v>7945</v>
+        <v>11155</v>
       </c>
       <c r="AK60" s="11">
         <v>0</v>
       </c>
       <c r="AL60" s="11">
-        <v>11155</v>
+        <v>0</v>
       </c>
       <c r="AM60" s="11">
         <v>0</v>
@@ -7693,25 +7693,25 @@
         <v>0</v>
       </c>
       <c r="AT60" s="11">
-        <v>0</v>
+        <v>32576</v>
       </c>
       <c r="AU60" s="11">
         <v>0</v>
       </c>
       <c r="AV60" s="11">
-        <v>32576</v>
+        <v>0</v>
       </c>
       <c r="AW60" s="11">
-        <v>0</v>
+        <v>42722</v>
       </c>
       <c r="AX60" s="11">
-        <v>0</v>
+        <v>29978</v>
       </c>
       <c r="AY60" s="11">
-        <v>42722</v>
+        <v>0</v>
       </c>
       <c r="AZ60" s="11">
-        <v>29978</v>
+        <v>0</v>
       </c>
       <c r="BA60" s="11">
         <v>0</v>
@@ -7720,7 +7720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B61" s="12" t="s">
         <v>66</v>
       </c>
@@ -7845,41 +7845,41 @@
       <c r="AQ61" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR61" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS61" s="13" t="s">
-        <v>58</v>
+      <c r="AR61" s="13">
+        <v>45914</v>
+      </c>
+      <c r="AS61" s="13">
+        <v>108484</v>
       </c>
       <c r="AT61" s="13">
-        <v>45914</v>
+        <v>109898</v>
       </c>
       <c r="AU61" s="13">
-        <v>108484</v>
+        <v>198552</v>
       </c>
       <c r="AV61" s="13">
-        <v>109898</v>
+        <v>190889</v>
       </c>
       <c r="AW61" s="13">
-        <v>198552</v>
+        <v>117699</v>
       </c>
       <c r="AX61" s="13">
-        <v>190889</v>
+        <v>162783</v>
       </c>
       <c r="AY61" s="13">
-        <v>117699</v>
+        <v>190653</v>
       </c>
       <c r="AZ61" s="13">
-        <v>162783</v>
+        <v>156537</v>
       </c>
       <c r="BA61" s="13">
-        <v>190653</v>
+        <v>5338</v>
       </c>
       <c r="BB61" s="13">
-        <v>156535</v>
+        <v>29780</v>
       </c>
     </row>
-    <row r="62" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B62" s="10" t="s">
         <v>67</v>
       </c>
@@ -7959,57 +7959,57 @@
       <c r="AB62" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AC62" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD62" s="11" t="s">
-        <v>58</v>
+      <c r="AC62" s="11">
+        <v>17821</v>
+      </c>
+      <c r="AD62" s="11">
+        <v>26771</v>
       </c>
       <c r="AE62" s="11">
-        <v>17821</v>
+        <v>80811</v>
       </c>
       <c r="AF62" s="11">
-        <v>26771</v>
+        <v>264001</v>
       </c>
       <c r="AG62" s="11">
-        <v>80811</v>
+        <v>159120</v>
       </c>
       <c r="AH62" s="11">
-        <v>264001</v>
+        <v>15004</v>
       </c>
       <c r="AI62" s="11">
-        <v>159120</v>
+        <v>15583</v>
       </c>
       <c r="AJ62" s="11">
-        <v>15004</v>
+        <v>49149</v>
       </c>
       <c r="AK62" s="11">
-        <v>15583</v>
+        <v>34879</v>
       </c>
       <c r="AL62" s="11">
-        <v>49149</v>
+        <v>68148</v>
       </c>
       <c r="AM62" s="11">
-        <v>34879</v>
+        <v>89735</v>
       </c>
       <c r="AN62" s="11">
-        <v>68148</v>
+        <v>88788</v>
       </c>
       <c r="AO62" s="11">
-        <v>89735</v>
+        <v>24660</v>
       </c>
       <c r="AP62" s="11">
-        <v>88788</v>
+        <v>71298</v>
       </c>
       <c r="AQ62" s="11">
-        <v>24660</v>
-      </c>
-      <c r="AR62" s="11">
-        <v>71298</v>
-      </c>
-      <c r="AS62" s="11">
         <v>52640</v>
       </c>
+      <c r="AR62" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS62" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AT62" s="11" t="s">
         <v>58</v>
       </c>
@@ -8038,7 +8038,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="63" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B63" s="14" t="s">
         <v>76</v>
       </c>
@@ -8117,85 +8117,85 @@
         <v>0</v>
       </c>
       <c r="AC63" s="15">
-        <v>0</v>
+        <v>17821</v>
       </c>
       <c r="AD63" s="15">
-        <v>0</v>
+        <v>26771</v>
       </c>
       <c r="AE63" s="15">
-        <v>17821</v>
+        <v>80811</v>
       </c>
       <c r="AF63" s="15">
-        <v>26771</v>
+        <v>264001</v>
       </c>
       <c r="AG63" s="15">
-        <v>80811</v>
+        <v>179412</v>
       </c>
       <c r="AH63" s="15">
-        <v>264001</v>
+        <v>22949</v>
       </c>
       <c r="AI63" s="15">
-        <v>179412</v>
+        <v>15583</v>
       </c>
       <c r="AJ63" s="15">
-        <v>22949</v>
+        <v>60304</v>
       </c>
       <c r="AK63" s="15">
-        <v>15583</v>
+        <v>34879</v>
       </c>
       <c r="AL63" s="15">
-        <v>60304</v>
+        <v>68148</v>
       </c>
       <c r="AM63" s="15">
-        <v>34879</v>
+        <v>89735</v>
       </c>
       <c r="AN63" s="15">
-        <v>68148</v>
+        <v>88788</v>
       </c>
       <c r="AO63" s="15">
-        <v>89735</v>
+        <v>24660</v>
       </c>
       <c r="AP63" s="15">
-        <v>88788</v>
+        <v>71298</v>
       </c>
       <c r="AQ63" s="15">
-        <v>24660</v>
+        <v>52640</v>
       </c>
       <c r="AR63" s="15">
-        <v>71298</v>
+        <v>45914</v>
       </c>
       <c r="AS63" s="15">
-        <v>52640</v>
+        <v>108484</v>
       </c>
       <c r="AT63" s="15">
-        <v>45914</v>
+        <v>142474</v>
       </c>
       <c r="AU63" s="15">
-        <v>108484</v>
+        <v>198552</v>
       </c>
       <c r="AV63" s="15">
-        <v>142474</v>
+        <v>190889</v>
       </c>
       <c r="AW63" s="15">
-        <v>198552</v>
+        <v>160421</v>
       </c>
       <c r="AX63" s="15">
-        <v>190889</v>
+        <v>192761</v>
       </c>
       <c r="AY63" s="15">
-        <v>160421</v>
+        <v>190653</v>
       </c>
       <c r="AZ63" s="15">
-        <v>192761</v>
+        <v>156537</v>
       </c>
       <c r="BA63" s="15">
-        <v>190653</v>
+        <v>5338</v>
       </c>
       <c r="BB63" s="15">
-        <v>156535</v>
+        <v>29780</v>
       </c>
     </row>
-    <row r="64" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B64" s="16" t="s">
         <v>83</v>
       </c>
@@ -8252,7 +8252,7 @@
       <c r="BA64" s="17"/>
       <c r="BB64" s="17"/>
     </row>
-    <row r="65" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B65" s="18" t="s">
         <v>70</v>
       </c>
@@ -8332,11 +8332,11 @@
       <c r="AB65" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="AC65" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD65" s="19" t="s">
-        <v>58</v>
+      <c r="AC65" s="19">
+        <v>0</v>
+      </c>
+      <c r="AD65" s="19">
+        <v>0</v>
       </c>
       <c r="AE65" s="19">
         <v>0</v>
@@ -8411,7 +8411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B66" s="16" t="s">
         <v>84</v>
       </c>
@@ -8468,7 +8468,7 @@
       <c r="BA66" s="17"/>
       <c r="BB66" s="17"/>
     </row>
-    <row r="67" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B67" s="18" t="s">
         <v>78</v>
       </c>
@@ -8548,11 +8548,11 @@
       <c r="AB67" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="AC67" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD67" s="19" t="s">
-        <v>58</v>
+      <c r="AC67" s="19">
+        <v>0</v>
+      </c>
+      <c r="AD67" s="19">
+        <v>0</v>
       </c>
       <c r="AE67" s="19">
         <v>0</v>
@@ -8627,7 +8627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B68" s="8" t="s">
         <v>85</v>
       </c>
@@ -8684,7 +8684,7 @@
       <c r="BA68" s="9"/>
       <c r="BB68" s="9"/>
     </row>
-    <row r="69" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B69" s="10" t="s">
         <v>86</v>
       </c>
@@ -8764,11 +8764,11 @@
       <c r="AB69" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AC69" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD69" s="11" t="s">
-        <v>58</v>
+      <c r="AC69" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD69" s="11">
+        <v>0</v>
       </c>
       <c r="AE69" s="11">
         <v>0</v>
@@ -8843,7 +8843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B70" s="14" t="s">
         <v>71</v>
       </c>
@@ -8922,85 +8922,85 @@
         <v>0</v>
       </c>
       <c r="AC70" s="15">
-        <v>0</v>
+        <v>472461</v>
       </c>
       <c r="AD70" s="15">
-        <v>0</v>
+        <v>583855</v>
       </c>
       <c r="AE70" s="15">
-        <v>472461</v>
+        <v>670719</v>
       </c>
       <c r="AF70" s="15">
-        <v>583855</v>
+        <v>679881</v>
       </c>
       <c r="AG70" s="15">
-        <v>670719</v>
+        <v>864394</v>
       </c>
       <c r="AH70" s="15">
-        <v>679881</v>
+        <v>792947</v>
       </c>
       <c r="AI70" s="15">
-        <v>864394</v>
+        <v>465920</v>
       </c>
       <c r="AJ70" s="15">
-        <v>792947</v>
+        <v>709956</v>
       </c>
       <c r="AK70" s="15">
-        <v>465920</v>
+        <v>1085485</v>
       </c>
       <c r="AL70" s="15">
-        <v>709956</v>
+        <v>767531</v>
       </c>
       <c r="AM70" s="15">
-        <v>1085485</v>
+        <v>819485</v>
       </c>
       <c r="AN70" s="15">
-        <v>767531</v>
+        <v>999653</v>
       </c>
       <c r="AO70" s="15">
-        <v>819485</v>
+        <v>768937</v>
       </c>
       <c r="AP70" s="15">
-        <v>999653</v>
+        <v>896767</v>
       </c>
       <c r="AQ70" s="15">
-        <v>768937</v>
+        <v>966991</v>
       </c>
       <c r="AR70" s="15">
-        <v>896767</v>
+        <v>756644</v>
       </c>
       <c r="AS70" s="15">
-        <v>966991</v>
+        <v>1048878</v>
       </c>
       <c r="AT70" s="15">
-        <v>756644</v>
+        <v>1208313</v>
       </c>
       <c r="AU70" s="15">
-        <v>1048878</v>
+        <v>1436114</v>
       </c>
       <c r="AV70" s="15">
-        <v>1208313</v>
+        <v>1330576</v>
       </c>
       <c r="AW70" s="15">
-        <v>1436114</v>
+        <v>1483817</v>
       </c>
       <c r="AX70" s="15">
-        <v>1330576</v>
+        <v>1452529</v>
       </c>
       <c r="AY70" s="15">
-        <v>1483817</v>
+        <v>1346510</v>
       </c>
       <c r="AZ70" s="15">
-        <v>1452529</v>
+        <v>1389539</v>
       </c>
       <c r="BA70" s="15">
-        <v>1346510</v>
+        <v>1055950</v>
       </c>
       <c r="BB70" s="15">
-        <v>1389536</v>
+        <v>1054825</v>
       </c>
     </row>
-    <row r="71" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
@@ -9055,7 +9055,7 @@
       <c r="BA71" s="1"/>
       <c r="BB71" s="1"/>
     </row>
-    <row r="72" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -9110,7 +9110,7 @@
       <c r="BA72" s="1"/>
       <c r="BB72" s="1"/>
     </row>
-    <row r="73" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -9165,7 +9165,7 @@
       <c r="BA73" s="1"/>
       <c r="BB73" s="1"/>
     </row>
-    <row r="74" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B74" s="7" t="s">
         <v>87</v>
       </c>
@@ -9322,7 +9322,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="75" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
@@ -9377,7 +9377,7 @@
       <c r="BA75" s="1"/>
       <c r="BB75" s="1"/>
     </row>
-    <row r="76" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B76" s="8" t="s">
         <v>88</v>
       </c>
@@ -9434,7 +9434,7 @@
       <c r="BA76" s="9"/>
       <c r="BB76" s="9"/>
     </row>
-    <row r="77" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B77" s="10" t="s">
         <v>56</v>
       </c>
@@ -9514,57 +9514,57 @@
       <c r="AB77" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AC77" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD77" s="11" t="s">
-        <v>58</v>
+      <c r="AC77" s="11">
+        <v>2221835</v>
+      </c>
+      <c r="AD77" s="11">
+        <v>2208986</v>
       </c>
       <c r="AE77" s="11">
-        <v>2221835</v>
+        <v>2207828</v>
       </c>
       <c r="AF77" s="11">
-        <v>2208986</v>
+        <v>2204525</v>
       </c>
       <c r="AG77" s="11">
-        <v>2207828</v>
+        <v>3075767</v>
       </c>
       <c r="AH77" s="11">
-        <v>2204525</v>
+        <v>3076712</v>
       </c>
       <c r="AI77" s="11">
-        <v>3075767</v>
+        <v>3277570</v>
       </c>
       <c r="AJ77" s="11">
-        <v>3076712</v>
+        <v>5558858</v>
       </c>
       <c r="AK77" s="11">
-        <v>3277570</v>
+        <v>5722029</v>
       </c>
       <c r="AL77" s="11">
-        <v>5558858</v>
+        <v>4204776</v>
       </c>
       <c r="AM77" s="11">
-        <v>5722029</v>
+        <v>3880415</v>
       </c>
       <c r="AN77" s="11">
-        <v>4204776</v>
+        <v>5031755</v>
       </c>
       <c r="AO77" s="11">
-        <v>3880415</v>
+        <v>4708164</v>
       </c>
       <c r="AP77" s="11">
-        <v>5031755</v>
+        <v>5191662</v>
       </c>
       <c r="AQ77" s="11">
-        <v>4708164</v>
-      </c>
-      <c r="AR77" s="11">
-        <v>5191662</v>
-      </c>
-      <c r="AS77" s="11">
         <v>5269801</v>
       </c>
+      <c r="AR77" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS77" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AT77" s="11" t="s">
         <v>58</v>
       </c>
@@ -9593,7 +9593,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="78" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B78" s="12" t="s">
         <v>59</v>
       </c>
@@ -9673,57 +9673,57 @@
       <c r="AB78" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AC78" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD78" s="13" t="s">
-        <v>58</v>
+      <c r="AC78" s="13">
+        <v>3104671</v>
+      </c>
+      <c r="AD78" s="13">
+        <v>3102698</v>
       </c>
       <c r="AE78" s="13">
-        <v>3104671</v>
+        <v>3105466</v>
       </c>
       <c r="AF78" s="13">
-        <v>3102698</v>
+        <v>3097145</v>
       </c>
       <c r="AG78" s="13">
-        <v>3105466</v>
+        <v>4282230</v>
       </c>
       <c r="AH78" s="13">
-        <v>3097145</v>
+        <v>4312635</v>
       </c>
       <c r="AI78" s="13">
-        <v>4282230</v>
+        <v>4438889</v>
       </c>
       <c r="AJ78" s="13">
-        <v>4312635</v>
+        <v>5472213</v>
       </c>
       <c r="AK78" s="13">
-        <v>4438889</v>
+        <v>6946846</v>
       </c>
       <c r="AL78" s="13">
-        <v>5472213</v>
+        <v>5591728</v>
       </c>
       <c r="AM78" s="13">
-        <v>6946846</v>
+        <v>5273899</v>
       </c>
       <c r="AN78" s="13">
-        <v>5591728</v>
+        <v>6152484</v>
       </c>
       <c r="AO78" s="13">
-        <v>5273899</v>
+        <v>5849723</v>
       </c>
       <c r="AP78" s="13">
-        <v>6152484</v>
+        <v>5877016</v>
       </c>
       <c r="AQ78" s="13">
-        <v>5849723</v>
-      </c>
-      <c r="AR78" s="13">
-        <v>5877016</v>
-      </c>
-      <c r="AS78" s="13">
         <v>6052476</v>
       </c>
+      <c r="AR78" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS78" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AT78" s="13" t="s">
         <v>58</v>
       </c>
@@ -9752,7 +9752,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="79" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B79" s="10" t="s">
         <v>60</v>
       </c>
@@ -9877,41 +9877,41 @@
       <c r="AQ79" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR79" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS79" s="11" t="s">
-        <v>58</v>
+      <c r="AR79" s="11">
+        <v>4737350</v>
+      </c>
+      <c r="AS79" s="11">
+        <v>4700465</v>
       </c>
       <c r="AT79" s="11">
-        <v>4737350</v>
+        <v>6031692</v>
       </c>
       <c r="AU79" s="11">
-        <v>4700465</v>
+        <v>7881522</v>
       </c>
       <c r="AV79" s="11">
-        <v>6031692</v>
+        <v>7144779</v>
       </c>
       <c r="AW79" s="11">
-        <v>7881522</v>
+        <v>7057589</v>
       </c>
       <c r="AX79" s="11">
-        <v>7144779</v>
+        <v>6902147</v>
       </c>
       <c r="AY79" s="11">
-        <v>7057589</v>
+        <v>6871438</v>
       </c>
       <c r="AZ79" s="11">
-        <v>6902147</v>
+        <v>6802753</v>
       </c>
       <c r="BA79" s="11">
-        <v>6871438</v>
+        <v>6370231</v>
       </c>
       <c r="BB79" s="11">
-        <v>6802727</v>
+        <v>6547212</v>
       </c>
     </row>
-    <row r="80" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B80" s="12" t="s">
         <v>61</v>
       </c>
@@ -10036,41 +10036,41 @@
       <c r="AQ80" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR80" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS80" s="13" t="s">
-        <v>58</v>
+      <c r="AR80" s="13">
+        <v>5883331</v>
+      </c>
+      <c r="AS80" s="13">
+        <v>6002506</v>
       </c>
       <c r="AT80" s="13">
-        <v>5883331</v>
+        <v>7125536</v>
       </c>
       <c r="AU80" s="13">
-        <v>6002506</v>
+        <v>8255811</v>
       </c>
       <c r="AV80" s="13">
-        <v>7125536</v>
+        <v>7599093</v>
       </c>
       <c r="AW80" s="13">
-        <v>8255811</v>
+        <v>7240440</v>
       </c>
       <c r="AX80" s="13">
-        <v>7599093</v>
+        <v>7315112</v>
       </c>
       <c r="AY80" s="13">
-        <v>7240440</v>
+        <v>7186385</v>
       </c>
       <c r="AZ80" s="13">
-        <v>7315112</v>
+        <v>7021705</v>
       </c>
       <c r="BA80" s="13">
-        <v>7186385</v>
+        <v>7103057</v>
       </c>
       <c r="BB80" s="13">
-        <v>7021715</v>
+        <v>7444853</v>
       </c>
     </row>
-    <row r="81" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B81" s="8" t="s">
         <v>90</v>
       </c>
@@ -10127,7 +10127,7 @@
       <c r="BA81" s="9"/>
       <c r="BB81" s="9"/>
     </row>
-    <row r="82" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B82" s="10" t="s">
         <v>65</v>
       </c>
@@ -10219,23 +10219,23 @@
       <c r="AF82" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AG82" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AH82" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI82" s="11">
+      <c r="AG82" s="11">
         <v>4152241</v>
       </c>
+      <c r="AH82" s="11">
+        <v>4155335</v>
+      </c>
+      <c r="AI82" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AJ82" s="11">
-        <v>4155335</v>
+        <v>5088960</v>
       </c>
       <c r="AK82" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AL82" s="11">
-        <v>5088960</v>
+      <c r="AL82" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AM82" s="11" t="s">
         <v>58</v>
@@ -10258,27 +10258,27 @@
       <c r="AS82" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AT82" s="11" t="s">
-        <v>58</v>
+      <c r="AT82" s="11">
+        <v>8144000</v>
       </c>
       <c r="AU82" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AV82" s="11">
-        <v>8144000</v>
-      </c>
-      <c r="AW82" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX82" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AY82" s="11">
+      <c r="AV82" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AW82" s="11">
         <v>7767636</v>
       </c>
-      <c r="AZ82" s="11">
+      <c r="AX82" s="11">
         <v>7686667</v>
       </c>
+      <c r="AY82" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ82" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="BA82" s="11" t="s">
         <v>58</v>
       </c>
@@ -10286,7 +10286,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="83" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B83" s="12" t="s">
         <v>66</v>
       </c>
@@ -10411,41 +10411,41 @@
       <c r="AQ83" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR83" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS83" s="13" t="s">
-        <v>58</v>
+      <c r="AR83" s="13">
+        <v>7964267</v>
+      </c>
+      <c r="AS83" s="13">
+        <v>8386857</v>
       </c>
       <c r="AT83" s="13">
-        <v>7964267</v>
+        <v>8770790</v>
       </c>
       <c r="AU83" s="13">
-        <v>8386857</v>
+        <v>9512384</v>
       </c>
       <c r="AV83" s="13">
-        <v>8770790</v>
+        <v>9355011</v>
       </c>
       <c r="AW83" s="13">
-        <v>9512384</v>
+        <v>9593202</v>
       </c>
       <c r="AX83" s="13">
-        <v>9355011</v>
+        <v>9667023</v>
       </c>
       <c r="AY83" s="13">
-        <v>9593202</v>
+        <v>9635606</v>
       </c>
       <c r="AZ83" s="13">
-        <v>9667023</v>
+        <v>9546452</v>
       </c>
       <c r="BA83" s="13">
-        <v>9635606</v>
+        <v>10641946</v>
       </c>
       <c r="BB83" s="13">
-        <v>9546331</v>
+        <v>9926667</v>
       </c>
     </row>
-    <row r="84" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B84" s="10" t="s">
         <v>67</v>
       </c>
@@ -10525,56 +10525,56 @@
       <c r="AB84" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AC84" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD84" s="11" t="s">
-        <v>58</v>
+      <c r="AC84" s="11">
+        <v>5704545</v>
+      </c>
+      <c r="AD84" s="11">
+        <v>5563383</v>
       </c>
       <c r="AE84" s="11">
-        <v>5704545</v>
+        <v>5570867</v>
       </c>
       <c r="AF84" s="11">
-        <v>5563383</v>
+        <v>5500479</v>
       </c>
       <c r="AG84" s="11">
-        <v>5570867</v>
+        <v>6330615</v>
       </c>
       <c r="AH84" s="11">
-        <v>5500479</v>
+        <v>6169408</v>
       </c>
       <c r="AI84" s="11">
-        <v>6330615</v>
+        <v>6208367</v>
       </c>
       <c r="AJ84" s="11">
-        <v>6169408</v>
+        <v>8651470</v>
       </c>
       <c r="AK84" s="11">
-        <v>6208367</v>
+        <v>8552967</v>
       </c>
       <c r="AL84" s="11">
-        <v>8651470</v>
+        <v>8361718</v>
       </c>
       <c r="AM84" s="11">
-        <v>8552967</v>
+        <v>8191985</v>
       </c>
       <c r="AN84" s="11">
-        <v>8361718</v>
+        <v>8016975</v>
       </c>
       <c r="AO84" s="11">
-        <v>8191985</v>
+        <v>8111842</v>
       </c>
       <c r="AP84" s="11">
-        <v>8016975</v>
+        <v>7761594</v>
       </c>
       <c r="AQ84" s="11">
-        <v>8111842</v>
-      </c>
-      <c r="AR84" s="11">
-        <v>7761594</v>
-      </c>
-      <c r="AS84" s="11">
         <v>7782377</v>
+      </c>
+      <c r="AR84" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS84" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AT84" s="11" t="s">
         <v>58</v>

--- a/database/industries/siman/semazen/product/monthly_seprated.xlsx
+++ b/database/industries/siman/semazen/product/monthly_seprated.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1583" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1562" uniqueCount="91">
   <si>
     <t xml:space="preserve">Pouya Finance</t>
   </si>
@@ -81,7 +81,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -100,7 +100,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1397/11</t>
+      <t xml:space="preserve">1397/12</t>
     </r>
   </si>
   <si>
@@ -121,7 +121,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -140,7 +140,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1397/12</t>
+      <t xml:space="preserve">1398/01</t>
     </r>
   </si>
   <si>
@@ -161,7 +161,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -180,7 +180,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/01</t>
+      <t xml:space="preserve">1398/02</t>
     </r>
   </si>
   <si>
@@ -201,7 +201,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -220,7 +220,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/02</t>
+      <t xml:space="preserve">1398/03</t>
     </r>
   </si>
   <si>
@@ -241,7 +241,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -260,7 +260,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/03</t>
+      <t xml:space="preserve">1398/04</t>
     </r>
   </si>
   <si>
@@ -281,7 +281,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -300,7 +300,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/04</t>
+      <t xml:space="preserve">1398/05</t>
     </r>
   </si>
   <si>
@@ -321,7 +321,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -340,7 +340,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/05</t>
+      <t xml:space="preserve">1398/06</t>
     </r>
   </si>
   <si>
@@ -361,7 +361,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -380,7 +380,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/06</t>
+      <t xml:space="preserve">1398/07</t>
     </r>
   </si>
   <si>
@@ -401,7 +401,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -420,7 +420,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/07</t>
+      <t xml:space="preserve">1398/08</t>
     </r>
   </si>
   <si>
@@ -441,7 +441,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -460,7 +460,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/08</t>
+      <t xml:space="preserve">1398/09</t>
     </r>
   </si>
   <si>
@@ -481,7 +481,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -500,7 +500,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/09</t>
+      <t xml:space="preserve">1398/10</t>
     </r>
   </si>
   <si>
@@ -521,7 +521,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -540,7 +540,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/10</t>
+      <t xml:space="preserve">1398/11</t>
     </r>
   </si>
   <si>
@@ -561,7 +561,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -580,7 +580,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/11</t>
+      <t xml:space="preserve">1398/12</t>
     </r>
   </si>
   <si>
@@ -601,7 +601,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -620,7 +620,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/12</t>
+      <t xml:space="preserve">1399/01</t>
     </r>
   </si>
   <si>
@@ -641,7 +641,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -660,7 +660,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/01</t>
+      <t xml:space="preserve">1399/02</t>
     </r>
   </si>
   <si>
@@ -681,7 +681,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -700,7 +700,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/02</t>
+      <t xml:space="preserve">1399/03</t>
     </r>
   </si>
   <si>
@@ -721,7 +721,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -740,7 +740,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/03</t>
+      <t xml:space="preserve">1399/04</t>
     </r>
   </si>
   <si>
@@ -761,7 +761,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -780,7 +780,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/04</t>
+      <t xml:space="preserve">1399/05</t>
     </r>
   </si>
   <si>
@@ -801,7 +801,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -820,7 +820,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/05</t>
+      <t xml:space="preserve">1399/06</t>
     </r>
   </si>
   <si>
@@ -841,7 +841,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -860,7 +860,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/06</t>
+      <t xml:space="preserve">1399/07</t>
     </r>
   </si>
   <si>
@@ -881,7 +881,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -900,7 +900,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/07</t>
+      <t xml:space="preserve">1399/08</t>
     </r>
   </si>
   <si>
@@ -921,7 +921,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -940,7 +940,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/08</t>
+      <t xml:space="preserve">1399/09</t>
     </r>
   </si>
   <si>
@@ -961,7 +961,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -980,7 +980,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/09</t>
+      <t xml:space="preserve">1399/10</t>
     </r>
   </si>
   <si>
@@ -1001,7 +1001,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -1020,7 +1020,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/10</t>
+      <t xml:space="preserve">1399/11</t>
     </r>
   </si>
   <si>
@@ -1041,7 +1041,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -1060,7 +1060,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/11</t>
+      <t xml:space="preserve">1399/12</t>
     </r>
   </si>
   <si>
@@ -1081,7 +1081,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -1100,7 +1100,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/12</t>
+      <t xml:space="preserve">1400/01</t>
     </r>
   </si>
   <si>
@@ -1121,7 +1121,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -1140,7 +1140,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/01</t>
+      <t xml:space="preserve">1400/02</t>
     </r>
   </si>
   <si>
@@ -1161,7 +1161,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -1180,7 +1180,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/02</t>
+      <t xml:space="preserve">1400/03</t>
     </r>
   </si>
   <si>
@@ -1201,7 +1201,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -1220,7 +1220,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/03</t>
+      <t xml:space="preserve">1400/04</t>
     </r>
   </si>
   <si>
@@ -1241,7 +1241,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -1260,7 +1260,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/04</t>
+      <t xml:space="preserve">1400/05</t>
     </r>
   </si>
   <si>
@@ -1281,7 +1281,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -1300,7 +1300,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/05</t>
+      <t xml:space="preserve">1400/06</t>
     </r>
   </si>
   <si>
@@ -1321,7 +1321,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -1340,7 +1340,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/06</t>
+      <t xml:space="preserve">1400/07</t>
     </r>
   </si>
   <si>
@@ -1361,7 +1361,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1380,7 +1380,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/07</t>
+      <t xml:space="preserve">1400/08</t>
     </r>
   </si>
   <si>
@@ -1401,7 +1401,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -1420,7 +1420,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/08</t>
+      <t xml:space="preserve">1400/09</t>
     </r>
   </si>
   <si>
@@ -1441,7 +1441,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -1460,7 +1460,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/09</t>
+      <t xml:space="preserve">1400/10</t>
     </r>
   </si>
   <si>
@@ -1481,7 +1481,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -1500,7 +1500,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/10</t>
+      <t xml:space="preserve">1400/11</t>
     </r>
   </si>
   <si>
@@ -1521,7 +1521,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -1540,7 +1540,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/11</t>
+      <t xml:space="preserve">1400/12</t>
     </r>
   </si>
   <si>
@@ -1561,7 +1561,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -1580,7 +1580,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/12</t>
+      <t xml:space="preserve">1401/01</t>
     </r>
   </si>
   <si>
@@ -1601,7 +1601,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -1620,7 +1620,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/01</t>
+      <t xml:space="preserve">1401/02</t>
     </r>
   </si>
   <si>
@@ -1641,7 +1641,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -1660,7 +1660,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/02</t>
+      <t xml:space="preserve">1401/03</t>
     </r>
   </si>
   <si>
@@ -1681,7 +1681,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -1700,7 +1700,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/03</t>
+      <t xml:space="preserve">1401/04</t>
     </r>
   </si>
   <si>
@@ -1721,7 +1721,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -1740,7 +1740,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/04</t>
+      <t xml:space="preserve">1401/05</t>
     </r>
   </si>
   <si>
@@ -1761,7 +1761,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -1780,7 +1780,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/05</t>
+      <t xml:space="preserve">1401/06</t>
     </r>
   </si>
   <si>
@@ -1801,7 +1801,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -1820,7 +1820,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/06</t>
+      <t xml:space="preserve">1401/07</t>
     </r>
   </si>
   <si>
@@ -1841,7 +1841,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1860,7 +1860,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/07</t>
+      <t xml:space="preserve">1401/08</t>
     </r>
   </si>
   <si>
@@ -1881,7 +1881,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -1900,7 +1900,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/08</t>
+      <t xml:space="preserve">1401/09</t>
     </r>
   </si>
   <si>
@@ -1921,7 +1921,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -1940,7 +1940,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/09</t>
+      <t xml:space="preserve">1401/10</t>
     </r>
   </si>
   <si>
@@ -1961,7 +1961,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -1980,7 +1980,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/10</t>
+      <t xml:space="preserve">1401/11</t>
     </r>
   </si>
   <si>
@@ -2001,7 +2001,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -2020,7 +2020,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/11</t>
+      <t xml:space="preserve">1401/12</t>
     </r>
   </si>
   <si>
@@ -2041,7 +2041,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -2060,7 +2060,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/12</t>
+      <t xml:space="preserve">1402/01</t>
     </r>
   </si>
   <si>
@@ -3323,53 +3323,53 @@
       <c r="Z11" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AA11" s="13" t="s">
-        <v>58</v>
+      <c r="AA11" s="13" t="n">
+        <v>90300</v>
       </c>
       <c r="AB11" s="13" t="n">
-        <v>90300</v>
+        <v>109292</v>
       </c>
       <c r="AC11" s="13" t="n">
-        <v>109292</v>
+        <v>114851</v>
       </c>
       <c r="AD11" s="13" t="n">
-        <v>114851</v>
+        <v>103044</v>
       </c>
       <c r="AE11" s="13" t="n">
-        <v>103044</v>
+        <v>112753</v>
       </c>
       <c r="AF11" s="13" t="n">
-        <v>112753</v>
+        <v>101486</v>
       </c>
       <c r="AG11" s="13" t="n">
-        <v>101486</v>
+        <v>74042</v>
       </c>
       <c r="AH11" s="13" t="n">
-        <v>74042</v>
+        <v>50045</v>
       </c>
       <c r="AI11" s="13" t="n">
-        <v>50045</v>
+        <v>103027</v>
       </c>
       <c r="AJ11" s="13" t="n">
-        <v>103027</v>
+        <v>74815</v>
       </c>
       <c r="AK11" s="13" t="n">
-        <v>74815</v>
+        <v>75623</v>
       </c>
       <c r="AL11" s="13" t="n">
-        <v>75623</v>
+        <v>80101</v>
       </c>
       <c r="AM11" s="13" t="n">
-        <v>80101</v>
+        <v>72874</v>
       </c>
       <c r="AN11" s="13" t="n">
-        <v>72874</v>
+        <v>75685</v>
       </c>
       <c r="AO11" s="13" t="n">
-        <v>75685</v>
-      </c>
-      <c r="AP11" s="13" t="n">
         <v>79060</v>
+      </c>
+      <c r="AP11" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AQ11" s="13" t="s">
         <v>58</v>
@@ -3482,53 +3482,53 @@
       <c r="Z12" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AA12" s="16" t="s">
-        <v>58</v>
+      <c r="AA12" s="16" t="n">
+        <v>83686</v>
       </c>
       <c r="AB12" s="16" t="n">
-        <v>83686</v>
+        <v>95299</v>
       </c>
       <c r="AC12" s="16" t="n">
-        <v>95299</v>
+        <v>103899</v>
       </c>
       <c r="AD12" s="16" t="n">
-        <v>103899</v>
+        <v>73138</v>
       </c>
       <c r="AE12" s="16" t="n">
-        <v>73138</v>
+        <v>85540</v>
       </c>
       <c r="AF12" s="16" t="n">
-        <v>85540</v>
+        <v>88404</v>
       </c>
       <c r="AG12" s="16" t="n">
-        <v>88404</v>
+        <v>57942</v>
       </c>
       <c r="AH12" s="16" t="n">
-        <v>57942</v>
+        <v>50935</v>
       </c>
       <c r="AI12" s="16" t="n">
-        <v>50935</v>
+        <v>73980</v>
       </c>
       <c r="AJ12" s="16" t="n">
-        <v>73980</v>
+        <v>71950</v>
       </c>
       <c r="AK12" s="16" t="n">
-        <v>71950</v>
+        <v>77849</v>
       </c>
       <c r="AL12" s="16" t="n">
-        <v>77849</v>
+        <v>88574</v>
       </c>
       <c r="AM12" s="16" t="n">
-        <v>88574</v>
+        <v>73342</v>
       </c>
       <c r="AN12" s="16" t="n">
-        <v>73342</v>
+        <v>76170</v>
       </c>
       <c r="AO12" s="16" t="n">
-        <v>76170</v>
-      </c>
-      <c r="AP12" s="16" t="n">
         <v>84686</v>
+      </c>
+      <c r="AP12" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AQ12" s="16" t="s">
         <v>58</v>
@@ -3686,44 +3686,44 @@
       <c r="AO13" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AP13" s="13" t="s">
-        <v>58</v>
+      <c r="AP13" s="13" t="n">
+        <v>58313</v>
       </c>
       <c r="AQ13" s="13" t="n">
-        <v>58313</v>
+        <v>87370</v>
       </c>
       <c r="AR13" s="13" t="n">
-        <v>87370</v>
+        <v>67637</v>
       </c>
       <c r="AS13" s="13" t="n">
-        <v>67637</v>
+        <v>83560</v>
       </c>
       <c r="AT13" s="13" t="n">
-        <v>83560</v>
+        <v>84944</v>
       </c>
       <c r="AU13" s="13" t="n">
-        <v>84944</v>
+        <v>83014</v>
       </c>
       <c r="AV13" s="13" t="n">
-        <v>83014</v>
+        <v>70044</v>
       </c>
       <c r="AW13" s="13" t="n">
-        <v>70044</v>
+        <v>80984</v>
       </c>
       <c r="AX13" s="13" t="n">
-        <v>80984</v>
+        <v>72890</v>
       </c>
       <c r="AY13" s="13" t="n">
-        <v>72890</v>
+        <v>67144</v>
       </c>
       <c r="AZ13" s="13" t="n">
-        <v>67144</v>
+        <v>77170</v>
       </c>
       <c r="BA13" s="13" t="n">
-        <v>77170</v>
+        <v>67639</v>
       </c>
       <c r="BB13" s="13" t="n">
-        <v>67639</v>
+        <v>85912</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3845,44 +3845,44 @@
       <c r="AO14" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AP14" s="16" t="s">
-        <v>58</v>
+      <c r="AP14" s="16" t="n">
+        <v>73346</v>
       </c>
       <c r="AQ14" s="16" t="n">
-        <v>73346</v>
+        <v>93815</v>
       </c>
       <c r="AR14" s="16" t="n">
-        <v>93815</v>
+        <v>66563</v>
       </c>
       <c r="AS14" s="16" t="n">
-        <v>66563</v>
+        <v>75086</v>
       </c>
       <c r="AT14" s="16" t="n">
-        <v>75086</v>
+        <v>86238</v>
       </c>
       <c r="AU14" s="16" t="n">
-        <v>86238</v>
+        <v>94969</v>
       </c>
       <c r="AV14" s="16" t="n">
-        <v>94969</v>
+        <v>102885</v>
       </c>
       <c r="AW14" s="16" t="n">
-        <v>102885</v>
+        <v>91383</v>
       </c>
       <c r="AX14" s="16" t="n">
-        <v>91383</v>
+        <v>97245</v>
       </c>
       <c r="AY14" s="16" t="n">
-        <v>97245</v>
+        <v>74061</v>
       </c>
       <c r="AZ14" s="16" t="n">
-        <v>74061</v>
+        <v>68983</v>
       </c>
       <c r="BA14" s="16" t="n">
-        <v>68983</v>
+        <v>71040</v>
       </c>
       <c r="BB14" s="16" t="n">
-        <v>71040</v>
+        <v>69637</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4117,88 +4117,88 @@
         <v>0</v>
       </c>
       <c r="AA16" s="18" t="n">
-        <v>0</v>
+        <v>173986</v>
       </c>
       <c r="AB16" s="18" t="n">
-        <v>173986</v>
+        <v>204591</v>
       </c>
       <c r="AC16" s="18" t="n">
-        <v>204591</v>
+        <v>218750</v>
       </c>
       <c r="AD16" s="18" t="n">
-        <v>218750</v>
+        <v>176182</v>
       </c>
       <c r="AE16" s="18" t="n">
-        <v>176182</v>
+        <v>198293</v>
       </c>
       <c r="AF16" s="18" t="n">
-        <v>198293</v>
+        <v>189890</v>
       </c>
       <c r="AG16" s="18" t="n">
-        <v>189890</v>
+        <v>131984</v>
       </c>
       <c r="AH16" s="18" t="n">
-        <v>131984</v>
+        <v>100980</v>
       </c>
       <c r="AI16" s="18" t="n">
-        <v>100980</v>
+        <v>177007</v>
       </c>
       <c r="AJ16" s="18" t="n">
-        <v>177007</v>
+        <v>146765</v>
       </c>
       <c r="AK16" s="18" t="n">
-        <v>146765</v>
+        <v>153472</v>
       </c>
       <c r="AL16" s="18" t="n">
-        <v>153472</v>
+        <v>168675</v>
       </c>
       <c r="AM16" s="18" t="n">
-        <v>168675</v>
+        <v>146216</v>
       </c>
       <c r="AN16" s="18" t="n">
-        <v>146216</v>
+        <v>151855</v>
       </c>
       <c r="AO16" s="18" t="n">
-        <v>151855</v>
+        <v>163746</v>
       </c>
       <c r="AP16" s="18" t="n">
-        <v>163746</v>
+        <v>131659</v>
       </c>
       <c r="AQ16" s="18" t="n">
-        <v>131659</v>
+        <v>181185</v>
       </c>
       <c r="AR16" s="18" t="n">
-        <v>181185</v>
+        <v>134200</v>
       </c>
       <c r="AS16" s="18" t="n">
-        <v>134200</v>
+        <v>158646</v>
       </c>
       <c r="AT16" s="18" t="n">
-        <v>158646</v>
+        <v>171182</v>
       </c>
       <c r="AU16" s="18" t="n">
-        <v>171182</v>
+        <v>177983</v>
       </c>
       <c r="AV16" s="18" t="n">
-        <v>177983</v>
+        <v>172928</v>
       </c>
       <c r="AW16" s="18" t="n">
-        <v>172928</v>
+        <v>172366</v>
       </c>
       <c r="AX16" s="18" t="n">
-        <v>172366</v>
+        <v>170135</v>
       </c>
       <c r="AY16" s="18" t="n">
-        <v>170135</v>
+        <v>141205</v>
       </c>
       <c r="AZ16" s="18" t="n">
-        <v>141205</v>
+        <v>146153</v>
       </c>
       <c r="BA16" s="18" t="n">
-        <v>146153</v>
+        <v>138679</v>
       </c>
       <c r="BB16" s="18" t="n">
-        <v>138679</v>
+        <v>155549</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4332,89 +4332,89 @@
       <c r="Z18" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AA18" s="13" t="s">
-        <v>58</v>
+      <c r="AA18" s="13" t="n">
+        <v>78840</v>
       </c>
       <c r="AB18" s="13" t="n">
-        <v>78840</v>
+        <v>109700</v>
       </c>
       <c r="AC18" s="13" t="n">
-        <v>109700</v>
+        <v>220450</v>
       </c>
       <c r="AD18" s="13" t="n">
-        <v>220450</v>
+        <v>227560</v>
       </c>
       <c r="AE18" s="13" t="n">
-        <v>227560</v>
+        <v>211440</v>
       </c>
       <c r="AF18" s="13" t="n">
-        <v>211440</v>
+        <v>149740</v>
       </c>
       <c r="AG18" s="13" t="n">
-        <v>149740</v>
+        <v>84760</v>
       </c>
       <c r="AH18" s="13" t="n">
-        <v>84760</v>
+        <v>96900</v>
       </c>
       <c r="AI18" s="13" t="n">
-        <v>96900</v>
+        <v>132730</v>
       </c>
       <c r="AJ18" s="13" t="n">
-        <v>132730</v>
+        <v>214160</v>
       </c>
       <c r="AK18" s="13" t="n">
-        <v>214160</v>
+        <v>218350</v>
       </c>
       <c r="AL18" s="13" t="n">
-        <v>218350</v>
+        <v>166550</v>
       </c>
       <c r="AM18" s="13" t="n">
-        <v>166550</v>
+        <v>168620</v>
       </c>
       <c r="AN18" s="13" t="n">
-        <v>168620</v>
+        <v>114940</v>
       </c>
       <c r="AO18" s="13" t="n">
-        <v>114940</v>
+        <v>213490</v>
       </c>
       <c r="AP18" s="13" t="n">
-        <v>213490</v>
+        <v>191470</v>
       </c>
       <c r="AQ18" s="13" t="n">
-        <v>191470</v>
+        <v>226080</v>
       </c>
       <c r="AR18" s="13" t="n">
-        <v>226080</v>
+        <v>219950</v>
       </c>
       <c r="AS18" s="13" t="n">
-        <v>219950</v>
+        <v>122390</v>
       </c>
       <c r="AT18" s="13" t="n">
-        <v>122390</v>
+        <v>103130</v>
       </c>
       <c r="AU18" s="13" t="n">
-        <v>103130</v>
+        <v>117210</v>
       </c>
       <c r="AV18" s="13" t="n">
-        <v>117210</v>
+        <v>218140</v>
       </c>
       <c r="AW18" s="13" t="n">
-        <v>218140</v>
+        <v>210040</v>
       </c>
       <c r="AX18" s="13" t="n">
-        <v>210040</v>
+        <v>208060</v>
       </c>
       <c r="AY18" s="13" t="n">
-        <v>208060</v>
+        <v>121180</v>
       </c>
       <c r="AZ18" s="13" t="n">
-        <v>121180</v>
+        <v>0</v>
       </c>
       <c r="BA18" s="13" t="n">
-        <v>0</v>
+        <v>138345</v>
       </c>
       <c r="BB18" s="13" t="n">
-        <v>138345</v>
+        <v>227175</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4536,44 +4536,44 @@
       <c r="AO19" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AP19" s="16" t="s">
-        <v>58</v>
+      <c r="AP19" s="16" t="n">
+        <v>5741</v>
       </c>
       <c r="AQ19" s="16" t="n">
-        <v>5741</v>
+        <v>13395</v>
       </c>
       <c r="AR19" s="16" t="n">
-        <v>13395</v>
+        <v>11670</v>
       </c>
       <c r="AS19" s="16" t="n">
-        <v>11670</v>
+        <v>20194</v>
       </c>
       <c r="AT19" s="16" t="n">
-        <v>20194</v>
+        <v>22598</v>
       </c>
       <c r="AU19" s="16" t="n">
-        <v>22598</v>
+        <v>11807</v>
       </c>
       <c r="AV19" s="16" t="n">
-        <v>11807</v>
+        <v>21898</v>
       </c>
       <c r="AW19" s="16" t="n">
-        <v>21898</v>
+        <v>20862</v>
       </c>
       <c r="AX19" s="16" t="n">
-        <v>20862</v>
+        <v>15675</v>
       </c>
       <c r="AY19" s="16" t="n">
-        <v>15675</v>
+        <v>455</v>
       </c>
       <c r="AZ19" s="16" t="n">
-        <v>455</v>
+        <v>2982</v>
       </c>
       <c r="BA19" s="16" t="n">
-        <v>2982</v>
+        <v>6302</v>
       </c>
       <c r="BB19" s="16" t="n">
-        <v>6302</v>
+        <v>23597</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4650,53 +4650,53 @@
       <c r="Z20" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AA20" s="13" t="s">
-        <v>58</v>
+      <c r="AA20" s="13" t="n">
+        <v>3164</v>
       </c>
       <c r="AB20" s="13" t="n">
-        <v>3164</v>
+        <v>4639</v>
       </c>
       <c r="AC20" s="13" t="n">
-        <v>4639</v>
+        <v>14170</v>
       </c>
       <c r="AD20" s="13" t="n">
-        <v>14170</v>
+        <v>52358</v>
       </c>
       <c r="AE20" s="13" t="n">
-        <v>52358</v>
+        <v>26167</v>
       </c>
       <c r="AF20" s="13" t="n">
-        <v>26167</v>
+        <v>2190</v>
       </c>
       <c r="AG20" s="13" t="n">
-        <v>2190</v>
+        <v>2786</v>
       </c>
       <c r="AH20" s="13" t="n">
-        <v>2786</v>
+        <v>4870</v>
       </c>
       <c r="AI20" s="13" t="n">
-        <v>4870</v>
+        <v>4283</v>
       </c>
       <c r="AJ20" s="13" t="n">
-        <v>4283</v>
+        <v>8354</v>
       </c>
       <c r="AK20" s="13" t="n">
-        <v>8354</v>
+        <v>10568</v>
       </c>
       <c r="AL20" s="13" t="n">
-        <v>10568</v>
+        <v>11526</v>
       </c>
       <c r="AM20" s="13" t="n">
-        <v>11526</v>
+        <v>3154</v>
       </c>
       <c r="AN20" s="13" t="n">
-        <v>3154</v>
+        <v>3275</v>
       </c>
       <c r="AO20" s="13" t="n">
-        <v>3275</v>
-      </c>
-      <c r="AP20" s="13" t="n">
         <v>6874</v>
+      </c>
+      <c r="AP20" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AQ20" s="13" t="s">
         <v>58</v>
@@ -4808,88 +4808,88 @@
         <v>0</v>
       </c>
       <c r="AA21" s="18" t="n">
-        <v>0</v>
+        <v>82004</v>
       </c>
       <c r="AB21" s="18" t="n">
-        <v>82004</v>
+        <v>114339</v>
       </c>
       <c r="AC21" s="18" t="n">
-        <v>114339</v>
+        <v>234620</v>
       </c>
       <c r="AD21" s="18" t="n">
-        <v>234620</v>
+        <v>279918</v>
       </c>
       <c r="AE21" s="18" t="n">
-        <v>279918</v>
+        <v>237607</v>
       </c>
       <c r="AF21" s="18" t="n">
-        <v>237607</v>
+        <v>151930</v>
       </c>
       <c r="AG21" s="18" t="n">
-        <v>151930</v>
+        <v>87546</v>
       </c>
       <c r="AH21" s="18" t="n">
-        <v>87546</v>
+        <v>101770</v>
       </c>
       <c r="AI21" s="18" t="n">
-        <v>101770</v>
+        <v>137013</v>
       </c>
       <c r="AJ21" s="18" t="n">
-        <v>137013</v>
+        <v>222514</v>
       </c>
       <c r="AK21" s="18" t="n">
-        <v>222514</v>
+        <v>228918</v>
       </c>
       <c r="AL21" s="18" t="n">
-        <v>228918</v>
+        <v>178076</v>
       </c>
       <c r="AM21" s="18" t="n">
-        <v>178076</v>
+        <v>171774</v>
       </c>
       <c r="AN21" s="18" t="n">
-        <v>171774</v>
+        <v>118215</v>
       </c>
       <c r="AO21" s="18" t="n">
-        <v>118215</v>
+        <v>220364</v>
       </c>
       <c r="AP21" s="18" t="n">
-        <v>220364</v>
+        <v>197211</v>
       </c>
       <c r="AQ21" s="18" t="n">
-        <v>197211</v>
+        <v>239475</v>
       </c>
       <c r="AR21" s="18" t="n">
-        <v>239475</v>
+        <v>231620</v>
       </c>
       <c r="AS21" s="18" t="n">
-        <v>231620</v>
+        <v>142584</v>
       </c>
       <c r="AT21" s="18" t="n">
-        <v>142584</v>
+        <v>125728</v>
       </c>
       <c r="AU21" s="18" t="n">
-        <v>125728</v>
+        <v>129017</v>
       </c>
       <c r="AV21" s="18" t="n">
-        <v>129017</v>
+        <v>240038</v>
       </c>
       <c r="AW21" s="18" t="n">
-        <v>240038</v>
+        <v>230902</v>
       </c>
       <c r="AX21" s="18" t="n">
-        <v>230902</v>
+        <v>223735</v>
       </c>
       <c r="AY21" s="18" t="n">
-        <v>223735</v>
+        <v>121635</v>
       </c>
       <c r="AZ21" s="18" t="n">
-        <v>121635</v>
+        <v>2982</v>
       </c>
       <c r="BA21" s="18" t="n">
-        <v>2982</v>
+        <v>144647</v>
       </c>
       <c r="BB21" s="18" t="n">
-        <v>144647</v>
+        <v>250772</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5021,8 +5021,8 @@
       <c r="Z23" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="AA23" s="22" t="s">
-        <v>58</v>
+      <c r="AA23" s="22" t="n">
+        <v>0</v>
       </c>
       <c r="AB23" s="22" t="n">
         <v>0</v>
@@ -5179,88 +5179,88 @@
         <v>0</v>
       </c>
       <c r="AA24" s="18" t="n">
-        <v>0</v>
+        <v>255990</v>
       </c>
       <c r="AB24" s="18" t="n">
-        <v>255990</v>
+        <v>318930</v>
       </c>
       <c r="AC24" s="18" t="n">
-        <v>318930</v>
+        <v>453370</v>
       </c>
       <c r="AD24" s="18" t="n">
-        <v>453370</v>
+        <v>456100</v>
       </c>
       <c r="AE24" s="18" t="n">
-        <v>456100</v>
+        <v>435900</v>
       </c>
       <c r="AF24" s="18" t="n">
-        <v>435900</v>
+        <v>341820</v>
       </c>
       <c r="AG24" s="18" t="n">
-        <v>341820</v>
+        <v>219530</v>
       </c>
       <c r="AH24" s="18" t="n">
-        <v>219530</v>
+        <v>202750</v>
       </c>
       <c r="AI24" s="18" t="n">
-        <v>202750</v>
+        <v>314020</v>
       </c>
       <c r="AJ24" s="18" t="n">
-        <v>314020</v>
+        <v>369279</v>
       </c>
       <c r="AK24" s="18" t="n">
-        <v>369279</v>
+        <v>382390</v>
       </c>
       <c r="AL24" s="18" t="n">
-        <v>382390</v>
+        <v>346751</v>
       </c>
       <c r="AM24" s="18" t="n">
-        <v>346751</v>
+        <v>317990</v>
       </c>
       <c r="AN24" s="18" t="n">
-        <v>317990</v>
+        <v>270070</v>
       </c>
       <c r="AO24" s="18" t="n">
-        <v>270070</v>
+        <v>384110</v>
       </c>
       <c r="AP24" s="18" t="n">
-        <v>384110</v>
+        <v>328870</v>
       </c>
       <c r="AQ24" s="18" t="n">
-        <v>328870</v>
+        <v>420660</v>
       </c>
       <c r="AR24" s="18" t="n">
-        <v>420660</v>
+        <v>365820</v>
       </c>
       <c r="AS24" s="18" t="n">
-        <v>365820</v>
+        <v>301230</v>
       </c>
       <c r="AT24" s="18" t="n">
-        <v>301230</v>
+        <v>296910</v>
       </c>
       <c r="AU24" s="18" t="n">
-        <v>296910</v>
+        <v>307000</v>
       </c>
       <c r="AV24" s="18" t="n">
-        <v>307000</v>
+        <v>412966</v>
       </c>
       <c r="AW24" s="18" t="n">
-        <v>412966</v>
+        <v>403268</v>
       </c>
       <c r="AX24" s="18" t="n">
-        <v>403268</v>
+        <v>393870</v>
       </c>
       <c r="AY24" s="18" t="n">
-        <v>393870</v>
+        <v>262840</v>
       </c>
       <c r="AZ24" s="18" t="n">
-        <v>262840</v>
+        <v>149135</v>
       </c>
       <c r="BA24" s="18" t="n">
-        <v>149135</v>
+        <v>283325</v>
       </c>
       <c r="BB24" s="18" t="n">
-        <v>283325</v>
+        <v>406320</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5771,53 +5771,53 @@
       <c r="Z31" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AA31" s="13" t="s">
-        <v>58</v>
+      <c r="AA31" s="13" t="n">
+        <v>89161</v>
       </c>
       <c r="AB31" s="13" t="n">
-        <v>89161</v>
+        <v>113357</v>
       </c>
       <c r="AC31" s="13" t="n">
-        <v>113357</v>
+        <v>117578</v>
       </c>
       <c r="AD31" s="13" t="n">
-        <v>117578</v>
+        <v>94458</v>
       </c>
       <c r="AE31" s="13" t="n">
-        <v>94458</v>
+        <v>108306</v>
       </c>
       <c r="AF31" s="13" t="n">
-        <v>108306</v>
+        <v>112681</v>
       </c>
       <c r="AG31" s="13" t="n">
-        <v>112681</v>
+        <v>66704</v>
       </c>
       <c r="AH31" s="13" t="n">
-        <v>66704</v>
+        <v>58378</v>
       </c>
       <c r="AI31" s="13" t="n">
-        <v>58378</v>
+        <v>98093</v>
       </c>
       <c r="AJ31" s="13" t="n">
-        <v>98093</v>
+        <v>72987</v>
       </c>
       <c r="AK31" s="13" t="n">
-        <v>72987</v>
+        <v>78388</v>
       </c>
       <c r="AL31" s="13" t="n">
-        <v>78388</v>
+        <v>76964</v>
       </c>
       <c r="AM31" s="13" t="n">
-        <v>76964</v>
+        <v>70245</v>
       </c>
       <c r="AN31" s="13" t="n">
-        <v>70245</v>
+        <v>70332</v>
       </c>
       <c r="AO31" s="13" t="n">
-        <v>70332</v>
-      </c>
-      <c r="AP31" s="13" t="n">
         <v>77798</v>
+      </c>
+      <c r="AP31" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AQ31" s="13" t="s">
         <v>58</v>
@@ -5930,53 +5930,53 @@
       <c r="Z32" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AA32" s="16" t="s">
-        <v>58</v>
+      <c r="AA32" s="16" t="n">
+        <v>82630</v>
       </c>
       <c r="AB32" s="16" t="n">
-        <v>82630</v>
+        <v>98843</v>
       </c>
       <c r="AC32" s="16" t="n">
-        <v>98843</v>
+        <v>106366</v>
       </c>
       <c r="AD32" s="16" t="n">
-        <v>106366</v>
+        <v>67044</v>
       </c>
       <c r="AE32" s="16" t="n">
-        <v>67044</v>
+        <v>82167</v>
       </c>
       <c r="AF32" s="16" t="n">
-        <v>82167</v>
+        <v>98156</v>
       </c>
       <c r="AG32" s="16" t="n">
-        <v>98156</v>
+        <v>52200</v>
       </c>
       <c r="AH32" s="16" t="n">
-        <v>52200</v>
+        <v>59416</v>
       </c>
       <c r="AI32" s="16" t="n">
-        <v>59416</v>
+        <v>70437</v>
       </c>
       <c r="AJ32" s="16" t="n">
-        <v>70437</v>
+        <v>70191</v>
       </c>
       <c r="AK32" s="16" t="n">
-        <v>70191</v>
+        <v>80694</v>
       </c>
       <c r="AL32" s="16" t="n">
-        <v>80694</v>
+        <v>85104</v>
       </c>
       <c r="AM32" s="16" t="n">
-        <v>85104</v>
+        <v>70696</v>
       </c>
       <c r="AN32" s="16" t="n">
-        <v>70696</v>
+        <v>78327</v>
       </c>
       <c r="AO32" s="16" t="n">
-        <v>78327</v>
-      </c>
-      <c r="AP32" s="16" t="n">
         <v>83333</v>
+      </c>
+      <c r="AP32" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AQ32" s="16" t="s">
         <v>58</v>
@@ -6134,44 +6134,44 @@
       <c r="AO33" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AP33" s="13" t="s">
-        <v>58</v>
+      <c r="AP33" s="13" t="n">
+        <v>58557</v>
       </c>
       <c r="AQ33" s="13" t="n">
-        <v>58557</v>
+        <v>84374</v>
       </c>
       <c r="AR33" s="13" t="n">
-        <v>84374</v>
+        <v>81661</v>
       </c>
       <c r="AS33" s="13" t="n">
-        <v>81661</v>
+        <v>80952</v>
       </c>
       <c r="AT33" s="13" t="n">
-        <v>80952</v>
+        <v>76696</v>
       </c>
       <c r="AU33" s="13" t="n">
-        <v>76696</v>
+        <v>86267</v>
       </c>
       <c r="AV33" s="13" t="n">
-        <v>86267</v>
+        <v>75618</v>
       </c>
       <c r="AW33" s="13" t="n">
-        <v>75618</v>
+        <v>73210</v>
       </c>
       <c r="AX33" s="13" t="n">
-        <v>73210</v>
+        <v>76249</v>
       </c>
       <c r="AY33" s="13" t="n">
-        <v>76249</v>
+        <v>73961</v>
       </c>
       <c r="AZ33" s="13" t="n">
-        <v>73961</v>
+        <v>77641</v>
       </c>
       <c r="BA33" s="13" t="n">
-        <v>77641</v>
+        <v>58659</v>
       </c>
       <c r="BB33" s="13" t="n">
-        <v>58659</v>
+        <v>72849</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6293,44 +6293,44 @@
       <c r="AO34" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AP34" s="16" t="s">
-        <v>58</v>
+      <c r="AP34" s="16" t="n">
+        <v>73653</v>
       </c>
       <c r="AQ34" s="16" t="n">
-        <v>73653</v>
+        <v>90595</v>
       </c>
       <c r="AR34" s="16" t="n">
-        <v>90595</v>
+        <v>80455</v>
       </c>
       <c r="AS34" s="16" t="n">
-        <v>80455</v>
+        <v>72620</v>
       </c>
       <c r="AT34" s="16" t="n">
-        <v>72620</v>
+        <v>77866</v>
       </c>
       <c r="AU34" s="16" t="n">
-        <v>77866</v>
+        <v>98690</v>
       </c>
       <c r="AV34" s="16" t="n">
-        <v>98690</v>
+        <v>100865</v>
       </c>
       <c r="AW34" s="16" t="n">
-        <v>100865</v>
+        <v>90838</v>
       </c>
       <c r="AX34" s="16" t="n">
-        <v>90838</v>
+        <v>101727</v>
       </c>
       <c r="AY34" s="16" t="n">
-        <v>101727</v>
+        <v>81580</v>
       </c>
       <c r="AZ34" s="16" t="n">
-        <v>81580</v>
+        <v>69405</v>
       </c>
       <c r="BA34" s="16" t="n">
-        <v>69405</v>
+        <v>71040</v>
       </c>
       <c r="BB34" s="16" t="n">
-        <v>71040</v>
+        <v>69637</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6565,88 +6565,88 @@
         <v>0</v>
       </c>
       <c r="AA36" s="18" t="n">
-        <v>0</v>
+        <v>171791</v>
       </c>
       <c r="AB36" s="18" t="n">
-        <v>171791</v>
+        <v>212200</v>
       </c>
       <c r="AC36" s="18" t="n">
-        <v>212200</v>
+        <v>223944</v>
       </c>
       <c r="AD36" s="18" t="n">
-        <v>223944</v>
+        <v>161502</v>
       </c>
       <c r="AE36" s="18" t="n">
-        <v>161502</v>
+        <v>190473</v>
       </c>
       <c r="AF36" s="18" t="n">
-        <v>190473</v>
+        <v>210837</v>
       </c>
       <c r="AG36" s="18" t="n">
-        <v>210837</v>
+        <v>118904</v>
       </c>
       <c r="AH36" s="18" t="n">
-        <v>118904</v>
+        <v>117794</v>
       </c>
       <c r="AI36" s="18" t="n">
-        <v>117794</v>
+        <v>168530</v>
       </c>
       <c r="AJ36" s="18" t="n">
-        <v>168530</v>
+        <v>143178</v>
       </c>
       <c r="AK36" s="18" t="n">
-        <v>143178</v>
+        <v>159082</v>
       </c>
       <c r="AL36" s="18" t="n">
-        <v>159082</v>
+        <v>162068</v>
       </c>
       <c r="AM36" s="18" t="n">
-        <v>162068</v>
+        <v>140941</v>
       </c>
       <c r="AN36" s="18" t="n">
-        <v>140941</v>
+        <v>148659</v>
       </c>
       <c r="AO36" s="18" t="n">
-        <v>148659</v>
+        <v>161131</v>
       </c>
       <c r="AP36" s="18" t="n">
-        <v>161131</v>
+        <v>132210</v>
       </c>
       <c r="AQ36" s="18" t="n">
-        <v>132210</v>
+        <v>174969</v>
       </c>
       <c r="AR36" s="18" t="n">
-        <v>174969</v>
+        <v>162116</v>
       </c>
       <c r="AS36" s="18" t="n">
-        <v>162116</v>
+        <v>153572</v>
       </c>
       <c r="AT36" s="18" t="n">
-        <v>153572</v>
+        <v>154562</v>
       </c>
       <c r="AU36" s="18" t="n">
-        <v>154562</v>
+        <v>184957</v>
       </c>
       <c r="AV36" s="18" t="n">
-        <v>184957</v>
+        <v>176483</v>
       </c>
       <c r="AW36" s="18" t="n">
-        <v>176483</v>
+        <v>164048</v>
       </c>
       <c r="AX36" s="18" t="n">
-        <v>164048</v>
+        <v>177976</v>
       </c>
       <c r="AY36" s="18" t="n">
-        <v>177976</v>
+        <v>155540</v>
       </c>
       <c r="AZ36" s="18" t="n">
-        <v>155540</v>
+        <v>147046</v>
       </c>
       <c r="BA36" s="18" t="n">
-        <v>147046</v>
+        <v>129699</v>
       </c>
       <c r="BB36" s="18" t="n">
-        <v>129699</v>
+        <v>142485</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6780,8 +6780,8 @@
       <c r="Z38" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AA38" s="13" t="s">
-        <v>58</v>
+      <c r="AA38" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AB38" s="13" t="n">
         <v>0</v>
@@ -6793,20 +6793,20 @@
         <v>0</v>
       </c>
       <c r="AE38" s="13" t="n">
-        <v>0</v>
+        <v>4887</v>
       </c>
       <c r="AF38" s="13" t="n">
-        <v>4887</v>
-      </c>
-      <c r="AG38" s="13" t="n">
         <v>1912</v>
       </c>
-      <c r="AH38" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI38" s="13" t="n">
+      <c r="AG38" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH38" s="13" t="n">
         <v>2192</v>
       </c>
+      <c r="AI38" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AJ38" s="13" t="s">
         <v>58</v>
       </c>
@@ -6819,8 +6819,8 @@
       <c r="AM38" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AN38" s="13" t="s">
-        <v>58</v>
+      <c r="AN38" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AO38" s="13" t="n">
         <v>0</v>
@@ -6832,22 +6832,22 @@
         <v>0</v>
       </c>
       <c r="AR38" s="13" t="n">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="AS38" s="13" t="n">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="AT38" s="13" t="n">
         <v>0</v>
       </c>
       <c r="AU38" s="13" t="n">
-        <v>0</v>
+        <v>5500</v>
       </c>
       <c r="AV38" s="13" t="n">
-        <v>5500</v>
+        <v>3900</v>
       </c>
       <c r="AW38" s="13" t="n">
-        <v>3900</v>
+        <v>0</v>
       </c>
       <c r="AX38" s="13" t="n">
         <v>0</v>
@@ -6859,10 +6859,10 @@
         <v>0</v>
       </c>
       <c r="BA38" s="13" t="n">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="BB38" s="13" t="n">
-        <v>3000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6984,44 +6984,44 @@
       <c r="AO39" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AP39" s="16" t="s">
-        <v>58</v>
+      <c r="AP39" s="16" t="n">
+        <v>5765</v>
       </c>
       <c r="AQ39" s="16" t="n">
-        <v>5765</v>
+        <v>12935</v>
       </c>
       <c r="AR39" s="16" t="n">
-        <v>12935</v>
+        <v>12530</v>
       </c>
       <c r="AS39" s="16" t="n">
-        <v>12530</v>
+        <v>20873</v>
       </c>
       <c r="AT39" s="16" t="n">
-        <v>20873</v>
+        <v>20405</v>
       </c>
       <c r="AU39" s="16" t="n">
-        <v>20405</v>
+        <v>12269</v>
       </c>
       <c r="AV39" s="16" t="n">
-        <v>12269</v>
+        <v>16839</v>
       </c>
       <c r="AW39" s="16" t="n">
-        <v>16839</v>
+        <v>19786</v>
       </c>
       <c r="AX39" s="16" t="n">
-        <v>19786</v>
+        <v>16397</v>
       </c>
       <c r="AY39" s="16" t="n">
-        <v>16397</v>
+        <v>502</v>
       </c>
       <c r="AZ39" s="16" t="n">
-        <v>502</v>
+        <v>3000</v>
       </c>
       <c r="BA39" s="16" t="n">
-        <v>3000</v>
+        <v>6302</v>
       </c>
       <c r="BB39" s="16" t="n">
-        <v>6302</v>
+        <v>23597</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7098,53 +7098,53 @@
       <c r="Z40" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AA40" s="13" t="s">
-        <v>58</v>
+      <c r="AA40" s="13" t="n">
+        <v>3124</v>
       </c>
       <c r="AB40" s="13" t="n">
-        <v>3124</v>
+        <v>4812</v>
       </c>
       <c r="AC40" s="13" t="n">
-        <v>4812</v>
+        <v>14506</v>
       </c>
       <c r="AD40" s="13" t="n">
-        <v>14506</v>
+        <v>47996</v>
       </c>
       <c r="AE40" s="13" t="n">
-        <v>47996</v>
+        <v>25135</v>
       </c>
       <c r="AF40" s="13" t="n">
-        <v>25135</v>
+        <v>2432</v>
       </c>
       <c r="AG40" s="13" t="n">
-        <v>2432</v>
+        <v>2510</v>
       </c>
       <c r="AH40" s="13" t="n">
-        <v>2510</v>
+        <v>5681</v>
       </c>
       <c r="AI40" s="13" t="n">
-        <v>5681</v>
+        <v>4078</v>
       </c>
       <c r="AJ40" s="13" t="n">
-        <v>4078</v>
+        <v>8150</v>
       </c>
       <c r="AK40" s="13" t="n">
-        <v>8150</v>
+        <v>10954</v>
       </c>
       <c r="AL40" s="13" t="n">
-        <v>10954</v>
+        <v>11075</v>
       </c>
       <c r="AM40" s="13" t="n">
-        <v>11075</v>
+        <v>3040</v>
       </c>
       <c r="AN40" s="13" t="n">
-        <v>3040</v>
+        <v>9186</v>
       </c>
       <c r="AO40" s="13" t="n">
-        <v>9186</v>
-      </c>
-      <c r="AP40" s="13" t="n">
         <v>6764</v>
+      </c>
+      <c r="AP40" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AQ40" s="13" t="s">
         <v>58</v>
@@ -7256,88 +7256,88 @@
         <v>0</v>
       </c>
       <c r="AA41" s="18" t="n">
-        <v>0</v>
+        <v>3124</v>
       </c>
       <c r="AB41" s="18" t="n">
-        <v>3124</v>
+        <v>4812</v>
       </c>
       <c r="AC41" s="18" t="n">
-        <v>4812</v>
+        <v>14506</v>
       </c>
       <c r="AD41" s="18" t="n">
-        <v>14506</v>
+        <v>47996</v>
       </c>
       <c r="AE41" s="18" t="n">
-        <v>47996</v>
+        <v>30022</v>
       </c>
       <c r="AF41" s="18" t="n">
-        <v>30022</v>
+        <v>4344</v>
       </c>
       <c r="AG41" s="18" t="n">
-        <v>4344</v>
+        <v>2510</v>
       </c>
       <c r="AH41" s="18" t="n">
-        <v>2510</v>
+        <v>7873</v>
       </c>
       <c r="AI41" s="18" t="n">
-        <v>7873</v>
+        <v>4078</v>
       </c>
       <c r="AJ41" s="18" t="n">
-        <v>4078</v>
+        <v>8150</v>
       </c>
       <c r="AK41" s="18" t="n">
-        <v>8150</v>
+        <v>10954</v>
       </c>
       <c r="AL41" s="18" t="n">
-        <v>10954</v>
+        <v>11075</v>
       </c>
       <c r="AM41" s="18" t="n">
-        <v>11075</v>
+        <v>3040</v>
       </c>
       <c r="AN41" s="18" t="n">
-        <v>3040</v>
+        <v>9186</v>
       </c>
       <c r="AO41" s="18" t="n">
-        <v>9186</v>
+        <v>6764</v>
       </c>
       <c r="AP41" s="18" t="n">
-        <v>6764</v>
+        <v>5765</v>
       </c>
       <c r="AQ41" s="18" t="n">
-        <v>5765</v>
+        <v>12935</v>
       </c>
       <c r="AR41" s="18" t="n">
-        <v>12935</v>
+        <v>16530</v>
       </c>
       <c r="AS41" s="18" t="n">
-        <v>16530</v>
+        <v>20873</v>
       </c>
       <c r="AT41" s="18" t="n">
-        <v>20873</v>
+        <v>20405</v>
       </c>
       <c r="AU41" s="18" t="n">
-        <v>20405</v>
+        <v>17769</v>
       </c>
       <c r="AV41" s="18" t="n">
-        <v>17769</v>
+        <v>20739</v>
       </c>
       <c r="AW41" s="18" t="n">
-        <v>20739</v>
+        <v>19786</v>
       </c>
       <c r="AX41" s="18" t="n">
-        <v>19786</v>
+        <v>16397</v>
       </c>
       <c r="AY41" s="18" t="n">
-        <v>16397</v>
+        <v>502</v>
       </c>
       <c r="AZ41" s="18" t="n">
-        <v>502</v>
+        <v>3000</v>
       </c>
       <c r="BA41" s="18" t="n">
-        <v>3000</v>
+        <v>9302</v>
       </c>
       <c r="BB41" s="18" t="n">
-        <v>9302</v>
+        <v>23597</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7469,8 +7469,8 @@
       <c r="Z43" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="AA43" s="22" t="s">
-        <v>58</v>
+      <c r="AA43" s="22" t="n">
+        <v>0</v>
       </c>
       <c r="AB43" s="22" t="n">
         <v>0</v>
@@ -7683,8 +7683,8 @@
       <c r="Z45" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="AA45" s="22" t="s">
-        <v>58</v>
+      <c r="AA45" s="22" t="n">
+        <v>0</v>
       </c>
       <c r="AB45" s="22" t="n">
         <v>0</v>
@@ -7841,88 +7841,88 @@
         <v>0</v>
       </c>
       <c r="AA46" s="18" t="n">
-        <v>0</v>
+        <v>174915</v>
       </c>
       <c r="AB46" s="18" t="n">
-        <v>174915</v>
+        <v>217012</v>
       </c>
       <c r="AC46" s="18" t="n">
-        <v>217012</v>
+        <v>238450</v>
       </c>
       <c r="AD46" s="18" t="n">
-        <v>238450</v>
+        <v>209498</v>
       </c>
       <c r="AE46" s="18" t="n">
-        <v>209498</v>
+        <v>220495</v>
       </c>
       <c r="AF46" s="18" t="n">
-        <v>220495</v>
+        <v>215181</v>
       </c>
       <c r="AG46" s="18" t="n">
-        <v>215181</v>
+        <v>121414</v>
       </c>
       <c r="AH46" s="18" t="n">
-        <v>121414</v>
+        <v>125667</v>
       </c>
       <c r="AI46" s="18" t="n">
-        <v>125667</v>
+        <v>172608</v>
       </c>
       <c r="AJ46" s="18" t="n">
-        <v>172608</v>
+        <v>151328</v>
       </c>
       <c r="AK46" s="18" t="n">
-        <v>151328</v>
+        <v>170036</v>
       </c>
       <c r="AL46" s="18" t="n">
-        <v>170036</v>
+        <v>173143</v>
       </c>
       <c r="AM46" s="18" t="n">
-        <v>173143</v>
+        <v>143981</v>
       </c>
       <c r="AN46" s="18" t="n">
-        <v>143981</v>
+        <v>157845</v>
       </c>
       <c r="AO46" s="18" t="n">
-        <v>157845</v>
+        <v>167895</v>
       </c>
       <c r="AP46" s="18" t="n">
-        <v>167895</v>
+        <v>137975</v>
       </c>
       <c r="AQ46" s="18" t="n">
-        <v>137975</v>
+        <v>187904</v>
       </c>
       <c r="AR46" s="18" t="n">
-        <v>187904</v>
+        <v>178646</v>
       </c>
       <c r="AS46" s="18" t="n">
-        <v>178646</v>
+        <v>174445</v>
       </c>
       <c r="AT46" s="18" t="n">
-        <v>174445</v>
+        <v>174967</v>
       </c>
       <c r="AU46" s="18" t="n">
-        <v>174967</v>
+        <v>202726</v>
       </c>
       <c r="AV46" s="18" t="n">
-        <v>202726</v>
+        <v>197222</v>
       </c>
       <c r="AW46" s="18" t="n">
-        <v>197222</v>
+        <v>183835</v>
       </c>
       <c r="AX46" s="18" t="n">
-        <v>183835</v>
+        <v>194374</v>
       </c>
       <c r="AY46" s="18" t="n">
-        <v>194374</v>
+        <v>156042</v>
       </c>
       <c r="AZ46" s="18" t="n">
-        <v>156042</v>
+        <v>150046</v>
       </c>
       <c r="BA46" s="18" t="n">
-        <v>150046</v>
+        <v>139000</v>
       </c>
       <c r="BB46" s="18" t="n">
-        <v>139000</v>
+        <v>166082</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8433,53 +8433,53 @@
       <c r="Z53" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AA53" s="13" t="s">
-        <v>58</v>
+      <c r="AA53" s="13" t="n">
+        <v>198101</v>
       </c>
       <c r="AB53" s="13" t="n">
-        <v>198101</v>
+        <v>250404</v>
       </c>
       <c r="AC53" s="13" t="n">
-        <v>250404</v>
+        <v>259592</v>
       </c>
       <c r="AD53" s="13" t="n">
-        <v>259592</v>
+        <v>208235</v>
       </c>
       <c r="AE53" s="13" t="n">
-        <v>208235</v>
+        <v>333124</v>
       </c>
       <c r="AF53" s="13" t="n">
-        <v>333124</v>
+        <v>346687</v>
       </c>
       <c r="AG53" s="13" t="n">
-        <v>346687</v>
+        <v>218627</v>
       </c>
       <c r="AH53" s="13" t="n">
-        <v>218627</v>
+        <v>324515</v>
       </c>
       <c r="AI53" s="13" t="n">
-        <v>324515</v>
+        <v>561291</v>
       </c>
       <c r="AJ53" s="13" t="n">
-        <v>561291</v>
+        <v>306894</v>
       </c>
       <c r="AK53" s="13" t="n">
-        <v>306894</v>
+        <v>304178</v>
       </c>
       <c r="AL53" s="13" t="n">
-        <v>304178</v>
+        <v>387264</v>
       </c>
       <c r="AM53" s="13" t="n">
-        <v>387264</v>
+        <v>330725</v>
       </c>
       <c r="AN53" s="13" t="n">
-        <v>330725</v>
+        <v>365140</v>
       </c>
       <c r="AO53" s="13" t="n">
-        <v>365140</v>
-      </c>
-      <c r="AP53" s="13" t="n">
         <v>409980</v>
+      </c>
+      <c r="AP53" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AQ53" s="13" t="s">
         <v>58</v>
@@ -8592,53 +8592,53 @@
       <c r="Z54" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AA54" s="16" t="s">
-        <v>58</v>
+      <c r="AA54" s="16" t="n">
+        <v>256539</v>
       </c>
       <c r="AB54" s="16" t="n">
-        <v>256539</v>
+        <v>306680</v>
       </c>
       <c r="AC54" s="16" t="n">
-        <v>306680</v>
+        <v>330316</v>
       </c>
       <c r="AD54" s="16" t="n">
-        <v>330316</v>
+        <v>207645</v>
       </c>
       <c r="AE54" s="16" t="n">
-        <v>207645</v>
+        <v>351858</v>
       </c>
       <c r="AF54" s="16" t="n">
-        <v>351858</v>
+        <v>423311</v>
       </c>
       <c r="AG54" s="16" t="n">
-        <v>423311</v>
+        <v>231710</v>
       </c>
       <c r="AH54" s="16" t="n">
-        <v>231710</v>
+        <v>325137</v>
       </c>
       <c r="AI54" s="16" t="n">
-        <v>325137</v>
+        <v>489315</v>
       </c>
       <c r="AJ54" s="16" t="n">
-        <v>489315</v>
+        <v>392489</v>
       </c>
       <c r="AK54" s="16" t="n">
-        <v>392489</v>
+        <v>425572</v>
       </c>
       <c r="AL54" s="16" t="n">
-        <v>425572</v>
+        <v>523601</v>
       </c>
       <c r="AM54" s="16" t="n">
-        <v>523601</v>
+        <v>413552</v>
       </c>
       <c r="AN54" s="16" t="n">
-        <v>413552</v>
+        <v>460329</v>
       </c>
       <c r="AO54" s="16" t="n">
-        <v>460329</v>
-      </c>
-      <c r="AP54" s="16" t="n">
         <v>504371</v>
+      </c>
+      <c r="AP54" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AQ54" s="16" t="s">
         <v>58</v>
@@ -8796,44 +8796,44 @@
       <c r="AO55" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AP55" s="13" t="s">
-        <v>58</v>
+      <c r="AP55" s="13" t="n">
+        <v>277405</v>
       </c>
       <c r="AQ55" s="13" t="n">
-        <v>277405</v>
+        <v>396597</v>
       </c>
       <c r="AR55" s="13" t="n">
-        <v>396597</v>
+        <v>492554</v>
       </c>
       <c r="AS55" s="13" t="n">
-        <v>492554</v>
+        <v>638025</v>
       </c>
       <c r="AT55" s="13" t="n">
-        <v>638025</v>
+        <v>547976</v>
       </c>
       <c r="AU55" s="13" t="n">
-        <v>547976</v>
+        <v>608837</v>
       </c>
       <c r="AV55" s="13" t="n">
-        <v>608837</v>
+        <v>521927</v>
       </c>
       <c r="AW55" s="13" t="n">
-        <v>521927</v>
+        <v>503058</v>
       </c>
       <c r="AX55" s="13" t="n">
-        <v>503058</v>
+        <v>518705</v>
       </c>
       <c r="AY55" s="13" t="n">
-        <v>518705</v>
+        <v>471146</v>
       </c>
       <c r="AZ55" s="13" t="n">
-        <v>471146</v>
+        <v>508335</v>
       </c>
       <c r="BA55" s="13" t="n">
-        <v>508335</v>
+        <v>378086</v>
       </c>
       <c r="BB55" s="13" t="n">
-        <v>378086</v>
+        <v>475272</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8955,44 +8955,44 @@
       <c r="AO56" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AP56" s="16" t="s">
-        <v>58</v>
+      <c r="AP56" s="16" t="n">
+        <v>433325</v>
       </c>
       <c r="AQ56" s="16" t="n">
-        <v>433325</v>
+        <v>543797</v>
       </c>
       <c r="AR56" s="16" t="n">
-        <v>543797</v>
+        <v>573285</v>
       </c>
       <c r="AS56" s="16" t="n">
-        <v>573285</v>
+        <v>599537</v>
       </c>
       <c r="AT56" s="16" t="n">
-        <v>599537</v>
+        <v>591711</v>
       </c>
       <c r="AU56" s="16" t="n">
-        <v>591711</v>
+        <v>714559</v>
       </c>
       <c r="AV56" s="16" t="n">
-        <v>714559</v>
+        <v>737841</v>
       </c>
       <c r="AW56" s="16" t="n">
-        <v>737841</v>
+        <v>652799</v>
       </c>
       <c r="AX56" s="16" t="n">
-        <v>652799</v>
+        <v>714297</v>
       </c>
       <c r="AY56" s="16" t="n">
-        <v>714297</v>
+        <v>579466</v>
       </c>
       <c r="AZ56" s="16" t="n">
-        <v>579466</v>
+        <v>516710</v>
       </c>
       <c r="BA56" s="16" t="n">
-        <v>516710</v>
+        <v>545911</v>
       </c>
       <c r="BB56" s="16" t="n">
-        <v>545911</v>
+        <v>574911</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9105,11 +9105,11 @@
       <c r="AL57" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AM57" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AN57" s="13" t="n">
-        <v>0</v>
+      <c r="AM57" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN57" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AO57" s="13" t="s">
         <v>58</v>
@@ -9227,88 +9227,88 @@
         <v>0</v>
       </c>
       <c r="AA58" s="18" t="n">
-        <v>0</v>
+        <v>454640</v>
       </c>
       <c r="AB58" s="18" t="n">
-        <v>454640</v>
+        <v>557084</v>
       </c>
       <c r="AC58" s="18" t="n">
-        <v>557084</v>
+        <v>589908</v>
       </c>
       <c r="AD58" s="18" t="n">
-        <v>589908</v>
+        <v>415880</v>
       </c>
       <c r="AE58" s="18" t="n">
-        <v>415880</v>
+        <v>684982</v>
       </c>
       <c r="AF58" s="18" t="n">
-        <v>684982</v>
+        <v>769998</v>
       </c>
       <c r="AG58" s="18" t="n">
-        <v>769998</v>
+        <v>450337</v>
       </c>
       <c r="AH58" s="18" t="n">
-        <v>450337</v>
+        <v>649652</v>
       </c>
       <c r="AI58" s="18" t="n">
-        <v>649652</v>
+        <v>1050606</v>
       </c>
       <c r="AJ58" s="18" t="n">
-        <v>1050606</v>
+        <v>699383</v>
       </c>
       <c r="AK58" s="18" t="n">
-        <v>699383</v>
+        <v>729750</v>
       </c>
       <c r="AL58" s="18" t="n">
-        <v>729750</v>
+        <v>910865</v>
       </c>
       <c r="AM58" s="18" t="n">
-        <v>910865</v>
+        <v>744277</v>
       </c>
       <c r="AN58" s="18" t="n">
-        <v>744277</v>
+        <v>825469</v>
       </c>
       <c r="AO58" s="18" t="n">
-        <v>825469</v>
+        <v>914351</v>
       </c>
       <c r="AP58" s="18" t="n">
-        <v>914351</v>
+        <v>710730</v>
       </c>
       <c r="AQ58" s="18" t="n">
-        <v>710730</v>
+        <v>940394</v>
       </c>
       <c r="AR58" s="18" t="n">
-        <v>940394</v>
+        <v>1065839</v>
       </c>
       <c r="AS58" s="18" t="n">
-        <v>1065839</v>
+        <v>1237562</v>
       </c>
       <c r="AT58" s="18" t="n">
-        <v>1237562</v>
+        <v>1139687</v>
       </c>
       <c r="AU58" s="18" t="n">
-        <v>1139687</v>
+        <v>1323396</v>
       </c>
       <c r="AV58" s="18" t="n">
-        <v>1323396</v>
+        <v>1259768</v>
       </c>
       <c r="AW58" s="18" t="n">
-        <v>1259768</v>
+        <v>1155857</v>
       </c>
       <c r="AX58" s="18" t="n">
-        <v>1155857</v>
+        <v>1233002</v>
       </c>
       <c r="AY58" s="18" t="n">
-        <v>1233002</v>
+        <v>1050612</v>
       </c>
       <c r="AZ58" s="18" t="n">
-        <v>1050612</v>
+        <v>1025045</v>
       </c>
       <c r="BA58" s="18" t="n">
-        <v>1025045</v>
+        <v>923997</v>
       </c>
       <c r="BB58" s="18" t="n">
-        <v>923997</v>
+        <v>1050183</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9442,8 +9442,8 @@
       <c r="Z60" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AA60" s="13" t="s">
-        <v>58</v>
+      <c r="AA60" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AB60" s="13" t="n">
         <v>0</v>
@@ -9455,19 +9455,19 @@
         <v>0</v>
       </c>
       <c r="AE60" s="13" t="n">
-        <v>0</v>
+        <v>20292</v>
       </c>
       <c r="AF60" s="13" t="n">
-        <v>20292</v>
+        <v>7945</v>
       </c>
       <c r="AG60" s="13" t="n">
-        <v>7945</v>
+        <v>0</v>
       </c>
       <c r="AH60" s="13" t="n">
-        <v>0</v>
+        <v>11155</v>
       </c>
       <c r="AI60" s="13" t="n">
-        <v>11155</v>
+        <v>0</v>
       </c>
       <c r="AJ60" s="13" t="n">
         <v>0</v>
@@ -9494,22 +9494,22 @@
         <v>0</v>
       </c>
       <c r="AR60" s="13" t="n">
-        <v>0</v>
+        <v>32576</v>
       </c>
       <c r="AS60" s="13" t="n">
-        <v>32576</v>
+        <v>0</v>
       </c>
       <c r="AT60" s="13" t="n">
         <v>0</v>
       </c>
       <c r="AU60" s="13" t="n">
-        <v>0</v>
+        <v>42722</v>
       </c>
       <c r="AV60" s="13" t="n">
-        <v>42722</v>
+        <v>29978</v>
       </c>
       <c r="AW60" s="13" t="n">
-        <v>29978</v>
+        <v>0</v>
       </c>
       <c r="AX60" s="13" t="n">
         <v>0</v>
@@ -9521,10 +9521,10 @@
         <v>0</v>
       </c>
       <c r="BA60" s="13" t="n">
-        <v>0</v>
+        <v>23174</v>
       </c>
       <c r="BB60" s="13" t="n">
-        <v>23174</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9646,44 +9646,44 @@
       <c r="AO61" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AP61" s="16" t="s">
-        <v>58</v>
+      <c r="AP61" s="16" t="n">
+        <v>45914</v>
       </c>
       <c r="AQ61" s="16" t="n">
-        <v>45914</v>
+        <v>108484</v>
       </c>
       <c r="AR61" s="16" t="n">
-        <v>108484</v>
+        <v>109898</v>
       </c>
       <c r="AS61" s="16" t="n">
-        <v>109898</v>
+        <v>198552</v>
       </c>
       <c r="AT61" s="16" t="n">
-        <v>198552</v>
+        <v>190889</v>
       </c>
       <c r="AU61" s="16" t="n">
-        <v>190889</v>
+        <v>117699</v>
       </c>
       <c r="AV61" s="16" t="n">
-        <v>117699</v>
+        <v>162783</v>
       </c>
       <c r="AW61" s="16" t="n">
-        <v>162783</v>
+        <v>190653</v>
       </c>
       <c r="AX61" s="16" t="n">
-        <v>190653</v>
+        <v>156537</v>
       </c>
       <c r="AY61" s="16" t="n">
-        <v>156537</v>
+        <v>5338</v>
       </c>
       <c r="AZ61" s="16" t="n">
-        <v>5338</v>
+        <v>29780</v>
       </c>
       <c r="BA61" s="16" t="n">
-        <v>29780</v>
+        <v>81862</v>
       </c>
       <c r="BB61" s="16" t="n">
-        <v>81862</v>
+        <v>289607</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9760,53 +9760,53 @@
       <c r="Z62" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AA62" s="13" t="s">
-        <v>58</v>
+      <c r="AA62" s="13" t="n">
+        <v>17821</v>
       </c>
       <c r="AB62" s="13" t="n">
-        <v>17821</v>
+        <v>26771</v>
       </c>
       <c r="AC62" s="13" t="n">
-        <v>26771</v>
+        <v>80811</v>
       </c>
       <c r="AD62" s="13" t="n">
-        <v>80811</v>
+        <v>264001</v>
       </c>
       <c r="AE62" s="13" t="n">
-        <v>264001</v>
+        <v>159120</v>
       </c>
       <c r="AF62" s="13" t="n">
-        <v>159120</v>
+        <v>15004</v>
       </c>
       <c r="AG62" s="13" t="n">
-        <v>15004</v>
+        <v>15583</v>
       </c>
       <c r="AH62" s="13" t="n">
-        <v>15583</v>
+        <v>49149</v>
       </c>
       <c r="AI62" s="13" t="n">
-        <v>49149</v>
+        <v>34879</v>
       </c>
       <c r="AJ62" s="13" t="n">
-        <v>34879</v>
+        <v>68148</v>
       </c>
       <c r="AK62" s="13" t="n">
-        <v>68148</v>
+        <v>89735</v>
       </c>
       <c r="AL62" s="13" t="n">
-        <v>89735</v>
+        <v>88788</v>
       </c>
       <c r="AM62" s="13" t="n">
-        <v>88788</v>
+        <v>24660</v>
       </c>
       <c r="AN62" s="13" t="n">
-        <v>24660</v>
+        <v>71298</v>
       </c>
       <c r="AO62" s="13" t="n">
-        <v>71298</v>
-      </c>
-      <c r="AP62" s="13" t="n">
         <v>52640</v>
+      </c>
+      <c r="AP62" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AQ62" s="13" t="s">
         <v>58</v>
@@ -9918,88 +9918,88 @@
         <v>0</v>
       </c>
       <c r="AA63" s="18" t="n">
-        <v>0</v>
+        <v>17821</v>
       </c>
       <c r="AB63" s="18" t="n">
-        <v>17821</v>
+        <v>26771</v>
       </c>
       <c r="AC63" s="18" t="n">
-        <v>26771</v>
+        <v>80811</v>
       </c>
       <c r="AD63" s="18" t="n">
-        <v>80811</v>
+        <v>264001</v>
       </c>
       <c r="AE63" s="18" t="n">
-        <v>264001</v>
+        <v>179412</v>
       </c>
       <c r="AF63" s="18" t="n">
-        <v>179412</v>
+        <v>22949</v>
       </c>
       <c r="AG63" s="18" t="n">
-        <v>22949</v>
+        <v>15583</v>
       </c>
       <c r="AH63" s="18" t="n">
-        <v>15583</v>
+        <v>60304</v>
       </c>
       <c r="AI63" s="18" t="n">
-        <v>60304</v>
+        <v>34879</v>
       </c>
       <c r="AJ63" s="18" t="n">
-        <v>34879</v>
+        <v>68148</v>
       </c>
       <c r="AK63" s="18" t="n">
-        <v>68148</v>
+        <v>89735</v>
       </c>
       <c r="AL63" s="18" t="n">
-        <v>89735</v>
+        <v>88788</v>
       </c>
       <c r="AM63" s="18" t="n">
-        <v>88788</v>
+        <v>24660</v>
       </c>
       <c r="AN63" s="18" t="n">
-        <v>24660</v>
+        <v>71298</v>
       </c>
       <c r="AO63" s="18" t="n">
-        <v>71298</v>
+        <v>52640</v>
       </c>
       <c r="AP63" s="18" t="n">
-        <v>52640</v>
+        <v>45914</v>
       </c>
       <c r="AQ63" s="18" t="n">
-        <v>45914</v>
+        <v>108484</v>
       </c>
       <c r="AR63" s="18" t="n">
-        <v>108484</v>
+        <v>142474</v>
       </c>
       <c r="AS63" s="18" t="n">
-        <v>142474</v>
+        <v>198552</v>
       </c>
       <c r="AT63" s="18" t="n">
-        <v>198552</v>
+        <v>190889</v>
       </c>
       <c r="AU63" s="18" t="n">
-        <v>190889</v>
+        <v>160421</v>
       </c>
       <c r="AV63" s="18" t="n">
-        <v>160421</v>
+        <v>192761</v>
       </c>
       <c r="AW63" s="18" t="n">
-        <v>192761</v>
+        <v>190653</v>
       </c>
       <c r="AX63" s="18" t="n">
-        <v>190653</v>
+        <v>156537</v>
       </c>
       <c r="AY63" s="18" t="n">
-        <v>156537</v>
+        <v>5338</v>
       </c>
       <c r="AZ63" s="18" t="n">
-        <v>5338</v>
+        <v>29780</v>
       </c>
       <c r="BA63" s="18" t="n">
-        <v>29780</v>
+        <v>105036</v>
       </c>
       <c r="BB63" s="18" t="n">
-        <v>105036</v>
+        <v>289607</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10133,8 +10133,8 @@
       <c r="Z65" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="AA65" s="22" t="s">
-        <v>58</v>
+      <c r="AA65" s="23" t="n">
+        <v>0</v>
       </c>
       <c r="AB65" s="23" t="n">
         <v>0</v>
@@ -10349,8 +10349,8 @@
       <c r="Z67" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="AA67" s="22" t="s">
-        <v>58</v>
+      <c r="AA67" s="23" t="n">
+        <v>0</v>
       </c>
       <c r="AB67" s="23" t="n">
         <v>0</v>
@@ -10565,8 +10565,8 @@
       <c r="Z69" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AA69" s="13" t="s">
-        <v>58</v>
+      <c r="AA69" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AB69" s="13" t="n">
         <v>0</v>
@@ -10723,88 +10723,88 @@
         <v>0</v>
       </c>
       <c r="AA70" s="18" t="n">
-        <v>0</v>
+        <v>472461</v>
       </c>
       <c r="AB70" s="18" t="n">
-        <v>472461</v>
+        <v>583855</v>
       </c>
       <c r="AC70" s="18" t="n">
-        <v>583855</v>
+        <v>670719</v>
       </c>
       <c r="AD70" s="18" t="n">
-        <v>670719</v>
+        <v>679881</v>
       </c>
       <c r="AE70" s="18" t="n">
-        <v>679881</v>
+        <v>864394</v>
       </c>
       <c r="AF70" s="18" t="n">
-        <v>864394</v>
+        <v>792947</v>
       </c>
       <c r="AG70" s="18" t="n">
-        <v>792947</v>
+        <v>465920</v>
       </c>
       <c r="AH70" s="18" t="n">
-        <v>465920</v>
+        <v>709956</v>
       </c>
       <c r="AI70" s="18" t="n">
-        <v>709956</v>
+        <v>1085485</v>
       </c>
       <c r="AJ70" s="18" t="n">
-        <v>1085485</v>
+        <v>767531</v>
       </c>
       <c r="AK70" s="18" t="n">
-        <v>767531</v>
+        <v>819485</v>
       </c>
       <c r="AL70" s="18" t="n">
-        <v>819485</v>
+        <v>999653</v>
       </c>
       <c r="AM70" s="18" t="n">
-        <v>999653</v>
+        <v>768937</v>
       </c>
       <c r="AN70" s="18" t="n">
-        <v>768937</v>
+        <v>896767</v>
       </c>
       <c r="AO70" s="18" t="n">
-        <v>896767</v>
+        <v>966991</v>
       </c>
       <c r="AP70" s="18" t="n">
-        <v>966991</v>
+        <v>756644</v>
       </c>
       <c r="AQ70" s="18" t="n">
-        <v>756644</v>
+        <v>1048878</v>
       </c>
       <c r="AR70" s="18" t="n">
-        <v>1048878</v>
+        <v>1208313</v>
       </c>
       <c r="AS70" s="18" t="n">
-        <v>1208313</v>
+        <v>1436114</v>
       </c>
       <c r="AT70" s="18" t="n">
-        <v>1436114</v>
+        <v>1330576</v>
       </c>
       <c r="AU70" s="18" t="n">
-        <v>1330576</v>
+        <v>1483817</v>
       </c>
       <c r="AV70" s="18" t="n">
-        <v>1483817</v>
+        <v>1452529</v>
       </c>
       <c r="AW70" s="18" t="n">
-        <v>1452529</v>
+        <v>1346510</v>
       </c>
       <c r="AX70" s="18" t="n">
-        <v>1346510</v>
+        <v>1389539</v>
       </c>
       <c r="AY70" s="18" t="n">
-        <v>1389539</v>
+        <v>1055950</v>
       </c>
       <c r="AZ70" s="18" t="n">
-        <v>1055950</v>
+        <v>1054825</v>
       </c>
       <c r="BA70" s="18" t="n">
-        <v>1054825</v>
+        <v>1029033</v>
       </c>
       <c r="BB70" s="18" t="n">
-        <v>1029033</v>
+        <v>1339790</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11315,53 +11315,53 @@
       <c r="Z77" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AA77" s="13" t="s">
-        <v>58</v>
+      <c r="AA77" s="13" t="n">
+        <v>2221835</v>
       </c>
       <c r="AB77" s="13" t="n">
-        <v>2221835</v>
+        <v>2208986</v>
       </c>
       <c r="AC77" s="13" t="n">
-        <v>2208986</v>
+        <v>2207828</v>
       </c>
       <c r="AD77" s="13" t="n">
-        <v>2207828</v>
+        <v>2204525</v>
       </c>
       <c r="AE77" s="13" t="n">
-        <v>2204525</v>
+        <v>3075767</v>
       </c>
       <c r="AF77" s="13" t="n">
-        <v>3075767</v>
+        <v>3076712</v>
       </c>
       <c r="AG77" s="13" t="n">
-        <v>3076712</v>
+        <v>3277570</v>
       </c>
       <c r="AH77" s="13" t="n">
-        <v>3277570</v>
+        <v>5558858</v>
       </c>
       <c r="AI77" s="13" t="n">
-        <v>5558858</v>
+        <v>5722029</v>
       </c>
       <c r="AJ77" s="13" t="n">
-        <v>5722029</v>
+        <v>4204776</v>
       </c>
       <c r="AK77" s="13" t="n">
-        <v>4204776</v>
+        <v>3880415</v>
       </c>
       <c r="AL77" s="13" t="n">
-        <v>3880415</v>
+        <v>5031755</v>
       </c>
       <c r="AM77" s="13" t="n">
-        <v>5031755</v>
+        <v>4708164</v>
       </c>
       <c r="AN77" s="13" t="n">
-        <v>4708164</v>
+        <v>5191662</v>
       </c>
       <c r="AO77" s="13" t="n">
-        <v>5191662</v>
-      </c>
-      <c r="AP77" s="13" t="n">
         <v>5269801</v>
+      </c>
+      <c r="AP77" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AQ77" s="13" t="s">
         <v>58</v>
@@ -11474,53 +11474,53 @@
       <c r="Z78" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AA78" s="16" t="s">
-        <v>58</v>
+      <c r="AA78" s="16" t="n">
+        <v>3104671</v>
       </c>
       <c r="AB78" s="16" t="n">
-        <v>3104671</v>
+        <v>3102698</v>
       </c>
       <c r="AC78" s="16" t="n">
-        <v>3102698</v>
+        <v>3105466</v>
       </c>
       <c r="AD78" s="16" t="n">
-        <v>3105466</v>
+        <v>3097145</v>
       </c>
       <c r="AE78" s="16" t="n">
-        <v>3097145</v>
+        <v>4282230</v>
       </c>
       <c r="AF78" s="16" t="n">
-        <v>4282230</v>
+        <v>4312635</v>
       </c>
       <c r="AG78" s="16" t="n">
-        <v>4312635</v>
+        <v>4438889</v>
       </c>
       <c r="AH78" s="16" t="n">
-        <v>4438889</v>
+        <v>5472213</v>
       </c>
       <c r="AI78" s="16" t="n">
-        <v>5472213</v>
+        <v>6946846</v>
       </c>
       <c r="AJ78" s="16" t="n">
-        <v>6946846</v>
+        <v>5591728</v>
       </c>
       <c r="AK78" s="16" t="n">
-        <v>5591728</v>
+        <v>5273899</v>
       </c>
       <c r="AL78" s="16" t="n">
-        <v>5273899</v>
+        <v>6152484</v>
       </c>
       <c r="AM78" s="16" t="n">
-        <v>6152484</v>
+        <v>5849723</v>
       </c>
       <c r="AN78" s="16" t="n">
-        <v>5849723</v>
+        <v>5877016</v>
       </c>
       <c r="AO78" s="16" t="n">
-        <v>5877016</v>
-      </c>
-      <c r="AP78" s="16" t="n">
         <v>6052476</v>
+      </c>
+      <c r="AP78" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AQ78" s="16" t="s">
         <v>58</v>
@@ -11678,44 +11678,44 @@
       <c r="AO79" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AP79" s="13" t="s">
-        <v>58</v>
+      <c r="AP79" s="13" t="n">
+        <v>4737350</v>
       </c>
       <c r="AQ79" s="13" t="n">
-        <v>4737350</v>
+        <v>4700465</v>
       </c>
       <c r="AR79" s="13" t="n">
-        <v>4700465</v>
+        <v>6031692</v>
       </c>
       <c r="AS79" s="13" t="n">
-        <v>6031692</v>
+        <v>7881522</v>
       </c>
       <c r="AT79" s="13" t="n">
-        <v>7881522</v>
+        <v>7144779</v>
       </c>
       <c r="AU79" s="13" t="n">
-        <v>7144779</v>
+        <v>7057589</v>
       </c>
       <c r="AV79" s="13" t="n">
-        <v>7057589</v>
+        <v>6902147</v>
       </c>
       <c r="AW79" s="13" t="n">
-        <v>6902147</v>
+        <v>6871438</v>
       </c>
       <c r="AX79" s="13" t="n">
-        <v>6871438</v>
+        <v>6802753</v>
       </c>
       <c r="AY79" s="13" t="n">
-        <v>6802753</v>
+        <v>6370231</v>
       </c>
       <c r="AZ79" s="13" t="n">
-        <v>6370231</v>
+        <v>6547212</v>
       </c>
       <c r="BA79" s="13" t="n">
-        <v>6547212</v>
+        <v>6445500</v>
       </c>
       <c r="BB79" s="13" t="n">
-        <v>6445500</v>
+        <v>6524073</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11837,44 +11837,44 @@
       <c r="AO80" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AP80" s="16" t="s">
-        <v>58</v>
+      <c r="AP80" s="16" t="n">
+        <v>5883331</v>
       </c>
       <c r="AQ80" s="16" t="n">
-        <v>5883331</v>
+        <v>6002506</v>
       </c>
       <c r="AR80" s="16" t="n">
-        <v>6002506</v>
+        <v>7125536</v>
       </c>
       <c r="AS80" s="16" t="n">
-        <v>7125536</v>
+        <v>8255811</v>
       </c>
       <c r="AT80" s="16" t="n">
-        <v>8255811</v>
+        <v>7599093</v>
       </c>
       <c r="AU80" s="16" t="n">
-        <v>7599093</v>
+        <v>7240440</v>
       </c>
       <c r="AV80" s="16" t="n">
-        <v>7240440</v>
+        <v>7315112</v>
       </c>
       <c r="AW80" s="16" t="n">
-        <v>7315112</v>
+        <v>7186385</v>
       </c>
       <c r="AX80" s="16" t="n">
-        <v>7186385</v>
+        <v>7021705</v>
       </c>
       <c r="AY80" s="16" t="n">
-        <v>7021705</v>
+        <v>7103057</v>
       </c>
       <c r="AZ80" s="16" t="n">
-        <v>7103057</v>
+        <v>7444853</v>
       </c>
       <c r="BA80" s="16" t="n">
-        <v>7444853</v>
+        <v>7684585</v>
       </c>
       <c r="BB80" s="16" t="n">
-        <v>7684585</v>
+        <v>8255886</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12020,21 +12020,21 @@
       <c r="AD82" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AE82" s="13" t="s">
-        <v>58</v>
+      <c r="AE82" s="13" t="n">
+        <v>4152241</v>
       </c>
       <c r="AF82" s="13" t="n">
-        <v>4152241</v>
-      </c>
-      <c r="AG82" s="13" t="n">
         <v>4155335</v>
       </c>
-      <c r="AH82" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI82" s="13" t="n">
+      <c r="AG82" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH82" s="13" t="n">
         <v>5088960</v>
       </c>
+      <c r="AI82" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AJ82" s="13" t="s">
         <v>58</v>
       </c>
@@ -12059,24 +12059,24 @@
       <c r="AQ82" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR82" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS82" s="13" t="n">
+      <c r="AR82" s="13" t="n">
         <v>8144000</v>
       </c>
+      <c r="AS82" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AT82" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AU82" s="13" t="s">
-        <v>58</v>
+      <c r="AU82" s="13" t="n">
+        <v>7767636</v>
       </c>
       <c r="AV82" s="13" t="n">
-        <v>7767636</v>
-      </c>
-      <c r="AW82" s="13" t="n">
         <v>7686667</v>
       </c>
+      <c r="AW82" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AX82" s="13" t="s">
         <v>58</v>
       </c>
@@ -12086,11 +12086,11 @@
       <c r="AZ82" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="BA82" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="BB82" s="13" t="n">
+      <c r="BA82" s="13" t="n">
         <v>7724667</v>
+      </c>
+      <c r="BB82" s="13" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12212,44 +12212,44 @@
       <c r="AO83" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AP83" s="16" t="s">
-        <v>58</v>
+      <c r="AP83" s="16" t="n">
+        <v>7964267</v>
       </c>
       <c r="AQ83" s="16" t="n">
-        <v>7964267</v>
+        <v>8386857</v>
       </c>
       <c r="AR83" s="16" t="n">
-        <v>8386857</v>
+        <v>8770790</v>
       </c>
       <c r="AS83" s="16" t="n">
-        <v>8770790</v>
+        <v>9512384</v>
       </c>
       <c r="AT83" s="16" t="n">
-        <v>9512384</v>
+        <v>9355011</v>
       </c>
       <c r="AU83" s="16" t="n">
-        <v>9355011</v>
+        <v>9593202</v>
       </c>
       <c r="AV83" s="16" t="n">
-        <v>9593202</v>
+        <v>9667023</v>
       </c>
       <c r="AW83" s="16" t="n">
-        <v>9667023</v>
+        <v>9635606</v>
       </c>
       <c r="AX83" s="16" t="n">
-        <v>9635606</v>
+        <v>9546452</v>
       </c>
       <c r="AY83" s="16" t="n">
-        <v>9546452</v>
+        <v>10641946</v>
       </c>
       <c r="AZ83" s="16" t="n">
-        <v>10641946</v>
+        <v>9926667</v>
       </c>
       <c r="BA83" s="16" t="n">
-        <v>9926667</v>
+        <v>12990875</v>
       </c>
       <c r="BB83" s="16" t="n">
-        <v>12990875</v>
+        <v>12273303</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12326,53 +12326,53 @@
       <c r="Z84" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AA84" s="13" t="s">
-        <v>58</v>
+      <c r="AA84" s="13" t="n">
+        <v>5704545</v>
       </c>
       <c r="AB84" s="13" t="n">
-        <v>5704545</v>
+        <v>5563383</v>
       </c>
       <c r="AC84" s="13" t="n">
-        <v>5563383</v>
+        <v>5570867</v>
       </c>
       <c r="AD84" s="13" t="n">
-        <v>5570867</v>
+        <v>5500479</v>
       </c>
       <c r="AE84" s="13" t="n">
-        <v>5500479</v>
+        <v>6330615</v>
       </c>
       <c r="AF84" s="13" t="n">
-        <v>6330615</v>
+        <v>6169408</v>
       </c>
       <c r="AG84" s="13" t="n">
-        <v>6169408</v>
+        <v>6208367</v>
       </c>
       <c r="AH84" s="13" t="n">
-        <v>6208367</v>
+        <v>8651470</v>
       </c>
       <c r="AI84" s="13" t="n">
-        <v>8651470</v>
+        <v>8552967</v>
       </c>
       <c r="AJ84" s="13" t="n">
-        <v>8552967</v>
+        <v>8361718</v>
       </c>
       <c r="AK84" s="13" t="n">
-        <v>8361718</v>
+        <v>8191985</v>
       </c>
       <c r="AL84" s="13" t="n">
-        <v>8191985</v>
+        <v>8016975</v>
       </c>
       <c r="AM84" s="13" t="n">
-        <v>8016975</v>
+        <v>8111842</v>
       </c>
       <c r="AN84" s="13" t="n">
-        <v>8111842</v>
+        <v>7761594</v>
       </c>
       <c r="AO84" s="13" t="n">
-        <v>7761594</v>
-      </c>
-      <c r="AP84" s="13" t="n">
         <v>7782377</v>
+      </c>
+      <c r="AP84" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AQ84" s="13" t="s">
         <v>58</v>
